--- a/data/nzd0005/nzd0005.xlsx
+++ b/data/nzd0005/nzd0005.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR202"/>
+  <dimension ref="A1:AR204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25272,11 +25272,15 @@
       <c r="M202" t="n">
         <v>479.1257142857143</v>
       </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>495.08</v>
+      </c>
       <c r="O202" t="n">
         <v>477.6157142857143</v>
       </c>
-      <c r="P202" t="inlineStr"/>
+      <c r="P202" t="n">
+        <v>477.13</v>
+      </c>
       <c r="Q202" t="n">
         <v>432.84</v>
       </c>
@@ -25316,29 +25320,289 @@
       <c r="AC202" t="n">
         <v>437.45</v>
       </c>
-      <c r="AD202" t="inlineStr"/>
-      <c r="AE202" t="inlineStr"/>
-      <c r="AF202" t="inlineStr"/>
-      <c r="AG202" t="inlineStr"/>
-      <c r="AH202" t="inlineStr"/>
-      <c r="AI202" t="inlineStr"/>
+      <c r="AD202" t="n">
+        <v>446.8757142857143</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>438.0466666666667</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>421.83</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>409.96</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>423.8766666666667</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>422.82</v>
+      </c>
       <c r="AJ202" t="n">
         <v>428.07</v>
       </c>
       <c r="AK202" t="inlineStr"/>
-      <c r="AL202" t="inlineStr"/>
+      <c r="AL202" t="n">
+        <v>440.62</v>
+      </c>
       <c r="AM202" t="inlineStr"/>
       <c r="AN202" t="n">
         <v>461.63</v>
       </c>
-      <c r="AO202" t="inlineStr"/>
-      <c r="AP202" t="inlineStr"/>
+      <c r="AO202" t="n">
+        <v>465.0857142857143</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>470.23</v>
+      </c>
       <c r="AQ202" t="n">
         <v>477.67</v>
       </c>
       <c r="AR202" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>381.96</v>
+      </c>
+      <c r="C203" t="n">
+        <v>365.3509090909091</v>
+      </c>
+      <c r="D203" t="n">
+        <v>355.6233333333333</v>
+      </c>
+      <c r="E203" t="n">
+        <v>347.4733333333333</v>
+      </c>
+      <c r="F203" t="n">
+        <v>345.08</v>
+      </c>
+      <c r="G203" t="n">
+        <v>349.0533333333333</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>357.1066666666667</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>342.9923076923077</v>
+      </c>
+      <c r="L203" t="n">
+        <v>393.35</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>456.97</v>
+      </c>
+      <c r="O203" t="n">
+        <v>458.9357142857143</v>
+      </c>
+      <c r="P203" t="n">
+        <v>459.8666666666667</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>442.7666666666667</v>
+      </c>
+      <c r="R203" t="n">
+        <v>417.8457142857143</v>
+      </c>
+      <c r="S203" t="n">
+        <v>414.5957142857143</v>
+      </c>
+      <c r="T203" t="n">
+        <v>410.7557142857143</v>
+      </c>
+      <c r="U203" t="n">
+        <v>406.9311111111111</v>
+      </c>
+      <c r="V203" t="n">
+        <v>398.9133333333333</v>
+      </c>
+      <c r="W203" t="n">
+        <v>398.800909090909</v>
+      </c>
+      <c r="X203" t="n">
+        <v>403.4809090909091</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>399.78</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>402.35</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>418.15</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>426</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>419.6</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>419.9257142857143</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>412.3711111111111</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>401.08</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>398.58</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>399.2511111111111</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>397.61</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>408.6366666666667</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>405.6011111111111</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>414.8266666666667</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>411.0211111111111</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>432.2566666666667</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>435.5757142857143</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>441.8</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>443.41</v>
+      </c>
+      <c r="AR203" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="n">
+        <v>453.6133333333333</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>443.8433333333333</v>
+      </c>
+      <c r="R204" t="n">
+        <v>433.6528571428572</v>
+      </c>
+      <c r="S204" t="n">
+        <v>406.7728571428572</v>
+      </c>
+      <c r="T204" t="n">
+        <v>390.8828571428572</v>
+      </c>
+      <c r="U204" t="n">
+        <v>394.8255555555555</v>
+      </c>
+      <c r="V204" t="n">
+        <v>408.3266666666667</v>
+      </c>
+      <c r="W204" t="n">
+        <v>416.4509090909091</v>
+      </c>
+      <c r="X204" t="n">
+        <v>427.0809090909091</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>431.61</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>423.28</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>426.89</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>432</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>421.34</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>417.5028571428572</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>426.5655555555555</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>432.2</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>411.56</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>414.9355555555555</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>423.52</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>411.8633333333333</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>412.4755555555556</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>426.0233333333333</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>440.7255555555556</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>426.0133333333333</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>423.4728571428572</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>444.06</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>451.52</v>
+      </c>
+      <c r="AR204" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -25353,7 +25617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B204"/>
+  <dimension ref="A1:B206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27401,6 +27665,26 @@
       </c>
       <c r="B204" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -27569,28 +27853,28 @@
         <v>0.0455</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1256232045568092</v>
+        <v>0.1268680582068531</v>
       </c>
       <c r="J2" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K2" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004551230709874177</v>
+        <v>0.004698666100992566</v>
       </c>
       <c r="M2" t="n">
-        <v>11.17438001396124</v>
+        <v>11.11270230662726</v>
       </c>
       <c r="N2" t="n">
-        <v>208.361507047129</v>
+        <v>207.1138961789351</v>
       </c>
       <c r="O2" t="n">
-        <v>14.43473266282161</v>
+        <v>14.39145219145501</v>
       </c>
       <c r="P2" t="n">
-        <v>377.6362480058475</v>
+        <v>377.6252434702948</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -27646,28 +27930,28 @@
         <v>0.0679</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5406309796196446</v>
+        <v>0.5406388235866705</v>
       </c>
       <c r="J3" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K3" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05429369294774111</v>
+        <v>0.05493171984085532</v>
       </c>
       <c r="M3" t="n">
-        <v>12.85256050770548</v>
+        <v>12.77518271561003</v>
       </c>
       <c r="N3" t="n">
-        <v>307.4161074912394</v>
+        <v>305.564203530628</v>
       </c>
       <c r="O3" t="n">
-        <v>17.53328570152324</v>
+        <v>17.48039483337342</v>
       </c>
       <c r="P3" t="n">
-        <v>351.6078213236637</v>
+        <v>351.6077519735639</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -27723,28 +28007,28 @@
         <v>0.0737</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2193583051789335</v>
+        <v>0.218770780566286</v>
       </c>
       <c r="J4" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K4" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01312586194689258</v>
+        <v>0.01322040022328397</v>
       </c>
       <c r="M4" t="n">
-        <v>11.58038081526162</v>
+        <v>11.51553028595554</v>
       </c>
       <c r="N4" t="n">
-        <v>217.3873004257516</v>
+        <v>216.1176708435002</v>
       </c>
       <c r="O4" t="n">
-        <v>14.74405983526083</v>
+        <v>14.70094115502474</v>
       </c>
       <c r="P4" t="n">
-        <v>350.5847226968182</v>
+        <v>350.5898446369798</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -27800,28 +28084,28 @@
         <v>0.0707</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1937916750199644</v>
+        <v>-0.1967809155195069</v>
       </c>
       <c r="J5" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K5" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008795496769637867</v>
+        <v>0.009175319804760385</v>
       </c>
       <c r="M5" t="n">
-        <v>12.63230707767283</v>
+        <v>12.57655285591362</v>
       </c>
       <c r="N5" t="n">
-        <v>252.5513580214156</v>
+        <v>251.1761850788396</v>
       </c>
       <c r="O5" t="n">
-        <v>15.89186452312678</v>
+        <v>15.84853889413278</v>
       </c>
       <c r="P5" t="n">
-        <v>355.2096186248525</v>
+        <v>355.2357976563627</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -27877,28 +28161,28 @@
         <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4173487785256929</v>
+        <v>-0.423622954948395</v>
       </c>
       <c r="J6" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K6" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03101919975944545</v>
+        <v>0.03230930272240706</v>
       </c>
       <c r="M6" t="n">
-        <v>14.20876150670716</v>
+        <v>14.15612025640941</v>
       </c>
       <c r="N6" t="n">
-        <v>320.9036386113114</v>
+        <v>319.2083963175051</v>
       </c>
       <c r="O6" t="n">
-        <v>17.91378348119992</v>
+        <v>17.86640412387185</v>
       </c>
       <c r="P6" t="n">
-        <v>361.3052336766794</v>
+        <v>361.3606539200475</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -27954,28 +28238,28 @@
         <v>0.0697</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4817639837268593</v>
+        <v>-0.4856633459383365</v>
       </c>
       <c r="J7" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K7" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03866664633045869</v>
+        <v>0.03972424097651728</v>
       </c>
       <c r="M7" t="n">
-        <v>14.44128370483587</v>
+        <v>14.37497219705937</v>
       </c>
       <c r="N7" t="n">
-        <v>346.0578734176269</v>
+        <v>344.0354194930067</v>
       </c>
       <c r="O7" t="n">
-        <v>18.60263081979608</v>
+        <v>18.54819181195317</v>
       </c>
       <c r="P7" t="n">
-        <v>364.8405480281073</v>
+        <v>364.8754448338212</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28034,7 +28318,7 @@
         <v>0.2499061797695492</v>
       </c>
       <c r="J8" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K8" t="n">
         <v>166</v>
@@ -28108,28 +28392,28 @@
         <v>0.0853</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2088973646397614</v>
+        <v>-0.2079236099849506</v>
       </c>
       <c r="J9" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K9" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02414699370929974</v>
+        <v>0.02420997451485196</v>
       </c>
       <c r="M9" t="n">
-        <v>7.875740054847217</v>
+        <v>7.831369639937305</v>
       </c>
       <c r="N9" t="n">
-        <v>108.7127734309351</v>
+        <v>108.0338910706301</v>
       </c>
       <c r="O9" t="n">
-        <v>10.42654177716346</v>
+        <v>10.39393530240736</v>
       </c>
       <c r="P9" t="n">
-        <v>361.5283079398313</v>
+        <v>361.5196905886344</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28188,7 +28472,7 @@
         <v>-0.3061194366458853</v>
       </c>
       <c r="J10" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K10" t="n">
         <v>158</v>
@@ -28256,28 +28540,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.3826543821424849</v>
+        <v>0.3924481710727107</v>
       </c>
       <c r="J11" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K11" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009534208473245598</v>
+        <v>0.01017624480789314</v>
       </c>
       <c r="M11" t="n">
-        <v>23.8126178582475</v>
+        <v>23.68223648495726</v>
       </c>
       <c r="N11" t="n">
-        <v>961.2186728106312</v>
+        <v>954.267769621069</v>
       </c>
       <c r="O11" t="n">
-        <v>31.00352678020085</v>
+        <v>30.89122479962666</v>
       </c>
       <c r="P11" t="n">
-        <v>326.0696565229172</v>
+        <v>325.9869484431461</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -28333,28 +28617,28 @@
         <v>0.0512</v>
       </c>
       <c r="I12" t="n">
-        <v>1.138382787875293</v>
+        <v>1.143975955900883</v>
       </c>
       <c r="J12" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K12" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1057624381487314</v>
+        <v>0.1079738765669583</v>
       </c>
       <c r="M12" t="n">
-        <v>20.33487045234061</v>
+        <v>20.23094168999507</v>
       </c>
       <c r="N12" t="n">
-        <v>670.8165854117738</v>
+        <v>666.629822302657</v>
       </c>
       <c r="O12" t="n">
-        <v>25.90012713118941</v>
+        <v>25.81917547681678</v>
       </c>
       <c r="P12" t="n">
-        <v>359.7033419221916</v>
+        <v>359.6550051345248</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -28413,7 +28697,7 @@
         <v>1.53309737009007</v>
       </c>
       <c r="J13" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" t="n">
         <v>153</v>
@@ -28487,28 +28771,28 @@
         <v>0.0443</v>
       </c>
       <c r="I14" t="n">
-        <v>1.57981945998104</v>
+        <v>1.646281234452465</v>
       </c>
       <c r="J14" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K14" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2683841270280968</v>
+        <v>0.2822005530303301</v>
       </c>
       <c r="M14" t="n">
-        <v>15.48547543641374</v>
+        <v>15.63807259613474</v>
       </c>
       <c r="N14" t="n">
-        <v>402.1839722204548</v>
+        <v>412.6434637898568</v>
       </c>
       <c r="O14" t="n">
-        <v>20.05452498117208</v>
+        <v>20.31362753891724</v>
       </c>
       <c r="P14" t="n">
-        <v>404.8669132410387</v>
+        <v>404.2778573135114</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -28564,28 +28848,28 @@
         <v>0.042</v>
       </c>
       <c r="I15" t="n">
-        <v>2.031771282618429</v>
+        <v>2.043837466474793</v>
       </c>
       <c r="J15" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K15" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3899275867427957</v>
+        <v>0.3951410040226873</v>
       </c>
       <c r="M15" t="n">
-        <v>15.61776248207268</v>
+        <v>15.59047527009217</v>
       </c>
       <c r="N15" t="n">
-        <v>379.7198401177507</v>
+        <v>378.1775722402371</v>
       </c>
       <c r="O15" t="n">
-        <v>19.48640141528832</v>
+        <v>19.44678822428622</v>
       </c>
       <c r="P15" t="n">
-        <v>396.2326300897343</v>
+        <v>396.1225660532668</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -28641,28 +28925,28 @@
         <v>0.0328</v>
       </c>
       <c r="I16" t="n">
-        <v>2.051999331722583</v>
+        <v>2.105527230069022</v>
       </c>
       <c r="J16" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K16" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3899261697001383</v>
+        <v>0.4065388265718238</v>
       </c>
       <c r="M16" t="n">
-        <v>16.119593920578</v>
+        <v>16.08624561578972</v>
       </c>
       <c r="N16" t="n">
-        <v>395.581342677273</v>
+        <v>395.1473807409564</v>
       </c>
       <c r="O16" t="n">
-        <v>19.88922679938245</v>
+        <v>19.87831433348805</v>
       </c>
       <c r="P16" t="n">
-        <v>394.5831803962085</v>
+        <v>394.1025993822162</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -28718,28 +29002,28 @@
         <v>0.0325</v>
       </c>
       <c r="I17" t="n">
-        <v>1.955015962946713</v>
+        <v>1.957351912112248</v>
       </c>
       <c r="J17" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K17" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3510862442054319</v>
+        <v>0.3570284649894252</v>
       </c>
       <c r="M17" t="n">
-        <v>16.37252937760471</v>
+        <v>16.1842185584056</v>
       </c>
       <c r="N17" t="n">
-        <v>430.902504379398</v>
+        <v>425.632152090802</v>
       </c>
       <c r="O17" t="n">
-        <v>20.75819125982314</v>
+        <v>20.63085437132457</v>
       </c>
       <c r="P17" t="n">
-        <v>392.480140880652</v>
+        <v>392.4592342978746</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -28795,28 +29079,28 @@
         <v>0.0387</v>
       </c>
       <c r="I18" t="n">
-        <v>1.809927390004464</v>
+        <v>1.793824522772464</v>
       </c>
       <c r="J18" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K18" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2781520052831371</v>
+        <v>0.2788452814963094</v>
       </c>
       <c r="M18" t="n">
-        <v>17.7833685730454</v>
+        <v>17.66687901156441</v>
       </c>
       <c r="N18" t="n">
-        <v>504.0251904646898</v>
+        <v>499.5830487125675</v>
       </c>
       <c r="O18" t="n">
-        <v>22.4505053498733</v>
+        <v>22.35135451628307</v>
       </c>
       <c r="P18" t="n">
-        <v>387.3236132203829</v>
+        <v>387.4674031738999</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -28872,28 +29156,28 @@
         <v>0.0375</v>
       </c>
       <c r="I19" t="n">
-        <v>1.534033938051174</v>
+        <v>1.502019514880695</v>
       </c>
       <c r="J19" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K19" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2042762945997092</v>
+        <v>0.2004489634600365</v>
       </c>
       <c r="M19" t="n">
-        <v>18.72735265766516</v>
+        <v>18.67082051252889</v>
       </c>
       <c r="N19" t="n">
-        <v>530.0182528571994</v>
+        <v>526.7821649037534</v>
       </c>
       <c r="O19" t="n">
-        <v>23.02212528975549</v>
+        <v>22.95173555319408</v>
       </c>
       <c r="P19" t="n">
-        <v>386.9115429726435</v>
+        <v>387.2038012062662</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -28949,28 +29233,28 @@
         <v>0.0417</v>
       </c>
       <c r="I20" t="n">
-        <v>1.014602659950104</v>
+        <v>0.9790474195790705</v>
       </c>
       <c r="J20" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K20" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0969368989057654</v>
+        <v>0.09217588020042111</v>
       </c>
       <c r="M20" t="n">
-        <v>19.25328181863597</v>
+        <v>19.22020504098942</v>
       </c>
       <c r="N20" t="n">
-        <v>552.4875377318575</v>
+        <v>550.5564496448918</v>
       </c>
       <c r="O20" t="n">
-        <v>23.50505345094662</v>
+        <v>23.46393934625837</v>
       </c>
       <c r="P20" t="n">
-        <v>392.0118416693593</v>
+        <v>392.3379051251061</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -29026,28 +29310,28 @@
         <v>0.0577</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5007660321298182</v>
+        <v>0.4908967944124921</v>
       </c>
       <c r="J21" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K21" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02745195247629995</v>
+        <v>0.02698277435879426</v>
       </c>
       <c r="M21" t="n">
-        <v>18.15702230175278</v>
+        <v>18.02322849708111</v>
       </c>
       <c r="N21" t="n">
-        <v>520.4206744294361</v>
+        <v>515.2599530994133</v>
       </c>
       <c r="O21" t="n">
-        <v>22.81273053427485</v>
+        <v>22.69933816434773</v>
       </c>
       <c r="P21" t="n">
-        <v>392.8788857499713</v>
+        <v>392.9683660587991</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -29103,28 +29387,28 @@
         <v>0.0745</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07133853361137672</v>
+        <v>0.08955825394212213</v>
       </c>
       <c r="J22" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K22" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0007435052191513414</v>
+        <v>0.001195721696699348</v>
       </c>
       <c r="M22" t="n">
-        <v>16.03393028962114</v>
+        <v>15.94036692147412</v>
       </c>
       <c r="N22" t="n">
-        <v>401.2900056484239</v>
+        <v>397.8599650046507</v>
       </c>
       <c r="O22" t="n">
-        <v>20.03222418126414</v>
+        <v>19.94642737446109</v>
       </c>
       <c r="P22" t="n">
-        <v>393.0587271036419</v>
+        <v>392.8937591009274</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -29180,28 +29464,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1193334074540367</v>
+        <v>-0.08474705071081244</v>
       </c>
       <c r="J23" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K23" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002405949630327475</v>
+        <v>0.001229325024596717</v>
       </c>
       <c r="M23" t="n">
-        <v>14.5229393669418</v>
+        <v>14.53265009044844</v>
       </c>
       <c r="N23" t="n">
-        <v>347.3260539303832</v>
+        <v>347.3843906920715</v>
       </c>
       <c r="O23" t="n">
-        <v>18.63668570133604</v>
+        <v>18.63825074120615</v>
       </c>
       <c r="P23" t="n">
-        <v>393.8023025525913</v>
+        <v>393.4903947730327</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -29257,28 +29541,28 @@
         <v>0.0668</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2429390984699192</v>
+        <v>-0.1870411820453537</v>
       </c>
       <c r="J24" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K24" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01091253868234776</v>
+        <v>0.006456547439153471</v>
       </c>
       <c r="M24" t="n">
-        <v>13.73740090834909</v>
+        <v>13.88177275108487</v>
       </c>
       <c r="N24" t="n">
-        <v>311.4939765973538</v>
+        <v>317.4279193479653</v>
       </c>
       <c r="O24" t="n">
-        <v>17.64919195309955</v>
+        <v>17.81650693452466</v>
       </c>
       <c r="P24" t="n">
-        <v>394.0914111350426</v>
+        <v>393.5888853038941</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -29334,28 +29618,28 @@
         <v>0.0546</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.2467353816119104</v>
+        <v>-0.1910095613729378</v>
       </c>
       <c r="J25" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K25" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01195909960300989</v>
+        <v>0.007112287085261793</v>
       </c>
       <c r="M25" t="n">
-        <v>13.60930605878007</v>
+        <v>13.69505325866357</v>
       </c>
       <c r="N25" t="n">
-        <v>295.1058917959321</v>
+        <v>302.4978614143782</v>
       </c>
       <c r="O25" t="n">
-        <v>17.17864639009524</v>
+        <v>17.39246565080346</v>
       </c>
       <c r="P25" t="n">
-        <v>394.7154053720141</v>
+        <v>394.2136840215733</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -29411,28 +29695,28 @@
         <v>0.055</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2771893280261782</v>
+        <v>-0.231689209646551</v>
       </c>
       <c r="J26" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K26" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01440982820407544</v>
+        <v>0.0101319012353166</v>
       </c>
       <c r="M26" t="n">
-        <v>14.25893223945157</v>
+        <v>14.30287366741249</v>
       </c>
       <c r="N26" t="n">
-        <v>307.0528034319306</v>
+        <v>310.2080070283484</v>
       </c>
       <c r="O26" t="n">
-        <v>17.52292222866753</v>
+        <v>17.61272287377362</v>
       </c>
       <c r="P26" t="n">
-        <v>397.2640546010803</v>
+        <v>396.8555578799242</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -29488,28 +29772,28 @@
         <v>0.047</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.008824172347666935</v>
+        <v>0.04499158115261985</v>
       </c>
       <c r="J27" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K27" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L27" t="n">
-        <v>1.51955657988756e-05</v>
+        <v>0.0003938196641825042</v>
       </c>
       <c r="M27" t="n">
-        <v>14.36118581168468</v>
+        <v>14.43399542092119</v>
       </c>
       <c r="N27" t="n">
-        <v>305.5931262254235</v>
+        <v>309.9902321327326</v>
       </c>
       <c r="O27" t="n">
-        <v>17.48122210331485</v>
+        <v>17.6065394706834</v>
       </c>
       <c r="P27" t="n">
-        <v>396.1775657242494</v>
+        <v>395.6953193161977</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -29565,28 +29849,28 @@
         <v>0.0461</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2234662097369026</v>
+        <v>0.2815357133940884</v>
       </c>
       <c r="J28" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K28" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L28" t="n">
-        <v>0.009434765812440626</v>
+        <v>0.01481102718365412</v>
       </c>
       <c r="M28" t="n">
-        <v>14.20922650716713</v>
+        <v>14.29468676444106</v>
       </c>
       <c r="N28" t="n">
-        <v>313.740490373266</v>
+        <v>319.1735348006601</v>
       </c>
       <c r="O28" t="n">
-        <v>17.71272114535951</v>
+        <v>17.86542848074627</v>
       </c>
       <c r="P28" t="n">
-        <v>394.7063077137837</v>
+        <v>394.1870901270649</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -29642,28 +29926,28 @@
         <v>0.0462</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4784847375543431</v>
+        <v>0.5261982625225491</v>
       </c>
       <c r="J29" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K29" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" t="n">
-        <v>0.04071155560825657</v>
+        <v>0.04903005299368512</v>
       </c>
       <c r="M29" t="n">
-        <v>14.50392408664441</v>
+        <v>14.56035040119038</v>
       </c>
       <c r="N29" t="n">
-        <v>325.2115384831162</v>
+        <v>327.4781842861669</v>
       </c>
       <c r="O29" t="n">
-        <v>18.03362244484219</v>
+        <v>18.09635831558844</v>
       </c>
       <c r="P29" t="n">
-        <v>385.0347767411633</v>
+        <v>384.6089110651513</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -29719,28 +30003,28 @@
         <v>0.0414</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4878187748189976</v>
+        <v>0.6072351547052537</v>
       </c>
       <c r="J30" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K30" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03633343186577997</v>
+        <v>0.05353426383997384</v>
       </c>
       <c r="M30" t="n">
-        <v>15.6089097735646</v>
+        <v>15.89813846284257</v>
       </c>
       <c r="N30" t="n">
-        <v>368.5162929592565</v>
+        <v>388.2132038101185</v>
       </c>
       <c r="O30" t="n">
-        <v>19.19677819216695</v>
+        <v>19.7031267521203</v>
       </c>
       <c r="P30" t="n">
-        <v>377.7663205853081</v>
+        <v>376.7093787993796</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -29796,28 +30080,28 @@
         <v>0.0501</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2305269906193322</v>
+        <v>0.3774931972952333</v>
       </c>
       <c r="J31" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K31" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L31" t="n">
-        <v>0.007837608365966475</v>
+        <v>0.0197175985836614</v>
       </c>
       <c r="M31" t="n">
-        <v>15.51324026413686</v>
+        <v>15.99880143888871</v>
       </c>
       <c r="N31" t="n">
-        <v>387.4001276841205</v>
+        <v>416.3343035791773</v>
       </c>
       <c r="O31" t="n">
-        <v>19.68248276219544</v>
+        <v>20.4042716993079</v>
       </c>
       <c r="P31" t="n">
-        <v>373.8258936199097</v>
+        <v>372.5144510243467</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -29873,28 +30157,28 @@
         <v>0.0608</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1010284820951642</v>
+        <v>0.2498994480512507</v>
       </c>
       <c r="J32" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K32" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L32" t="n">
-        <v>0.001390337221634952</v>
+        <v>0.008104701649549351</v>
       </c>
       <c r="M32" t="n">
-        <v>15.91177531353885</v>
+        <v>16.29267277904166</v>
       </c>
       <c r="N32" t="n">
-        <v>421.7239705405538</v>
+        <v>449.3568185709804</v>
       </c>
       <c r="O32" t="n">
-        <v>20.53591903325862</v>
+        <v>21.19803808306279</v>
       </c>
       <c r="P32" t="n">
-        <v>372.0050215347457</v>
+        <v>370.6787568613158</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -29950,28 +30234,28 @@
         <v>0.0452</v>
       </c>
       <c r="I33" t="n">
-        <v>0.157351666795284</v>
+        <v>0.263962505360565</v>
       </c>
       <c r="J33" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K33" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L33" t="n">
-        <v>0.004524665184543197</v>
+        <v>0.01248847687487653</v>
       </c>
       <c r="M33" t="n">
-        <v>14.48153689981516</v>
+        <v>14.72858530107083</v>
       </c>
       <c r="N33" t="n">
-        <v>325.3390841320949</v>
+        <v>336.0993268768374</v>
       </c>
       <c r="O33" t="n">
-        <v>18.03715842731595</v>
+        <v>18.33301194230881</v>
       </c>
       <c r="P33" t="n">
-        <v>372.8758710142365</v>
+        <v>371.9360732466592</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -30027,28 +30311,28 @@
         <v>0.0518</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.03062425375360644</v>
+        <v>0.1127261708374735</v>
       </c>
       <c r="J34" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K34" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L34" t="n">
-        <v>0.000114651835374735</v>
+        <v>0.001498581594338466</v>
       </c>
       <c r="M34" t="n">
-        <v>17.60960351971614</v>
+        <v>18.00039338867194</v>
       </c>
       <c r="N34" t="n">
-        <v>481.3723770685895</v>
+        <v>508.027620854314</v>
       </c>
       <c r="O34" t="n">
-        <v>21.94020002344075</v>
+        <v>22.53946806946238</v>
       </c>
       <c r="P34" t="n">
-        <v>368.3034460821425</v>
+        <v>367.0326704684082</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -30104,28 +30388,28 @@
         <v>0.0461</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.4412107590977168</v>
+        <v>-0.2744785258370441</v>
       </c>
       <c r="J35" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K35" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0204274002009267</v>
+        <v>0.007676742015442217</v>
       </c>
       <c r="M35" t="n">
-        <v>18.50962765511292</v>
+        <v>18.97273175882285</v>
       </c>
       <c r="N35" t="n">
-        <v>538.8726194734395</v>
+        <v>574.10820972061</v>
       </c>
       <c r="O35" t="n">
-        <v>23.21363003654188</v>
+        <v>23.96055528823591</v>
       </c>
       <c r="P35" t="n">
-        <v>374.9666215105753</v>
+        <v>373.485673120261</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -30181,28 +30465,28 @@
         <v>0.0367</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1905267267993949</v>
+        <v>0.2654433472333348</v>
       </c>
       <c r="J36" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K36" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L36" t="n">
-        <v>0.004553226938589394</v>
+        <v>0.008812662088101497</v>
       </c>
       <c r="M36" t="n">
-        <v>17.62931704495168</v>
+        <v>17.79191389376276</v>
       </c>
       <c r="N36" t="n">
-        <v>466.7388264046275</v>
+        <v>473.3308414465666</v>
       </c>
       <c r="O36" t="n">
-        <v>21.60413910352892</v>
+        <v>21.75616789433669</v>
       </c>
       <c r="P36" t="n">
-        <v>372.8134658264001</v>
+        <v>372.1623080344361</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -30258,28 +30542,28 @@
         <v>0.05</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.452157877140516</v>
+        <v>-0.3530147216150336</v>
       </c>
       <c r="J37" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K37" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02358543978252436</v>
+        <v>0.01441591487606397</v>
       </c>
       <c r="M37" t="n">
-        <v>17.92053842108686</v>
+        <v>18.1511085813532</v>
       </c>
       <c r="N37" t="n">
-        <v>498.5091502090829</v>
+        <v>510.8937042843958</v>
       </c>
       <c r="O37" t="n">
-        <v>22.32731847332059</v>
+        <v>22.602957865828</v>
       </c>
       <c r="P37" t="n">
-        <v>381.7452111499193</v>
+        <v>380.8963814066028</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -30335,28 +30619,28 @@
         <v>0.0346</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.5026965772404524</v>
+        <v>-0.2771730323312161</v>
       </c>
       <c r="J38" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K38" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02227612654109457</v>
+        <v>0.006569162927348215</v>
       </c>
       <c r="M38" t="n">
-        <v>20.79719004850934</v>
+        <v>21.30328209276407</v>
       </c>
       <c r="N38" t="n">
-        <v>631.7697393159833</v>
+        <v>681.0881703671523</v>
       </c>
       <c r="O38" t="n">
-        <v>25.13503012363389</v>
+        <v>26.0976659946278</v>
       </c>
       <c r="P38" t="n">
-        <v>383.1972799375127</v>
+        <v>381.2475110597821</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -30412,28 +30696,28 @@
         <v>0.0591</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.7025163522049179</v>
+        <v>-0.5761973852780439</v>
       </c>
       <c r="J39" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K39" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0516924686987067</v>
+        <v>0.03443042310598032</v>
       </c>
       <c r="M39" t="n">
-        <v>18.25226539475837</v>
+        <v>18.51285208178118</v>
       </c>
       <c r="N39" t="n">
-        <v>504.6788374372407</v>
+        <v>528.8787394753101</v>
       </c>
       <c r="O39" t="n">
-        <v>22.46505814453283</v>
+        <v>22.99736375055432</v>
       </c>
       <c r="P39" t="n">
-        <v>396.3560454845785</v>
+        <v>395.2293374287691</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -30489,28 +30773,28 @@
         <v>0.0354</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.1711066271520121</v>
+        <v>-0.08492433354509818</v>
       </c>
       <c r="J40" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K40" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L40" t="n">
-        <v>0.003566305253817292</v>
+        <v>0.0008833538764415616</v>
       </c>
       <c r="M40" t="n">
-        <v>17.03167698188261</v>
+        <v>17.13378518119681</v>
       </c>
       <c r="N40" t="n">
-        <v>468.1097931149956</v>
+        <v>475.3858230186513</v>
       </c>
       <c r="O40" t="n">
-        <v>21.63584509823907</v>
+        <v>21.8033443081251</v>
       </c>
       <c r="P40" t="n">
-        <v>401.1342692035557</v>
+        <v>400.3730428592142</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -30566,28 +30850,28 @@
         <v>0.0391</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.2392833600389305</v>
+        <v>-0.07817108508874698</v>
       </c>
       <c r="J41" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K41" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L41" t="n">
-        <v>0.007903042493843104</v>
+        <v>0.0008100446563991115</v>
       </c>
       <c r="M41" t="n">
-        <v>16.6838741350743</v>
+        <v>17.09638197767589</v>
       </c>
       <c r="N41" t="n">
-        <v>418.6772508061579</v>
+        <v>450.0704303988705</v>
       </c>
       <c r="O41" t="n">
-        <v>20.46160430675361</v>
+        <v>21.2148634310681</v>
       </c>
       <c r="P41" t="n">
-        <v>405.320489405048</v>
+        <v>403.9049166894097</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -30643,28 +30927,28 @@
         <v>0.0469</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.04035202994136616</v>
+        <v>0.1553405687902359</v>
       </c>
       <c r="J42" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K42" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0002313905156529072</v>
+        <v>0.00321322255544243</v>
       </c>
       <c r="M42" t="n">
-        <v>16.09400951618674</v>
+        <v>16.67681421579836</v>
       </c>
       <c r="N42" t="n">
-        <v>390.4989628142256</v>
+        <v>427.9209416922935</v>
       </c>
       <c r="O42" t="n">
-        <v>19.76104660219761</v>
+        <v>20.6862500635638</v>
       </c>
       <c r="P42" t="n">
-        <v>406.7473628016441</v>
+        <v>404.9997585703096</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -30714,28 +30998,28 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>0.2629900582958328</v>
+        <v>0.3727084486429008</v>
       </c>
       <c r="J43" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K43" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L43" t="n">
-        <v>0.008668772307568795</v>
+        <v>0.01717963167051795</v>
       </c>
       <c r="M43" t="n">
-        <v>16.75533210717018</v>
+        <v>17.02311950725548</v>
       </c>
       <c r="N43" t="n">
-        <v>449.6093719380758</v>
+        <v>461.467872139667</v>
       </c>
       <c r="O43" t="n">
-        <v>21.20399424490763</v>
+        <v>21.48180327951233</v>
       </c>
       <c r="P43" t="n">
-        <v>405.2389507303231</v>
+        <v>404.2670458582865</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -30772,7 +31056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR202"/>
+  <dimension ref="A1:AR204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69412,13 +69696,21 @@
           <t>-34.46156493118884,172.6702941981251</t>
         </is>
       </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>-34.46109443095112,172.67047716974116</t>
+        </is>
+      </c>
       <c r="O202" t="inlineStr">
         <is>
           <t>-34.46058301646715,172.67089325973177</t>
         </is>
       </c>
-      <c r="P202" t="inlineStr"/>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>-34.45988802625266,172.6712038659971</t>
+        </is>
+      </c>
       <c r="Q202" t="inlineStr">
         <is>
           <t>-34.459328009373415,172.67196268453196</t>
@@ -69484,27 +69776,63 @@
           <t>-34.451017586722024,172.67545810900313</t>
         </is>
       </c>
-      <c r="AD202" t="inlineStr"/>
-      <c r="AE202" t="inlineStr"/>
-      <c r="AF202" t="inlineStr"/>
-      <c r="AG202" t="inlineStr"/>
-      <c r="AH202" t="inlineStr"/>
-      <c r="AI202" t="inlineStr"/>
+      <c r="AD202" t="inlineStr">
+        <is>
+          <t>-34.45028847025924,172.6755242811539</t>
+        </is>
+      </c>
+      <c r="AE202" t="inlineStr">
+        <is>
+          <t>-34.44957640490475,172.67578907486538</t>
+        </is>
+      </c>
+      <c r="AF202" t="inlineStr">
+        <is>
+          <t>-34.44887708844982,172.67613280162777</t>
+        </is>
+      </c>
+      <c r="AG202" t="inlineStr">
+        <is>
+          <t>-34.44817026024742,172.67643008304458</t>
+        </is>
+      </c>
+      <c r="AH202" t="inlineStr">
+        <is>
+          <t>-34.447418902887414,172.6764518436665</t>
+        </is>
+      </c>
+      <c r="AI202" t="inlineStr">
+        <is>
+          <t>-34.44669339190288,172.67663358861</t>
+        </is>
+      </c>
       <c r="AJ202" t="inlineStr">
         <is>
           <t>-34.44595698571026,172.67674795069536</t>
         </is>
       </c>
       <c r="AK202" t="inlineStr"/>
-      <c r="AL202" t="inlineStr"/>
+      <c r="AL202" t="inlineStr">
+        <is>
+          <t>-34.44448061511787,172.6769547751945</t>
+        </is>
+      </c>
       <c r="AM202" t="inlineStr"/>
       <c r="AN202" t="inlineStr">
         <is>
           <t>-34.44301273067139,172.67706620087645</t>
         </is>
       </c>
-      <c r="AO202" t="inlineStr"/>
-      <c r="AP202" t="inlineStr"/>
+      <c r="AO202" t="inlineStr">
+        <is>
+          <t>-34.44230272189544,172.67714652260798</t>
+        </is>
+      </c>
+      <c r="AP202" t="inlineStr">
+        <is>
+          <t>-34.441566619283165,172.67720342089595</t>
+        </is>
+      </c>
       <c r="AQ202" t="inlineStr">
         <is>
           <t>-34.44082310222073,172.67723628870286</t>
@@ -69513,6 +69841,382 @@
       <c r="AR202" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>-34.46796370826729,172.6642312851007</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>-34.467520022321466,172.66497224315296</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>-34.46703427027704,172.6656581076623</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>-34.46653887163461,172.66633134186281</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>-34.466009054731515,172.66695757376982</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>-34.465448036379826,172.66753894475772</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>-34.464356761783,172.66875300919568</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>-34.46340613265545,172.6701387251712</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>-34.462562086074925,172.67039271794465</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>-34.461250206312904,172.67084703033197</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>-34.46064057812472,172.671084399128</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>-34.45994122222719,172.67138050829507</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>-34.45929742134214,172.671861113189</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>-34.45867771307737,172.67242174046677</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>-34.45799122212023,172.67276062627982</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>-34.45730654321944,172.67310554845355</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>-34.456621810926286,172.67345031250588</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>-34.45594999305355,172.67383797975006</t>
+        </is>
+      </c>
+      <c r="W203" t="inlineStr">
+        <is>
+          <t>-34.45525381056852,172.67414476028947</t>
+        </is>
+      </c>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t>-34.45454285559875,172.67440250637034</t>
+        </is>
+      </c>
+      <c r="Y203" t="inlineStr">
+        <is>
+          <t>-34.45385771853713,172.67474600311135</t>
+        </is>
+      </c>
+      <c r="Z203" t="inlineStr">
+        <is>
+          <t>-34.453153253492346,172.67502533846042</t>
+        </is>
+      </c>
+      <c r="AA203" t="inlineStr">
+        <is>
+          <t>-34.45240801828059,172.6751693125629</t>
+        </is>
+      </c>
+      <c r="AB203" t="inlineStr">
+        <is>
+          <t>-34.451716303844506,172.67538316060129</t>
+        </is>
+      </c>
+      <c r="AC203" t="inlineStr">
+        <is>
+          <t>-34.451051961477425,172.67564794864217</t>
+        </is>
+      </c>
+      <c r="AD203" t="inlineStr">
+        <is>
+          <t>-34.45033500291756,172.6758122390006</t>
+        </is>
+      </c>
+      <c r="AE203" t="inlineStr">
+        <is>
+          <t>-34.449620736621355,172.67606341319046</t>
+        </is>
+      </c>
+      <c r="AF203" t="inlineStr">
+        <is>
+          <t>-34.448912915174084,172.67635450960574</t>
+        </is>
+      </c>
+      <c r="AG203" t="inlineStr">
+        <is>
+          <t>-34.44818990864345,172.67655167419</t>
+        </is>
+      </c>
+      <c r="AH203" t="inlineStr">
+        <is>
+          <t>-34.44746142062161,172.6767149564377</t>
+        </is>
+      </c>
+      <c r="AI203" t="inlineStr">
+        <is>
+          <t>-34.44673691844128,172.67690294364544</t>
+        </is>
+      </c>
+      <c r="AJ203" t="inlineStr">
+        <is>
+          <t>-34.44599053845221,172.676955583391</t>
+        </is>
+      </c>
+      <c r="AK203" t="inlineStr">
+        <is>
+          <t>-34.44526843123708,172.67715846976677</t>
+        </is>
+      </c>
+      <c r="AL203" t="inlineStr">
+        <is>
+          <t>-34.44452514847477,172.67723035565203</t>
+        </is>
+      </c>
+      <c r="AM203" t="inlineStr">
+        <is>
+          <t>-34.44380435803255,172.67744146877914</t>
+        </is>
+      </c>
+      <c r="AN203" t="inlineStr">
+        <is>
+          <t>-34.44305642857368,172.67738155916908</t>
+        </is>
+      </c>
+      <c r="AO203" t="inlineStr">
+        <is>
+          <t>-34.44233813861086,172.67746488908875</t>
+        </is>
+      </c>
+      <c r="AP203" t="inlineStr">
+        <is>
+          <t>-34.44159938886366,172.67751034773042</t>
+        </is>
+      </c>
+      <c r="AQ203" t="inlineStr">
+        <is>
+          <t>-34.44086259161413,172.6776061522644</t>
+        </is>
+      </c>
+      <c r="AR203" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>-34.4599604914535,172.6714444938598</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>-34.459294103696365,172.6718500965569</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>-34.45862900537074,172.67226000016808</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>-34.45801532703261,172.67284067003698</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>-34.45736777782833,172.67330888685865</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>-34.45665911180279,172.67357417520637</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>-34.455920987861404,172.67374166431568</t>
+        </is>
+      </c>
+      <c r="W204" t="inlineStr">
+        <is>
+          <t>-34.45519942606501,172.67396417026794</t>
+        </is>
+      </c>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>-34.45447013774544,172.6741610395208</t>
+        </is>
+      </c>
+      <c r="Y204" t="inlineStr">
+        <is>
+          <t>-34.45375964238863,172.67442033228426</t>
+        </is>
+      </c>
+      <c r="Z204" t="inlineStr">
+        <is>
+          <t>-34.453088763353314,172.67481119330265</t>
+        </is>
+      </c>
+      <c r="AA204" t="inlineStr">
+        <is>
+          <t>-34.45238108840466,172.67507989005003</t>
+        </is>
+      </c>
+      <c r="AB204" t="inlineStr">
+        <is>
+          <t>-34.451700659463214,172.67532063152032</t>
+        </is>
+      </c>
+      <c r="AC204" t="inlineStr">
+        <is>
+          <t>-34.451048610673865,172.67562944325863</t>
+        </is>
+      </c>
+      <c r="AD204" t="inlineStr">
+        <is>
+          <t>-34.450339186260415,172.6758381269841</t>
+        </is>
+      </c>
+      <c r="AE204" t="inlineStr">
+        <is>
+          <t>-34.44959622840233,172.67591174827163</t>
+        </is>
+      </c>
+      <c r="AF204" t="inlineStr">
+        <is>
+          <t>-34.4488591835703,172.67602200113453</t>
+        </is>
+      </c>
+      <c r="AG204" t="inlineStr">
+        <is>
+          <t>-34.44816749772161,172.67641298763334</t>
+        </is>
+      </c>
+      <c r="AH204" t="inlineStr">
+        <is>
+          <t>-34.44743434040286,172.67654737530825</t>
+        </is>
+      </c>
+      <c r="AI204" t="inlineStr">
+        <is>
+          <t>-34.44669218330352,172.67662610949762</t>
+        </is>
+      </c>
+      <c r="AJ204" t="inlineStr">
+        <is>
+          <t>-34.44598496745526,172.6769211085166</t>
+        </is>
+      </c>
+      <c r="AK204" t="inlineStr">
+        <is>
+          <t>-34.445256562249774,172.67708502133033</t>
+        </is>
+      </c>
+      <c r="AL204" t="inlineStr">
+        <is>
+          <t>-34.44450581699935,172.6771107284823</t>
+        </is>
+      </c>
+      <c r="AM204" t="inlineStr">
+        <is>
+          <t>-34.44375307230883,172.6771241039826</t>
+        </is>
+      </c>
+      <c r="AN204" t="inlineStr">
+        <is>
+          <t>-34.44306571650482,172.67744858895372</t>
+        </is>
+      </c>
+      <c r="AO204" t="inlineStr">
+        <is>
+          <t>-34.442352663734034,172.67759545995918</t>
+        </is>
+      </c>
+      <c r="AP204" t="inlineStr">
+        <is>
+          <t>-34.441596783923394,172.67748594903534</t>
+        </is>
+      </c>
+      <c r="AQ204" t="inlineStr">
+        <is>
+          <t>-34.44085324381718,172.67751859842352</t>
+        </is>
+      </c>
+      <c r="AR204" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0005/nzd0005.xlsx
+++ b/data/nzd0005/nzd0005.xlsx
@@ -27698,7 +27698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27789,35 +27789,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -27876,27 +27881,28 @@
       <c r="P2" t="n">
         <v>377.6252434702948</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (172.66728932945588 -34.47029833106355, 172.65984938713956 -34.46461804731679)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>172.6672893294559</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.47029833106355</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>172.6598493871396</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.46461804731679</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>172.6635693582977</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.46745818919017</v>
       </c>
     </row>
@@ -27953,27 +27959,28 @@
       <c r="P3" t="n">
         <v>351.6077519735639</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (172.66789730720083 -34.4697531159271, 172.6604573690033 -34.46407284263014)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>172.6678973072008</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.4697531159271</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>172.6604573690033</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.46407284263014</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>172.6641773381021</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.46691297927862</v>
       </c>
     </row>
@@ -28030,27 +28037,28 @@
       <c r="P4" t="n">
         <v>350.5898446369798</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (172.6685052849454 -34.469207897229246, 172.66106535086772 -34.46352763438205)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>172.6685052849454</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.46920789722925</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>172.6610653508677</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.46352763438205</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>172.6647853179066</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.46636776580564</v>
       </c>
     </row>
@@ -28107,27 +28115,28 @@
       <c r="P5" t="n">
         <v>355.2357976563627</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (172.6691132626897 -34.46866267497002, 172.6616733327327 -34.46298242257247)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>172.6691132626897</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.46866267497002</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>172.6616733327327</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.46298242257247</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>172.6653932977112</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.46582254877124</v>
       </c>
     </row>
@@ -28184,27 +28193,28 @@
       <c r="P6" t="n">
         <v>361.3606539200475</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (172.66970467243968 -34.46813219985497, 172.66230697557236 -34.46241436963127)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>172.6697046724397</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.46813219985497</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>172.6623069755724</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.46241436963127</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>172.666005824006</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.46527328474312</v>
       </c>
     </row>
@@ -28261,27 +28271,28 @@
       <c r="P7" t="n">
         <v>364.8754448338212</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (172.6702548510755 -34.467650052578634, 172.6630246745653 -34.46178754430208)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>172.6702548510755</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.46765005257863</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>172.6630246745653</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.46178754430208</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>172.6666397628204</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.46471879844036</v>
       </c>
     </row>
@@ -28338,27 +28349,28 @@
       <c r="P8" t="n">
         <v>388.5940614732069</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (172.67084382865215 -34.46717078858414, 172.66374091349937 -34.46120286294527)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>172.6708438286522</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.46717078858414</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>172.6637409134994</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.46120286294527</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>172.6672923710757</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.46418682576471</v>
       </c>
     </row>
@@ -28415,27 +28427,28 @@
       <c r="P9" t="n">
         <v>361.5196905886344</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (172.67148273767043 -34.46665014751934, 172.66437982111353 -34.46068223232625)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>172.6714827376704</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.46665014751934</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>172.6643798211135</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.46068223232625</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>172.667931279392</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.46366618992279</v>
       </c>
     </row>
@@ -28492,27 +28505,28 @@
       <c r="P10" t="n">
         <v>325.7156089458477</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (172.67212164668837 -34.46612950320732, 172.6650187287283 -34.46016159846003)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>172.6721216466884</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.46612950320732</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>172.6650187287283</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.46016159846003</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>172.6685701877083</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.46314555083367</v>
       </c>
     </row>
@@ -28563,27 +28577,28 @@
       <c r="P11" t="n">
         <v>325.9869484431461</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (172.67276055570593 -34.46560885564813, 172.66565763634387 -34.459640961346565)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>172.6727605557059</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.46560885564813</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>172.6656576363439</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.45964096134657</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>172.6692090960249</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.46262490849735</v>
       </c>
     </row>
@@ -28640,27 +28655,28 @@
       <c r="P12" t="n">
         <v>359.6550051345248</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (172.6733994647231 -34.46508820484175, 172.66629654396024 -34.45912032098591)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>172.6733994647231</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.46508820484175</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>172.6662965439602</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.45912032098591</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>172.6698480043417</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.46210426291383</v>
       </c>
     </row>
@@ -28717,27 +28733,28 @@
       <c r="P13" t="n">
         <v>391.7264051528466</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (172.67430074077035 -34.46433207274463, 172.66652909381597 -34.4589642543028)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>172.6743007407703</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-34.46433207274463</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>172.666529093816</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.4589642543028</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>172.6704149172932</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-34.46164816352372</v>
       </c>
     </row>
@@ -28794,27 +28811,28 @@
       <c r="P14" t="n">
         <v>404.2778573135114</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (172.67528206819432 -34.46311799316549, 172.66625906944768 -34.459317760214)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>172.6752820681943</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-34.46311799316549</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>172.6662590694477</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-34.459317760214</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>172.670770568821</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-34.46121787668974</v>
       </c>
     </row>
@@ -28871,27 +28889,28 @@
       <c r="P15" t="n">
         <v>396.1225660532668</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (172.67578045091278 -34.4620546762275, 172.66626589854548 -34.45918937074582)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>172.6757804509128</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-34.4620546762275</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>172.6662658985455</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-34.45918937074582</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>172.6710231747291</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-34.46062202348666</v>
       </c>
     </row>
@@ -28948,27 +28967,28 @@
       <c r="P16" t="n">
         <v>394.1025993822162</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (172.6760860503163 -34.461358181403135, 172.66657154187521 -34.458492882894404)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>172.6760860503163</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-34.46135818140313</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>172.6665715418752</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-34.4584928828944</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>172.6713287960957</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-34.45992553214877</v>
       </c>
     </row>
@@ -29025,27 +29045,28 @@
       <c r="P17" t="n">
         <v>392.4592342978746</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (172.67639164972005 -34.46066168076852, 172.66687718520444 -34.45779638923233)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>172.67639164972</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-34.46066168076852</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>172.6668771852044</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-34.45779638923233</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>172.6716344174623</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-34.45922903500042</v>
       </c>
     </row>
@@ -29102,27 +29123,28 @@
       <c r="P18" t="n">
         <v>387.4674031738999</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (172.67669724912406 -34.459965174323706, 172.66718282853319 -34.45709988975964)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>172.6766972491241</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-34.45996517432371</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>172.6671828285332</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-34.45709988975964</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>172.6719400388286</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-34.45853253204167</v>
       </c>
     </row>
@@ -29179,27 +29201,28 @@
       <c r="P19" t="n">
         <v>387.2038012062662</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (172.6770028485284 -34.45926866206868, 172.66748847186133 -34.456403384476474)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>172.6770028485284</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-34.45926866206868</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>172.6674884718613</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-34.45640338447647</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>172.6722456601948</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-34.45783602327258</v>
       </c>
     </row>
@@ -29256,27 +29279,28 @@
       <c r="P20" t="n">
         <v>392.3379051251061</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (172.6773084479329 -34.458572144003625, 172.6677941151889 -34.455706873382745)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>172.6773084479329</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-34.45857214400363</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>172.6677941151889</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-34.45570687338274</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>172.6725512815609</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-34.45713950869319</v>
       </c>
     </row>
@@ -29333,27 +29357,28 @@
       <c r="P21" t="n">
         <v>392.9683660587991</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (172.67761404733773 -34.45787562012859, 172.66809975851604 -34.455010356478496)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>172.6776140473377</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-34.45787562012859</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>172.668099758516</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-34.4550103564785</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>172.6728569029269</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-34.45644298830354</v>
       </c>
     </row>
@@ -29410,27 +29435,28 @@
       <c r="P22" t="n">
         <v>392.8937591009274</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (172.6779196467428 -34.45717909044353, 172.6684054018426 -34.45431383376394)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>172.6779196467428</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-34.45717909044353</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>172.6684054018426</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-34.45431383376394</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>172.6731625242927</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-34.45574646210373</v>
       </c>
     </row>
@@ -29487,27 +29513,28 @@
       <c r="P23" t="n">
         <v>393.4903947730327</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (172.67822524614823 -34.45648255494853, 172.66871104516866 -34.453617305239106)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>172.6782252461482</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-34.45648255494853</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>172.6687110451687</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-34.45361730523911</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>172.6734681456584</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-34.45504993009382</v>
       </c>
     </row>
@@ -29564,27 +29591,28 @@
       <c r="P24" t="n">
         <v>393.5888853038941</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (172.67853084555384 -34.45578601364367, 172.66901668849414 -34.45292077090396)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>172.6785308455538</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-34.45578601364367</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>172.6690166884941</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-34.45292077090396</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>172.673773767024</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-34.45435339227382</v>
       </c>
     </row>
@@ -29641,27 +29669,28 @@
       <c r="P25" t="n">
         <v>394.2136840215733</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (172.6788364449597 -34.45508946652899, 172.6693223318191 -34.45222423075859)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>172.6788364449597</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-34.45508946652899</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>172.6693223318191</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-34.45222423075859</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>172.6740793883894</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-34.45365684864379</v>
       </c>
     </row>
@@ -29718,27 +29747,28 @@
       <c r="P26" t="n">
         <v>396.8555578799242</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (172.67914204436588 -34.45439291360448, 172.66962797514347 -34.45152768480312)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>172.6791420443659</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-34.45439291360448</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>172.6696279751435</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-34.45152768480312</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>172.6743850097547</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-34.4529602992038</v>
       </c>
     </row>
@@ -29795,27 +29825,28 @@
       <c r="P27" t="n">
         <v>395.6953193161977</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (172.67944764377228 -34.45369635487033, 172.66993361846738 -34.45083113303746)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>172.6794476437723</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-34.45369635487033</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>172.6699336184674</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-34.45083113303746</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>172.6746906311198</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-34.45226374395389</v>
       </c>
     </row>
@@ -29872,27 +29903,28 @@
       <c r="P28" t="n">
         <v>394.1870901270649</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (172.67982278556238 -34.45282697340783, 172.67013142827207 -34.450402221897555)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>172.6798227855624</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-34.45282697340783</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>172.6701314282721</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-34.45040222189755</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>172.6749771069172</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-34.45161459765269</v>
       </c>
     </row>
@@ -29949,27 +29981,28 @@
       <c r="P29" t="n">
         <v>384.6089110651513</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (172.68011055503868 -34.45185992423831, 172.67021977094774 -34.45006893998299)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>172.6801105550387</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-34.45185992423831</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>172.6702197709477</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-34.45006893998299</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>172.6751651629932</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-34.45096443211065</v>
       </c>
     </row>
@@ -30026,27 +30059,28 @@
       <c r="P30" t="n">
         <v>376.7093787993796</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (172.6802991419717 -34.45105997151054, 172.67036203511555 -34.44945415141893)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>172.6802991419717</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-34.45105997151054</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>172.6703620351155</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-34.44945415141893</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>172.6753305885436</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-34.45025706146473</v>
       </c>
     </row>
@@ -30103,27 +30137,28 @@
       <c r="P31" t="n">
         <v>372.5144510243467</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>LINESTRING (172.68046955881402 -34.450332657280754, 172.67053250524597 -34.44872684140753)</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>172.680469558814</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>-34.45033265728075</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>172.670532505246</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>-34.44872684140753</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>172.67550103203</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>-34.44952974934414</v>
       </c>
     </row>
@@ -30180,27 +30215,28 @@
       <c r="P32" t="n">
         <v>370.6787568613158</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
         <is>
           <t>LINESTRING (172.68063997565685 -34.44960533671756, 172.67070297537535 -34.447999525062485)</t>
         </is>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>172.6806399756568</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>-34.44960533671756</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>172.6707029753753</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>-34.44799952506249</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>172.6756714755161</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>-34.44880243089003</v>
       </c>
     </row>
@@ -30257,27 +30293,28 @@
       <c r="P33" t="n">
         <v>371.9360732466592</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
         <is>
           <t>LINESTRING (172.68081039250015 -34.448878009821094, 172.670873445504 -34.447272202383736)</t>
         </is>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>172.6808103925001</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>-34.44887800982109</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>172.670873445504</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>-34.44727220238374</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>172.6758419190021</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>-34.44807510610242</v>
       </c>
     </row>
@@ -30334,27 +30371,28 @@
       <c r="P34" t="n">
         <v>367.0326704684082</v>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
         <is>
           <t>LINESTRING (172.68098080934382 -34.44815067659133, 172.67104391563166 -34.44654487337157)</t>
         </is>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>172.6809808093438</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>-34.44815067659133</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>172.6710439156317</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>-34.44654487337157</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>172.6760123624877</v>
       </c>
-      <c r="W34" t="n">
+      <c r="X34" t="n">
         <v>-34.44734777498145</v>
       </c>
     </row>
@@ -30411,27 +30449,28 @@
       <c r="P35" t="n">
         <v>373.485673120261</v>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
         <is>
           <t>LINESTRING (172.68115122618798 -34.44742333702832, 172.67121438575836 -34.445817538025906)</t>
         </is>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>172.681151226188</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>-34.44742333702832</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>172.6712143857584</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>-34.44581753802591</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>172.6761828059732</v>
       </c>
-      <c r="W35" t="n">
+      <c r="X35" t="n">
         <v>-34.44662043752712</v>
       </c>
     </row>
@@ -30488,27 +30527,28 @@
       <c r="P36" t="n">
         <v>372.1623080344361</v>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
         <is>
           <t>LINESTRING (172.6813216430326 -34.446695991132174, 172.67138485588427 -34.44509019634682)</t>
         </is>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>172.6813216430326</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>-34.44669599113217</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>172.6713848558843</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>-34.44509019634682</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>172.6763532494584</v>
       </c>
-      <c r="W36" t="n">
+      <c r="X36" t="n">
         <v>-34.4458930937395</v>
       </c>
     </row>
@@ -30565,27 +30605,28 @@
       <c r="P37" t="n">
         <v>380.8963814066028</v>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
         <is>
           <t>LINESTRING (172.68149205987768 -34.445968638902976, 172.67155532600927 -34.44436284833442)</t>
         </is>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>172.6814920598777</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>-34.44596863890298</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>172.6715553260093</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>-34.44436284833442</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>172.6765236929435</v>
       </c>
-      <c r="W37" t="n">
+      <c r="X37" t="n">
         <v>-34.4451657436187</v>
       </c>
     </row>
@@ -30642,27 +30683,28 @@
       <c r="P38" t="n">
         <v>381.2475110597821</v>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
         <is>
           <t>LINESTRING (172.68166247672318 -34.44524128034063, 172.67172579613333 -34.4436354939889)</t>
         </is>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>172.6816624767232</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>-34.44524128034063</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>172.6717257961333</v>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>-34.4436354939889</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>172.6766941364282</v>
       </c>
-      <c r="W38" t="n">
+      <c r="X38" t="n">
         <v>-34.44443838716477</v>
       </c>
     </row>
@@ -30719,27 +30761,28 @@
       <c r="P39" t="n">
         <v>395.2293374287691</v>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
         <is>
           <t>LINESTRING (172.68183289356907 -34.444513915445405, 172.67189626625643 -34.44290813331)</t>
         </is>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>172.6818328935691</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>-34.44451391544541</v>
       </c>
-      <c r="T39" t="n">
+      <c r="U39" t="n">
         <v>172.6718962662564</v>
       </c>
-      <c r="U39" t="n">
+      <c r="V39" t="n">
         <v>-34.44290813331</v>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>172.6768645799127</v>
       </c>
-      <c r="W39" t="n">
+      <c r="X39" t="n">
         <v>-34.44371102437771</v>
       </c>
     </row>
@@ -30796,27 +30839,28 @@
       <c r="P40" t="n">
         <v>400.3730428592142</v>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
         <is>
           <t>LINESTRING (172.68202239649406 -34.44369939108314, 172.67203709722284 -34.44231575248036)</t>
         </is>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>172.6820223964941</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>-34.44369939108314</v>
       </c>
-      <c r="T40" t="n">
+      <c r="U40" t="n">
         <v>172.6720370972228</v>
       </c>
-      <c r="U40" t="n">
+      <c r="V40" t="n">
         <v>-34.44231575248036</v>
       </c>
-      <c r="V40" t="n">
+      <c r="W40" t="n">
         <v>172.6770297468585</v>
       </c>
-      <c r="W40" t="n">
+      <c r="X40" t="n">
         <v>-34.44300757178175</v>
       </c>
     </row>
@@ -30873,27 +30917,28 @@
       <c r="P41" t="n">
         <v>403.9049166894097</v>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
         <is>
           <t>LINESTRING (172.68216409790884 -34.44286080280505, 172.67213004728922 -34.44174455022245)</t>
         </is>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>172.6821640979088</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
         <v>-34.44286080280505</v>
       </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
         <v>172.6721300472892</v>
       </c>
-      <c r="U41" t="n">
+      <c r="V41" t="n">
         <v>-34.44174455022245</v>
       </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
         <v>172.677147072599</v>
       </c>
-      <c r="W41" t="n">
+      <c r="X41" t="n">
         <v>-34.44230267651375</v>
       </c>
     </row>
@@ -30950,27 +30995,28 @@
       <c r="P42" t="n">
         <v>404.9997585703096</v>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
         <is>
           <t>LINESTRING (172.68227999858064 -34.44210852674847, 172.67223896202913 -34.44103646965372)</t>
         </is>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>172.6822799985806</v>
       </c>
-      <c r="S42" t="n">
+      <c r="T42" t="n">
         <v>-34.44210852674847</v>
       </c>
-      <c r="T42" t="n">
+      <c r="U42" t="n">
         <v>172.6722389620291</v>
       </c>
-      <c r="U42" t="n">
+      <c r="V42" t="n">
         <v>-34.44103646965372</v>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>172.6772594803049</v>
       </c>
-      <c r="W42" t="n">
+      <c r="X42" t="n">
         <v>-34.4415724982011</v>
       </c>
     </row>
@@ -31021,27 +31067,28 @@
       <c r="P43" t="n">
         <v>404.2670458582865</v>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
         <is>
           <t>LINESTRING (172.68239314307868 -34.441373582242896, 172.67235216219592 -34.440301528089364)</t>
         </is>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>172.6823931430787</v>
       </c>
-      <c r="S43" t="n">
+      <c r="T43" t="n">
         <v>-34.4413735822429</v>
       </c>
-      <c r="T43" t="n">
+      <c r="U43" t="n">
         <v>172.6723521621959</v>
       </c>
-      <c r="U43" t="n">
+      <c r="V43" t="n">
         <v>-34.44030152808936</v>
       </c>
-      <c r="V43" t="n">
+      <c r="W43" t="n">
         <v>172.6773726526373</v>
       </c>
-      <c r="W43" t="n">
+      <c r="X43" t="n">
         <v>-34.44083755516613</v>
       </c>
     </row>

--- a/data/nzd0005/nzd0005.xlsx
+++ b/data/nzd0005/nzd0005.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR204"/>
+  <dimension ref="A1:AR205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25399,7 +25399,9 @@
       <c r="L203" t="n">
         <v>393.35</v>
       </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>435.9257142857143</v>
+      </c>
       <c r="N203" t="n">
         <v>456.97</v>
       </c>
@@ -25606,6 +25608,118 @@
         </is>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>387.24</v>
+      </c>
+      <c r="C205" t="n">
+        <v>363.3445454545454</v>
+      </c>
+      <c r="D205" t="n">
+        <v>351.61</v>
+      </c>
+      <c r="E205" t="n">
+        <v>345.91</v>
+      </c>
+      <c r="F205" t="n">
+        <v>348.4</v>
+      </c>
+      <c r="G205" t="n">
+        <v>356.45</v>
+      </c>
+      <c r="H205" t="n">
+        <v>386.6442857142857</v>
+      </c>
+      <c r="I205" t="n">
+        <v>355.43</v>
+      </c>
+      <c r="J205" t="n">
+        <v>310.48</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>471.9642857142857</v>
+      </c>
+      <c r="N205" t="n">
+        <v>483.76</v>
+      </c>
+      <c r="O205" t="n">
+        <v>463.5942857142857</v>
+      </c>
+      <c r="P205" t="n">
+        <v>471.11</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>455.19</v>
+      </c>
+      <c r="R205" t="n">
+        <v>442.0242857142857</v>
+      </c>
+      <c r="S205" t="n">
+        <v>425.0342857142857</v>
+      </c>
+      <c r="T205" t="n">
+        <v>406.7242857142857</v>
+      </c>
+      <c r="U205" t="n">
+        <v>405.4</v>
+      </c>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr"/>
+      <c r="Z205" t="inlineStr"/>
+      <c r="AA205" t="inlineStr"/>
+      <c r="AB205" t="inlineStr"/>
+      <c r="AC205" t="inlineStr"/>
+      <c r="AD205" t="inlineStr"/>
+      <c r="AE205" t="n">
+        <v>436.55</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>444.89</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>438.28</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>433.07</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>434.01</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>428.75</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>440.94</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>450.32</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>461.68</v>
+      </c>
+      <c r="AN205" t="inlineStr"/>
+      <c r="AO205" t="inlineStr"/>
+      <c r="AP205" t="n">
+        <v>469.86</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>475.92</v>
+      </c>
+      <c r="AR205" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25617,7 +25731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B206"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27685,6 +27799,16 @@
       </c>
       <c r="B206" t="n">
         <v>-0.38</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>-0.36</v>
       </c>
     </row>
   </sheetData>
@@ -27858,28 +27982,28 @@
         <v>0.0455</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1268680582068531</v>
+        <v>0.1338426141622661</v>
       </c>
       <c r="J2" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K2" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004698666100992566</v>
+        <v>0.005285389270091478</v>
       </c>
       <c r="M2" t="n">
-        <v>11.11270230662726</v>
+        <v>11.07702679260104</v>
       </c>
       <c r="N2" t="n">
-        <v>207.1138961789351</v>
+        <v>206.1123866423956</v>
       </c>
       <c r="O2" t="n">
-        <v>14.39145219145501</v>
+        <v>14.35661473476236</v>
       </c>
       <c r="P2" t="n">
-        <v>377.6252434702948</v>
+        <v>377.5630671869332</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27936,28 +28060,28 @@
         <v>0.0679</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5406388235866705</v>
+        <v>0.5383613602977978</v>
       </c>
       <c r="J3" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K3" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05493171984085532</v>
+        <v>0.05513141091784679</v>
       </c>
       <c r="M3" t="n">
-        <v>12.77518271561003</v>
+        <v>12.70971259257158</v>
       </c>
       <c r="N3" t="n">
-        <v>305.564203530628</v>
+        <v>303.7599676686821</v>
       </c>
       <c r="O3" t="n">
-        <v>17.48039483337342</v>
+        <v>17.42871101569712</v>
       </c>
       <c r="P3" t="n">
-        <v>351.6077519735639</v>
+        <v>351.6280578420699</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28014,28 +28138,28 @@
         <v>0.0737</v>
       </c>
       <c r="I4" t="n">
-        <v>0.218770780566286</v>
+        <v>0.2137727978002391</v>
       </c>
       <c r="J4" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K4" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01322040022328397</v>
+        <v>0.01278282840084533</v>
       </c>
       <c r="M4" t="n">
-        <v>11.51553028595554</v>
+        <v>11.47255195285402</v>
       </c>
       <c r="N4" t="n">
-        <v>216.1176708435002</v>
+        <v>214.9804616052743</v>
       </c>
       <c r="O4" t="n">
-        <v>14.70094115502474</v>
+        <v>14.66221202974757</v>
       </c>
       <c r="P4" t="n">
-        <v>350.5898446369798</v>
+        <v>350.6337701897824</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28092,28 +28216,28 @@
         <v>0.0707</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1967809155195069</v>
+        <v>-0.2013264056370661</v>
       </c>
       <c r="J5" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K5" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009175319804760385</v>
+        <v>0.009713360884209044</v>
       </c>
       <c r="M5" t="n">
-        <v>12.57655285591362</v>
+        <v>12.52967474223733</v>
       </c>
       <c r="N5" t="n">
-        <v>251.1761850788396</v>
+        <v>249.8742430975022</v>
       </c>
       <c r="O5" t="n">
-        <v>15.84853889413278</v>
+        <v>15.80741101817443</v>
       </c>
       <c r="P5" t="n">
-        <v>355.2357976563627</v>
+        <v>355.2759258031962</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28170,28 +28294,28 @@
         <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.423622954948395</v>
+        <v>-0.4259907268572795</v>
       </c>
       <c r="J6" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K6" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03230930272240706</v>
+        <v>0.03306503443575426</v>
       </c>
       <c r="M6" t="n">
-        <v>14.15612025640941</v>
+        <v>14.08508615008501</v>
       </c>
       <c r="N6" t="n">
-        <v>319.2083963175051</v>
+        <v>317.3784864691917</v>
       </c>
       <c r="O6" t="n">
-        <v>17.86640412387185</v>
+        <v>17.81511960299991</v>
       </c>
       <c r="P6" t="n">
-        <v>361.3606539200475</v>
+        <v>361.3817341942899</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28248,28 +28372,28 @@
         <v>0.0697</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4856633459383365</v>
+        <v>-0.481297689741795</v>
       </c>
       <c r="J7" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K7" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03972424097651728</v>
+        <v>0.03949174910793696</v>
       </c>
       <c r="M7" t="n">
-        <v>14.37497219705937</v>
+        <v>14.31225871433774</v>
       </c>
       <c r="N7" t="n">
-        <v>344.0354194930067</v>
+        <v>342.0570093973409</v>
       </c>
       <c r="O7" t="n">
-        <v>18.54819181195317</v>
+        <v>18.49478330225421</v>
       </c>
       <c r="P7" t="n">
-        <v>364.8754448338212</v>
+        <v>364.8360425183984</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28326,28 +28450,28 @@
         <v>0.0409</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2499061797695492</v>
+        <v>0.2406141520737102</v>
       </c>
       <c r="J8" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K8" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01626896562585423</v>
+        <v>0.01526178210666262</v>
       </c>
       <c r="M8" t="n">
-        <v>12.43889169357646</v>
+        <v>12.42471708028303</v>
       </c>
       <c r="N8" t="n">
-        <v>226.2546547596235</v>
+        <v>225.308389372165</v>
       </c>
       <c r="O8" t="n">
-        <v>15.0417636851409</v>
+        <v>15.01027612578013</v>
       </c>
       <c r="P8" t="n">
-        <v>388.5940614732069</v>
+        <v>388.6773371974152</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28404,28 +28528,28 @@
         <v>0.0853</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2079236099849506</v>
+        <v>-0.2087718734617671</v>
       </c>
       <c r="J9" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K9" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02420997451485196</v>
+        <v>0.02469200362991608</v>
       </c>
       <c r="M9" t="n">
-        <v>7.831369639937305</v>
+        <v>7.787537260633289</v>
       </c>
       <c r="N9" t="n">
-        <v>108.0338910706301</v>
+        <v>107.362365242348</v>
       </c>
       <c r="O9" t="n">
-        <v>10.39393530240736</v>
+        <v>10.3615812134224</v>
       </c>
       <c r="P9" t="n">
-        <v>361.5196905886344</v>
+        <v>361.5272651058706</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28482,28 +28606,28 @@
         <v>0.1077</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3061194366458853</v>
+        <v>-0.3144126067716744</v>
       </c>
       <c r="J10" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K10" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02819513848960509</v>
+        <v>0.03000845066489322</v>
       </c>
       <c r="M10" t="n">
-        <v>9.127756148765885</v>
+        <v>9.126794895783171</v>
       </c>
       <c r="N10" t="n">
-        <v>198.2976764459109</v>
+        <v>197.3895292397142</v>
       </c>
       <c r="O10" t="n">
-        <v>14.08182077878819</v>
+        <v>14.04953839952453</v>
       </c>
       <c r="P10" t="n">
-        <v>325.7156089458477</v>
+        <v>325.7898262312093</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28557,7 +28681,7 @@
         <v>0.3924481710727107</v>
       </c>
       <c r="J11" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K11" t="n">
         <v>131</v>
@@ -28635,7 +28759,7 @@
         <v>1.143975955900883</v>
       </c>
       <c r="J12" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K12" t="n">
         <v>155</v>
@@ -28710,28 +28834,28 @@
         <v>0.0414</v>
       </c>
       <c r="I13" t="n">
-        <v>1.53309737009007</v>
+        <v>1.587757454100859</v>
       </c>
       <c r="J13" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K13" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L13" t="n">
-        <v>0.225031848896687</v>
+        <v>0.238498034813746</v>
       </c>
       <c r="M13" t="n">
-        <v>17.25183840524814</v>
+        <v>17.34246072989595</v>
       </c>
       <c r="N13" t="n">
-        <v>496.5369245224238</v>
+        <v>500.904677094108</v>
       </c>
       <c r="O13" t="n">
-        <v>22.28310850223603</v>
+        <v>22.38089982762328</v>
       </c>
       <c r="P13" t="n">
-        <v>391.7264051528466</v>
+        <v>391.2513635869417</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28788,28 +28912,28 @@
         <v>0.0443</v>
       </c>
       <c r="I14" t="n">
-        <v>1.646281234452465</v>
+        <v>1.686432056731175</v>
       </c>
       <c r="J14" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K14" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2822005530303301</v>
+        <v>0.2906144406135129</v>
       </c>
       <c r="M14" t="n">
-        <v>15.63807259613474</v>
+        <v>15.76385527957802</v>
       </c>
       <c r="N14" t="n">
-        <v>412.6434637898568</v>
+        <v>418.2006782043792</v>
       </c>
       <c r="O14" t="n">
-        <v>20.31362753891724</v>
+        <v>20.44995545727128</v>
       </c>
       <c r="P14" t="n">
-        <v>404.2778573135114</v>
+        <v>403.916955891949</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28866,28 +28990,28 @@
         <v>0.042</v>
       </c>
       <c r="I15" t="n">
-        <v>2.043837466474793</v>
+        <v>2.060357571135875</v>
       </c>
       <c r="J15" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K15" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3951410040226873</v>
+        <v>0.4010100196404635</v>
       </c>
       <c r="M15" t="n">
-        <v>15.59047527009217</v>
+        <v>15.58631077880759</v>
       </c>
       <c r="N15" t="n">
-        <v>378.1775722402371</v>
+        <v>377.2879881165703</v>
       </c>
       <c r="O15" t="n">
-        <v>19.44678822428622</v>
+        <v>19.42390249451871</v>
       </c>
       <c r="P15" t="n">
-        <v>396.1225660532668</v>
+        <v>395.9706128130566</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28944,28 +29068,28 @@
         <v>0.0328</v>
       </c>
       <c r="I16" t="n">
-        <v>2.105527230069022</v>
+        <v>2.1301449974105</v>
       </c>
       <c r="J16" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K16" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4065388265718238</v>
+        <v>0.4129918667019864</v>
       </c>
       <c r="M16" t="n">
-        <v>16.08624561578972</v>
+        <v>16.1082691258742</v>
       </c>
       <c r="N16" t="n">
-        <v>395.1473807409564</v>
+        <v>395.9545340558225</v>
       </c>
       <c r="O16" t="n">
-        <v>19.87831433348805</v>
+        <v>19.89860633451053</v>
       </c>
       <c r="P16" t="n">
-        <v>394.1025993822162</v>
+        <v>393.8786374197114</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29022,28 +29146,28 @@
         <v>0.0325</v>
       </c>
       <c r="I17" t="n">
-        <v>1.957351912112248</v>
+        <v>1.970863955063478</v>
       </c>
       <c r="J17" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K17" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3570284649894252</v>
+        <v>0.3623561003820305</v>
       </c>
       <c r="M17" t="n">
-        <v>16.1842185584056</v>
+        <v>16.15704450454216</v>
       </c>
       <c r="N17" t="n">
-        <v>425.632152090802</v>
+        <v>424.0029451983822</v>
       </c>
       <c r="O17" t="n">
-        <v>20.63085437132457</v>
+        <v>20.59133179758857</v>
       </c>
       <c r="P17" t="n">
-        <v>392.4592342978746</v>
+        <v>392.3375489654489</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29100,28 +29224,28 @@
         <v>0.0387</v>
       </c>
       <c r="I18" t="n">
-        <v>1.793824522772464</v>
+        <v>1.802990225205862</v>
       </c>
       <c r="J18" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K18" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2788452814963094</v>
+        <v>0.2831264651692411</v>
       </c>
       <c r="M18" t="n">
-        <v>17.66687901156441</v>
+        <v>17.61604435475538</v>
       </c>
       <c r="N18" t="n">
-        <v>499.5830487125675</v>
+        <v>497.1538202719374</v>
       </c>
       <c r="O18" t="n">
-        <v>22.35135451628307</v>
+        <v>22.29694643380428</v>
       </c>
       <c r="P18" t="n">
-        <v>387.4674031738999</v>
+        <v>387.3848712237888</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29178,28 +29302,28 @@
         <v>0.0375</v>
       </c>
       <c r="I19" t="n">
-        <v>1.502019514880695</v>
+        <v>1.501433901922749</v>
       </c>
       <c r="J19" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K19" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2004489634600365</v>
+        <v>0.2021950254217248</v>
       </c>
       <c r="M19" t="n">
-        <v>18.67082051252889</v>
+        <v>18.56984061280955</v>
       </c>
       <c r="N19" t="n">
-        <v>526.7821649037534</v>
+        <v>523.8573220509759</v>
       </c>
       <c r="O19" t="n">
-        <v>22.95173555319408</v>
+        <v>22.88792961477678</v>
       </c>
       <c r="P19" t="n">
-        <v>387.2038012062662</v>
+        <v>387.2091786541953</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29256,28 +29380,28 @@
         <v>0.0417</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9790474195790705</v>
+        <v>0.9680125716221433</v>
       </c>
       <c r="J20" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K20" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09217588020042111</v>
+        <v>0.09115699359162055</v>
       </c>
       <c r="M20" t="n">
-        <v>19.22020504098942</v>
+        <v>19.17123110246209</v>
       </c>
       <c r="N20" t="n">
-        <v>550.5564496448918</v>
+        <v>548.1294092046041</v>
       </c>
       <c r="O20" t="n">
-        <v>23.46393934625837</v>
+        <v>23.41216370190086</v>
       </c>
       <c r="P20" t="n">
-        <v>392.3379051251061</v>
+        <v>392.439637249683</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29334,28 +29458,28 @@
         <v>0.0577</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4908967944124921</v>
+        <v>0.4907772703920093</v>
       </c>
       <c r="J21" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K21" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02698277435879426</v>
+        <v>0.02727434940461126</v>
       </c>
       <c r="M21" t="n">
-        <v>18.02322849708111</v>
+        <v>17.92374831750859</v>
       </c>
       <c r="N21" t="n">
-        <v>515.2599530994133</v>
+        <v>512.3974712545406</v>
       </c>
       <c r="O21" t="n">
-        <v>22.69933816434773</v>
+        <v>22.63619825091088</v>
       </c>
       <c r="P21" t="n">
-        <v>392.9683660587991</v>
+        <v>392.9694542528127</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29415,7 +29539,7 @@
         <v>0.08955825394212213</v>
       </c>
       <c r="J22" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K22" t="n">
         <v>178</v>
@@ -29493,7 +29617,7 @@
         <v>-0.08474705071081244</v>
       </c>
       <c r="J23" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K23" t="n">
         <v>181</v>
@@ -29571,7 +29695,7 @@
         <v>-0.1870411820453537</v>
       </c>
       <c r="J24" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K24" t="n">
         <v>186</v>
@@ -29649,7 +29773,7 @@
         <v>-0.1910095613729378</v>
       </c>
       <c r="J25" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K25" t="n">
         <v>183</v>
@@ -29727,7 +29851,7 @@
         <v>-0.231689209646551</v>
       </c>
       <c r="J26" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K26" t="n">
         <v>188</v>
@@ -29805,7 +29929,7 @@
         <v>0.04499158115261985</v>
       </c>
       <c r="J27" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K27" t="n">
         <v>180</v>
@@ -29883,7 +30007,7 @@
         <v>0.2815357133940884</v>
       </c>
       <c r="J28" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K28" t="n">
         <v>179</v>
@@ -29961,7 +30085,7 @@
         <v>0.5261982625225491</v>
       </c>
       <c r="J29" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K29" t="n">
         <v>175</v>
@@ -30039,7 +30163,7 @@
         <v>0.6072351547052537</v>
       </c>
       <c r="J30" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K30" t="n">
         <v>179</v>
@@ -30114,28 +30238,28 @@
         <v>0.0501</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3774931972952333</v>
+        <v>0.4353620852570957</v>
       </c>
       <c r="J31" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K31" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0197175985836614</v>
+        <v>0.02540361468020247</v>
       </c>
       <c r="M31" t="n">
-        <v>15.99880143888871</v>
+        <v>16.21893644745983</v>
       </c>
       <c r="N31" t="n">
-        <v>416.3343035791773</v>
+        <v>430.1647311594168</v>
       </c>
       <c r="O31" t="n">
-        <v>20.4042716993079</v>
+        <v>20.74041299394534</v>
       </c>
       <c r="P31" t="n">
-        <v>372.5144510243467</v>
+        <v>371.9930914191153</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -30192,28 +30316,28 @@
         <v>0.0608</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2498994480512507</v>
+        <v>0.3264535858033515</v>
       </c>
       <c r="J32" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K32" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L32" t="n">
-        <v>0.008104701649549351</v>
+        <v>0.01315810534554729</v>
       </c>
       <c r="M32" t="n">
-        <v>16.29267277904166</v>
+        <v>16.56690847634499</v>
       </c>
       <c r="N32" t="n">
-        <v>449.3568185709804</v>
+        <v>473.2664772477253</v>
       </c>
       <c r="O32" t="n">
-        <v>21.19803808306279</v>
+        <v>21.75468862677021</v>
       </c>
       <c r="P32" t="n">
-        <v>370.6787568613158</v>
+        <v>369.9907402529894</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -30270,28 +30394,28 @@
         <v>0.0452</v>
       </c>
       <c r="I33" t="n">
-        <v>0.263962505360565</v>
+        <v>0.334670527862065</v>
       </c>
       <c r="J33" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K33" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01248847687487653</v>
+        <v>0.01892386421320769</v>
       </c>
       <c r="M33" t="n">
-        <v>14.72858530107083</v>
+        <v>15.00272876938499</v>
       </c>
       <c r="N33" t="n">
-        <v>336.0993268768374</v>
+        <v>356.6580963183824</v>
       </c>
       <c r="O33" t="n">
-        <v>18.33301194230881</v>
+        <v>18.88539372950382</v>
       </c>
       <c r="P33" t="n">
-        <v>371.9360732466592</v>
+        <v>371.3066265615698</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -30348,28 +30472,28 @@
         <v>0.0518</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1127261708374735</v>
+        <v>0.1794687925384129</v>
       </c>
       <c r="J34" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K34" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L34" t="n">
-        <v>0.001498581594338466</v>
+        <v>0.003674041313988519</v>
       </c>
       <c r="M34" t="n">
-        <v>18.00039338867194</v>
+        <v>18.23902239662099</v>
       </c>
       <c r="N34" t="n">
-        <v>508.027620854314</v>
+        <v>527.4063005052448</v>
       </c>
       <c r="O34" t="n">
-        <v>22.53946806946238</v>
+        <v>22.96532822550648</v>
       </c>
       <c r="P34" t="n">
-        <v>367.0326704684082</v>
+        <v>366.4351058376717</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -30426,28 +30550,28 @@
         <v>0.0461</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2744785258370441</v>
+        <v>-0.2008953754927714</v>
       </c>
       <c r="J35" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K35" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L35" t="n">
-        <v>0.007676742015442217</v>
+        <v>0.004001407938702961</v>
       </c>
       <c r="M35" t="n">
-        <v>18.97273175882285</v>
+        <v>19.21957925644186</v>
       </c>
       <c r="N35" t="n">
-        <v>574.10820972061</v>
+        <v>596.2961706249002</v>
       </c>
       <c r="O35" t="n">
-        <v>23.96055528823591</v>
+        <v>24.41917628882883</v>
       </c>
       <c r="P35" t="n">
-        <v>373.485673120261</v>
+        <v>372.8260940523832</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -30504,28 +30628,28 @@
         <v>0.0367</v>
       </c>
       <c r="I36" t="n">
-        <v>0.2654433472333348</v>
+        <v>0.322165345207671</v>
       </c>
       <c r="J36" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K36" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L36" t="n">
-        <v>0.008812662088101497</v>
+        <v>0.01271837445726276</v>
       </c>
       <c r="M36" t="n">
-        <v>17.79191389376276</v>
+        <v>17.97754234665903</v>
       </c>
       <c r="N36" t="n">
-        <v>473.3308414465666</v>
+        <v>484.8572137888344</v>
       </c>
       <c r="O36" t="n">
-        <v>21.75616789433669</v>
+        <v>22.01947351298015</v>
       </c>
       <c r="P36" t="n">
-        <v>372.1623080344361</v>
+        <v>371.6663327763949</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -30582,28 +30706,28 @@
         <v>0.05</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.3530147216150336</v>
+        <v>-0.2657932798613098</v>
       </c>
       <c r="J37" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K37" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01441591487606397</v>
+        <v>0.007884360155924863</v>
       </c>
       <c r="M37" t="n">
-        <v>18.1511085813532</v>
+        <v>18.44811133325308</v>
       </c>
       <c r="N37" t="n">
-        <v>510.8937042843958</v>
+        <v>537.7145977163904</v>
       </c>
       <c r="O37" t="n">
-        <v>22.602957865828</v>
+        <v>23.18867391026038</v>
       </c>
       <c r="P37" t="n">
-        <v>380.8963814066028</v>
+        <v>380.1452492275784</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -30660,28 +30784,28 @@
         <v>0.0346</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.2771730323312161</v>
+        <v>-0.1769107694881522</v>
       </c>
       <c r="J38" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K38" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L38" t="n">
-        <v>0.006569162927348215</v>
+        <v>0.002587081869030783</v>
       </c>
       <c r="M38" t="n">
-        <v>21.30328209276407</v>
+        <v>21.59206956530275</v>
       </c>
       <c r="N38" t="n">
-        <v>681.0881703671523</v>
+        <v>713.9188734960304</v>
       </c>
       <c r="O38" t="n">
-        <v>26.0976659946278</v>
+        <v>26.7192603470985</v>
       </c>
       <c r="P38" t="n">
-        <v>381.2475110597821</v>
+        <v>380.3728728490951</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -30738,28 +30862,28 @@
         <v>0.0591</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.5761973852780439</v>
+        <v>-0.4693673773476136</v>
       </c>
       <c r="J39" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K39" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L39" t="n">
-        <v>0.03443042310598032</v>
+        <v>0.02178589957672883</v>
       </c>
       <c r="M39" t="n">
-        <v>18.51285208178118</v>
+        <v>18.87025042938806</v>
       </c>
       <c r="N39" t="n">
-        <v>528.8787394753101</v>
+        <v>567.0540008944564</v>
       </c>
       <c r="O39" t="n">
-        <v>22.99736375055432</v>
+        <v>23.81289568478509</v>
       </c>
       <c r="P39" t="n">
-        <v>395.2293374287691</v>
+        <v>394.2715904308565</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -30819,7 +30943,7 @@
         <v>-0.08492433354509818</v>
       </c>
       <c r="J40" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K40" t="n">
         <v>149</v>
@@ -30897,7 +31021,7 @@
         <v>-0.07817108508874698</v>
       </c>
       <c r="J41" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K41" t="n">
         <v>148</v>
@@ -30972,28 +31096,28 @@
         <v>0.0469</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1553405687902359</v>
+        <v>0.240564747166173</v>
       </c>
       <c r="J42" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K42" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L42" t="n">
-        <v>0.00321322255544243</v>
+        <v>0.007362224097316461</v>
       </c>
       <c r="M42" t="n">
-        <v>16.67681421579836</v>
+        <v>16.98449094183707</v>
       </c>
       <c r="N42" t="n">
-        <v>427.9209416922935</v>
+        <v>450.2549774154189</v>
       </c>
       <c r="O42" t="n">
-        <v>20.6862500635638</v>
+        <v>21.21921245983033</v>
       </c>
       <c r="P42" t="n">
-        <v>404.9997585703096</v>
+        <v>404.2314892930754</v>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
@@ -31044,28 +31168,28 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>0.3727084486429008</v>
+        <v>0.4671341369083165</v>
       </c>
       <c r="J43" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K43" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L43" t="n">
-        <v>0.01717963167051795</v>
+        <v>0.02562001277702664</v>
       </c>
       <c r="M43" t="n">
-        <v>17.02311950725548</v>
+        <v>17.35741618686253</v>
       </c>
       <c r="N43" t="n">
-        <v>461.467872139667</v>
+        <v>486.8565144766301</v>
       </c>
       <c r="O43" t="n">
-        <v>21.48180327951233</v>
+        <v>22.06482527636759</v>
       </c>
       <c r="P43" t="n">
-        <v>404.2670458582865</v>
+        <v>403.4258684375571</v>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
@@ -31103,7 +31227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR204"/>
+  <dimension ref="A1:AR205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69944,7 +70068,11 @@
           <t>-34.462562086074925,172.67039271794465</t>
         </is>
       </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>-34.46181443374553,172.67065543408987</t>
+        </is>
+      </c>
       <c r="N203" t="inlineStr">
         <is>
           <t>-34.461250206312904,172.67084703033197</t>
@@ -70267,6 +70395,176 @@
         </is>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>-34.467931435220756,172.66418901361124</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>-34.46753228578498,172.66498830602964</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>-34.46705880078472,172.6656902382268</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>-34.46654842707796,172.66634385781558</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>-34.46598862774309,172.66693114472636</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>-34.46540137357493,172.66748139448381</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>-34.464687695898334,172.667888315012</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>-34.464367529698144,172.66876582531086</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>-34.46413557132696,172.66974832935963</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>-34.46160629225181,172.6703540814383</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>-34.46114070178639,172.67058703110024</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>-34.46062622295488,172.6710367311948</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>-34.45990657656733,172.67126546396145</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>-34.45925913996354,172.67173399563302</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>-34.45860320978857,172.67217434293343</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>-34.457959057211504,172.67265381851183</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>-34.45731896536345,172.67314679787071</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>-34.456626528749425,172.67346597865864</t>
+        </is>
+      </c>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr"/>
+      <c r="Z205" t="inlineStr"/>
+      <c r="AA205" t="inlineStr"/>
+      <c r="AB205" t="inlineStr"/>
+      <c r="AC205" t="inlineStr"/>
+      <c r="AD205" t="inlineStr"/>
+      <c r="AE205" t="inlineStr">
+        <is>
+          <t>-34.4495789890839,172.67580506645</t>
+        </is>
+      </c>
+      <c r="AF205" t="inlineStr">
+        <is>
+          <t>-34.44883727283404,172.6758864121682</t>
+        </is>
+      </c>
+      <c r="AG205" t="inlineStr">
+        <is>
+          <t>-34.448121363188015,172.67612749443504</t>
+        </is>
+      </c>
+      <c r="AH205" t="inlineStr">
+        <is>
+          <t>-34.447403029813266,172.67635361718416</t>
+        </is>
+      </c>
+      <c r="AI205" t="inlineStr">
+        <is>
+          <t>-34.44667407152412,172.67651402968292</t>
+        </is>
+      </c>
+      <c r="AJ205" t="inlineStr">
+        <is>
+          <t>-34.44595581164568,172.67674068533478</t>
+        </is>
+      </c>
+      <c r="AK205" t="inlineStr">
+        <is>
+          <t>-34.44520741684557,172.6767808996794</t>
+        </is>
+      </c>
+      <c r="AL205" t="inlineStr">
+        <is>
+          <t>-34.44446386746868,172.67685113878508</t>
+        </is>
+      </c>
+      <c r="AM205" t="inlineStr">
+        <is>
+          <t>-34.443716893260344,172.67690022516334</t>
+        </is>
+      </c>
+      <c r="AN205" t="inlineStr"/>
+      <c r="AO205" t="inlineStr"/>
+      <c r="AP205" t="inlineStr">
+        <is>
+          <t>-34.44156704576525,172.67720741536954</t>
+        </is>
+      </c>
+      <c r="AQ205" t="inlineStr">
+        <is>
+          <t>-34.440825119365094,172.6772551813163</t>
+        </is>
+      </c>
+      <c r="AR205" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0005/nzd0005.xlsx
+++ b/data/nzd0005/nzd0005.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR205"/>
+  <dimension ref="A1:AR206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25642,7 +25642,9 @@
         <v>310.48</v>
       </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>441.58</v>
+      </c>
       <c r="M205" t="n">
         <v>471.9642857142857</v>
       </c>
@@ -25717,6 +25719,114 @@
       <c r="AR205" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>358.35</v>
+      </c>
+      <c r="C206" t="n">
+        <v>338.8390909090909</v>
+      </c>
+      <c r="D206" t="n">
+        <v>336.0166666666667</v>
+      </c>
+      <c r="E206" t="n">
+        <v>335.1566666666667</v>
+      </c>
+      <c r="F206" t="n">
+        <v>331.2</v>
+      </c>
+      <c r="G206" t="n">
+        <v>333.1166666666667</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>352.2033333333333</v>
+      </c>
+      <c r="J206" t="n">
+        <v>307.6444444444444</v>
+      </c>
+      <c r="K206" t="n">
+        <v>355.8676923076923</v>
+      </c>
+      <c r="L206" t="n">
+        <v>415.57</v>
+      </c>
+      <c r="M206" t="n">
+        <v>443.4342857142857</v>
+      </c>
+      <c r="N206" t="n">
+        <v>457.37</v>
+      </c>
+      <c r="O206" t="n">
+        <v>442.9842857142857</v>
+      </c>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="n">
+        <v>416.9233333333333</v>
+      </c>
+      <c r="R206" t="n">
+        <v>406.5742857142857</v>
+      </c>
+      <c r="S206" t="n">
+        <v>398.0842857142857</v>
+      </c>
+      <c r="T206" t="n">
+        <v>388.2742857142857</v>
+      </c>
+      <c r="U206" t="n">
+        <v>384.2288888888889</v>
+      </c>
+      <c r="V206" t="n">
+        <v>386.0166666666667</v>
+      </c>
+      <c r="W206" t="n">
+        <v>388.1190909090909</v>
+      </c>
+      <c r="X206" t="n">
+        <v>391.9390909090909</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>394.97</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>401.51</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>406.36</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>413.66</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>408.79</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>389.2242857142857</v>
+      </c>
+      <c r="AE206" t="inlineStr"/>
+      <c r="AF206" t="inlineStr"/>
+      <c r="AG206" t="inlineStr"/>
+      <c r="AH206" t="inlineStr"/>
+      <c r="AI206" t="inlineStr"/>
+      <c r="AJ206" t="inlineStr"/>
+      <c r="AK206" t="inlineStr"/>
+      <c r="AL206" t="inlineStr"/>
+      <c r="AM206" t="inlineStr"/>
+      <c r="AN206" t="inlineStr"/>
+      <c r="AO206" t="inlineStr"/>
+      <c r="AP206" t="inlineStr"/>
+      <c r="AQ206" t="inlineStr"/>
+      <c r="AR206" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -25731,7 +25841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:B208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27809,6 +27919,16 @@
       </c>
       <c r="B207" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
@@ -27982,28 +28102,28 @@
         <v>0.0455</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1338426141622661</v>
+        <v>0.1090637062396952</v>
       </c>
       <c r="J2" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K2" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005285389270091478</v>
+        <v>0.003508682073354641</v>
       </c>
       <c r="M2" t="n">
-        <v>11.07702679260104</v>
+        <v>11.16928531194459</v>
       </c>
       <c r="N2" t="n">
-        <v>206.1123866423956</v>
+        <v>207.8860995962227</v>
       </c>
       <c r="O2" t="n">
-        <v>14.35661473476236</v>
+        <v>14.41825577510063</v>
       </c>
       <c r="P2" t="n">
-        <v>377.5630671869332</v>
+        <v>377.7863141669259</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28060,28 +28180,28 @@
         <v>0.0679</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5383613602977978</v>
+        <v>0.5092347543151338</v>
       </c>
       <c r="J3" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K3" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05513141091784679</v>
+        <v>0.04956067937245401</v>
       </c>
       <c r="M3" t="n">
-        <v>12.70971259257158</v>
+        <v>12.77472648366667</v>
       </c>
       <c r="N3" t="n">
-        <v>303.7599676686821</v>
+        <v>306.1038715224964</v>
       </c>
       <c r="O3" t="n">
-        <v>17.42871101569712</v>
+        <v>17.49582440248233</v>
       </c>
       <c r="P3" t="n">
-        <v>351.6280578420699</v>
+        <v>351.8905160995918</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28138,28 +28258,28 @@
         <v>0.0737</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2137727978002391</v>
+        <v>0.1918069471140547</v>
       </c>
       <c r="J4" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K4" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01278282840084533</v>
+        <v>0.01033807966084221</v>
       </c>
       <c r="M4" t="n">
-        <v>11.47255195285402</v>
+        <v>11.50927136488387</v>
       </c>
       <c r="N4" t="n">
-        <v>214.9804616052743</v>
+        <v>216.0354310851929</v>
       </c>
       <c r="O4" t="n">
-        <v>14.66221202974757</v>
+        <v>14.69814379726886</v>
       </c>
       <c r="P4" t="n">
-        <v>350.6337701897824</v>
+        <v>350.8287969708564</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28216,28 +28336,28 @@
         <v>0.0707</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2013264056370661</v>
+        <v>-0.2171131917356088</v>
       </c>
       <c r="J5" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K5" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009713360884209044</v>
+        <v>0.01136257092329107</v>
       </c>
       <c r="M5" t="n">
-        <v>12.52967474223733</v>
+        <v>12.53947362780299</v>
       </c>
       <c r="N5" t="n">
-        <v>249.8742430975022</v>
+        <v>249.7029467484773</v>
       </c>
       <c r="O5" t="n">
-        <v>15.80741101817443</v>
+        <v>15.80199186015729</v>
       </c>
       <c r="P5" t="n">
-        <v>355.2759258031962</v>
+        <v>355.416703919704</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28294,28 +28414,28 @@
         <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4259907268572795</v>
+        <v>-0.447283049274562</v>
       </c>
       <c r="J6" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K6" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03306503443575426</v>
+        <v>0.03655290216308049</v>
       </c>
       <c r="M6" t="n">
-        <v>14.08508615008501</v>
+        <v>14.10264860204008</v>
       </c>
       <c r="N6" t="n">
-        <v>317.3784864691917</v>
+        <v>317.6371987641871</v>
       </c>
       <c r="O6" t="n">
-        <v>17.81511960299991</v>
+        <v>17.82237915555011</v>
       </c>
       <c r="P6" t="n">
-        <v>361.3817341942899</v>
+        <v>361.5731915256164</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28372,28 +28492,28 @@
         <v>0.0697</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.481297689741795</v>
+        <v>-0.5024338450375513</v>
       </c>
       <c r="J7" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K7" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03949174910793696</v>
+        <v>0.04312826503763412</v>
       </c>
       <c r="M7" t="n">
-        <v>14.31225871433774</v>
+        <v>14.34333451010619</v>
       </c>
       <c r="N7" t="n">
-        <v>342.0570093973409</v>
+        <v>342.2037073988239</v>
       </c>
       <c r="O7" t="n">
-        <v>18.49478330225421</v>
+        <v>18.49874880630644</v>
       </c>
       <c r="P7" t="n">
-        <v>364.8360425183984</v>
+        <v>365.0288494154698</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28453,7 +28573,7 @@
         <v>0.2406141520737102</v>
       </c>
       <c r="J8" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K8" t="n">
         <v>167</v>
@@ -28528,28 +28648,28 @@
         <v>0.0853</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2087718734617671</v>
+        <v>-0.2130886618555705</v>
       </c>
       <c r="J9" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K9" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02469200362991608</v>
+        <v>0.02598276536312982</v>
       </c>
       <c r="M9" t="n">
-        <v>7.787537260633289</v>
+        <v>7.764972010663118</v>
       </c>
       <c r="N9" t="n">
-        <v>107.362365242348</v>
+        <v>106.7904840562389</v>
       </c>
       <c r="O9" t="n">
-        <v>10.3615812134224</v>
+        <v>10.33394813496947</v>
       </c>
       <c r="P9" t="n">
-        <v>361.5272651058706</v>
+        <v>361.5662486866263</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28606,28 +28726,28 @@
         <v>0.1077</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3144126067716744</v>
+        <v>-0.3256432177630979</v>
       </c>
       <c r="J10" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K10" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03000845066489322</v>
+        <v>0.03241500805496689</v>
       </c>
       <c r="M10" t="n">
-        <v>9.126794895783171</v>
+        <v>9.14484833539878</v>
       </c>
       <c r="N10" t="n">
-        <v>197.3895292397142</v>
+        <v>196.7749293777043</v>
       </c>
       <c r="O10" t="n">
-        <v>14.04953839952453</v>
+        <v>14.02764874730275</v>
       </c>
       <c r="P10" t="n">
-        <v>325.7898262312093</v>
+        <v>325.8914433855176</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28678,28 +28798,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.3924481710727107</v>
+        <v>0.4195210982777426</v>
       </c>
       <c r="J11" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K11" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01017624480789314</v>
+        <v>0.01176314750954988</v>
       </c>
       <c r="M11" t="n">
-        <v>23.68223648495726</v>
+        <v>23.64336191063702</v>
       </c>
       <c r="N11" t="n">
-        <v>954.267769621069</v>
+        <v>949.930603082964</v>
       </c>
       <c r="O11" t="n">
-        <v>30.89122479962666</v>
+        <v>30.82094422763462</v>
       </c>
       <c r="P11" t="n">
-        <v>325.9869484431461</v>
+        <v>325.7537680546257</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28756,28 +28876,28 @@
         <v>0.0512</v>
       </c>
       <c r="I12" t="n">
-        <v>1.143975955900883</v>
+        <v>1.23573656538636</v>
       </c>
       <c r="J12" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K12" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1079738765669583</v>
+        <v>0.1232566433313781</v>
       </c>
       <c r="M12" t="n">
-        <v>20.23094168999507</v>
+        <v>20.41308855146659</v>
       </c>
       <c r="N12" t="n">
-        <v>666.629822302657</v>
+        <v>679.4918290251991</v>
       </c>
       <c r="O12" t="n">
-        <v>25.81917547681678</v>
+        <v>26.06706406608153</v>
       </c>
       <c r="P12" t="n">
-        <v>359.6550051345248</v>
+        <v>358.8525572592711</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28834,28 +28954,28 @@
         <v>0.0414</v>
       </c>
       <c r="I13" t="n">
-        <v>1.587757454100859</v>
+        <v>1.601061131710435</v>
       </c>
       <c r="J13" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K13" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="n">
-        <v>0.238498034813746</v>
+        <v>0.2437775803865465</v>
       </c>
       <c r="M13" t="n">
-        <v>17.34246072989595</v>
+        <v>17.30921233310296</v>
       </c>
       <c r="N13" t="n">
-        <v>500.904677094108</v>
+        <v>498.49391089966</v>
       </c>
       <c r="O13" t="n">
-        <v>22.38089982762328</v>
+        <v>22.32697720023156</v>
       </c>
       <c r="P13" t="n">
-        <v>391.2513635869417</v>
+        <v>391.1343994748055</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28912,28 +29032,28 @@
         <v>0.0443</v>
       </c>
       <c r="I14" t="n">
-        <v>1.686432056731175</v>
+        <v>1.69717612390168</v>
       </c>
       <c r="J14" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K14" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2906144406135129</v>
+        <v>0.2955099318123526</v>
       </c>
       <c r="M14" t="n">
-        <v>15.76385527957802</v>
+        <v>15.73250939096062</v>
       </c>
       <c r="N14" t="n">
-        <v>418.2006782043792</v>
+        <v>416.3632870460157</v>
       </c>
       <c r="O14" t="n">
-        <v>20.44995545727128</v>
+        <v>20.40498191731656</v>
       </c>
       <c r="P14" t="n">
-        <v>403.916955891949</v>
+        <v>403.8193795581358</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28990,28 +29110,28 @@
         <v>0.042</v>
       </c>
       <c r="I15" t="n">
-        <v>2.060357571135875</v>
+        <v>2.053788863287967</v>
       </c>
       <c r="J15" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K15" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4010100196404635</v>
+        <v>0.4022514505069641</v>
       </c>
       <c r="M15" t="n">
-        <v>15.58631077880759</v>
+        <v>15.53043822419652</v>
       </c>
       <c r="N15" t="n">
-        <v>377.2879881165703</v>
+        <v>375.2805590301575</v>
       </c>
       <c r="O15" t="n">
-        <v>19.42390249451871</v>
+        <v>19.37215937963957</v>
       </c>
       <c r="P15" t="n">
-        <v>395.9706128130566</v>
+        <v>396.0316684099449</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29071,7 +29191,7 @@
         <v>2.1301449974105</v>
       </c>
       <c r="J16" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K16" t="n">
         <v>165</v>
@@ -29146,28 +29266,28 @@
         <v>0.0325</v>
       </c>
       <c r="I17" t="n">
-        <v>1.970863955063478</v>
+        <v>1.943005522758912</v>
       </c>
       <c r="J17" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K17" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3623561003820305</v>
+        <v>0.3562994770158404</v>
       </c>
       <c r="M17" t="n">
-        <v>16.15704450454216</v>
+        <v>16.22732728671382</v>
       </c>
       <c r="N17" t="n">
-        <v>424.0029451983822</v>
+        <v>425.5132585722404</v>
       </c>
       <c r="O17" t="n">
-        <v>20.59133179758857</v>
+        <v>20.62797272085264</v>
       </c>
       <c r="P17" t="n">
-        <v>392.3375489654489</v>
+        <v>392.5912891605274</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29224,28 +29344,28 @@
         <v>0.0387</v>
       </c>
       <c r="I18" t="n">
-        <v>1.802990225205862</v>
+        <v>1.774302644561363</v>
       </c>
       <c r="J18" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K18" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2831264651692411</v>
+        <v>0.2773908647748972</v>
       </c>
       <c r="M18" t="n">
-        <v>17.61604435475538</v>
+        <v>17.66702549851724</v>
       </c>
       <c r="N18" t="n">
-        <v>497.1538202719374</v>
+        <v>498.4746449801225</v>
       </c>
       <c r="O18" t="n">
-        <v>22.29694643380428</v>
+        <v>22.32654574671421</v>
       </c>
       <c r="P18" t="n">
-        <v>387.3848712237888</v>
+        <v>387.645896604402</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29302,28 +29422,28 @@
         <v>0.0375</v>
       </c>
       <c r="I19" t="n">
-        <v>1.501433901922749</v>
+        <v>1.472457064573241</v>
       </c>
       <c r="J19" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K19" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2021950254217248</v>
+        <v>0.1965749272028241</v>
       </c>
       <c r="M19" t="n">
-        <v>18.56984061280955</v>
+        <v>18.60465401240005</v>
       </c>
       <c r="N19" t="n">
-        <v>523.8573220509759</v>
+        <v>525.1590698673984</v>
       </c>
       <c r="O19" t="n">
-        <v>22.88792961477678</v>
+        <v>22.91634940097132</v>
       </c>
       <c r="P19" t="n">
-        <v>387.2091786541953</v>
+        <v>387.477969851794</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29380,28 +29500,28 @@
         <v>0.0417</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9680125716221433</v>
+        <v>0.9378138755940131</v>
       </c>
       <c r="J20" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K20" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09115699359162055</v>
+        <v>0.08630363483773518</v>
       </c>
       <c r="M20" t="n">
-        <v>19.17123110246209</v>
+        <v>19.21918062228142</v>
       </c>
       <c r="N20" t="n">
-        <v>548.1294092046041</v>
+        <v>549.6908315783772</v>
       </c>
       <c r="O20" t="n">
-        <v>23.41216370190086</v>
+        <v>23.4454863796505</v>
       </c>
       <c r="P20" t="n">
-        <v>392.439637249683</v>
+        <v>392.7208721691434</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29458,28 +29578,28 @@
         <v>0.0577</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4907772703920093</v>
+        <v>0.4687306041871537</v>
       </c>
       <c r="J21" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K21" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02727434940461126</v>
+        <v>0.02510508712785164</v>
       </c>
       <c r="M21" t="n">
-        <v>17.92374831750859</v>
+        <v>17.9445425998119</v>
       </c>
       <c r="N21" t="n">
-        <v>512.3974712545406</v>
+        <v>512.0492975367098</v>
       </c>
       <c r="O21" t="n">
-        <v>22.63619825091088</v>
+        <v>22.62850630370263</v>
       </c>
       <c r="P21" t="n">
-        <v>392.9694542528127</v>
+        <v>393.1722557844443</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29536,28 +29656,28 @@
         <v>0.0745</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08955825394212213</v>
+        <v>0.07990320931949427</v>
       </c>
       <c r="J22" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K22" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001195721696699348</v>
+        <v>0.0009623552219912845</v>
       </c>
       <c r="M22" t="n">
-        <v>15.94036692147412</v>
+        <v>15.90782070779404</v>
       </c>
       <c r="N22" t="n">
-        <v>397.8599650046507</v>
+        <v>396.1002765468992</v>
       </c>
       <c r="O22" t="n">
-        <v>19.94642737446109</v>
+        <v>19.90226812569108</v>
       </c>
       <c r="P22" t="n">
-        <v>392.8937591009274</v>
+        <v>392.9825604679571</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -29614,28 +29734,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.08474705071081244</v>
+        <v>-0.08804863722711731</v>
       </c>
       <c r="J23" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K23" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001229325024596717</v>
+        <v>0.001342395593138757</v>
       </c>
       <c r="M23" t="n">
-        <v>14.53265009044844</v>
+        <v>14.47157044828235</v>
       </c>
       <c r="N23" t="n">
-        <v>347.3843906920715</v>
+        <v>345.5305823654996</v>
       </c>
       <c r="O23" t="n">
-        <v>18.63825074120615</v>
+        <v>18.58845293093268</v>
       </c>
       <c r="P23" t="n">
-        <v>393.4903947730327</v>
+        <v>393.5206397619622</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -29692,28 +29812,28 @@
         <v>0.0668</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1870411820453537</v>
+        <v>-0.1837755129367915</v>
       </c>
       <c r="J24" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K24" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L24" t="n">
-        <v>0.006456547439153471</v>
+        <v>0.006307743943323896</v>
       </c>
       <c r="M24" t="n">
-        <v>13.88177275108487</v>
+        <v>13.82404115524489</v>
       </c>
       <c r="N24" t="n">
-        <v>317.4279193479653</v>
+        <v>315.7831920484667</v>
       </c>
       <c r="O24" t="n">
-        <v>17.81650693452466</v>
+        <v>17.77028958819936</v>
       </c>
       <c r="P24" t="n">
-        <v>393.5888853038941</v>
+        <v>393.559073199434</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -29770,28 +29890,28 @@
         <v>0.0546</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1910095613729378</v>
+        <v>-0.1851532975670796</v>
       </c>
       <c r="J25" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K25" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L25" t="n">
-        <v>0.007112287085261793</v>
+        <v>0.006760976255744566</v>
       </c>
       <c r="M25" t="n">
-        <v>13.69505325866357</v>
+        <v>13.64596960573266</v>
       </c>
       <c r="N25" t="n">
-        <v>302.4978614143782</v>
+        <v>301.0259594108122</v>
       </c>
       <c r="O25" t="n">
-        <v>17.39246565080346</v>
+        <v>17.35009969454966</v>
       </c>
       <c r="P25" t="n">
-        <v>394.2136840215733</v>
+        <v>394.1601390002917</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -29848,28 +29968,28 @@
         <v>0.055</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.231689209646551</v>
+        <v>-0.2208945821792054</v>
       </c>
       <c r="J26" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K26" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0101319012353166</v>
+        <v>0.00930868603735413</v>
       </c>
       <c r="M26" t="n">
-        <v>14.30287366741249</v>
+        <v>14.27308386384887</v>
       </c>
       <c r="N26" t="n">
-        <v>310.2080070283484</v>
+        <v>309.1535919073712</v>
       </c>
       <c r="O26" t="n">
-        <v>17.61272287377362</v>
+        <v>17.58276405766088</v>
       </c>
       <c r="P26" t="n">
-        <v>396.8555578799242</v>
+        <v>396.7571439663718</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -29926,28 +30046,28 @@
         <v>0.047</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04499158115261985</v>
+        <v>0.05472390472503274</v>
       </c>
       <c r="J27" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K27" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0003938196641825042</v>
+        <v>0.000588399989718047</v>
       </c>
       <c r="M27" t="n">
-        <v>14.43399542092119</v>
+        <v>14.39469069876548</v>
       </c>
       <c r="N27" t="n">
-        <v>309.9902321327326</v>
+        <v>308.7682990390235</v>
       </c>
       <c r="O27" t="n">
-        <v>17.6065394706834</v>
+        <v>17.57180409175517</v>
       </c>
       <c r="P27" t="n">
-        <v>395.6953193161977</v>
+        <v>395.6066340119023</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30004,28 +30124,28 @@
         <v>0.0461</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2815357133940884</v>
+        <v>0.2940751045031327</v>
       </c>
       <c r="J28" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K28" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01481102718365412</v>
+        <v>0.01628323743373006</v>
       </c>
       <c r="M28" t="n">
-        <v>14.29468676444106</v>
+        <v>14.269472510213</v>
       </c>
       <c r="N28" t="n">
-        <v>319.1735348006601</v>
+        <v>318.215926509542</v>
       </c>
       <c r="O28" t="n">
-        <v>17.86542848074627</v>
+        <v>17.83860775143458</v>
       </c>
       <c r="P28" t="n">
-        <v>394.1870901270649</v>
+        <v>394.0730545424239</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30082,28 +30202,28 @@
         <v>0.0462</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5261982625225491</v>
+        <v>0.5372183468060846</v>
       </c>
       <c r="J29" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K29" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L29" t="n">
-        <v>0.04903005299368512</v>
+        <v>0.05147627761795748</v>
       </c>
       <c r="M29" t="n">
-        <v>14.56035040119038</v>
+        <v>14.52711708220607</v>
       </c>
       <c r="N29" t="n">
-        <v>327.4781842861669</v>
+        <v>326.2481339942934</v>
       </c>
       <c r="O29" t="n">
-        <v>18.09635831558844</v>
+        <v>18.06234021366815</v>
       </c>
       <c r="P29" t="n">
-        <v>384.6089110651513</v>
+        <v>384.5088263517665</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -30160,28 +30280,28 @@
         <v>0.0414</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6072351547052537</v>
+        <v>0.6038996097716066</v>
       </c>
       <c r="J30" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K30" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05353426383997384</v>
+        <v>0.05359910248877431</v>
       </c>
       <c r="M30" t="n">
-        <v>15.89813846284257</v>
+        <v>15.82888685114341</v>
       </c>
       <c r="N30" t="n">
-        <v>388.2132038101185</v>
+        <v>386.1097858394506</v>
       </c>
       <c r="O30" t="n">
-        <v>19.7031267521203</v>
+        <v>19.64967648180118</v>
       </c>
       <c r="P30" t="n">
-        <v>376.7093787993796</v>
+        <v>376.7395153700821</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -30241,7 +30361,7 @@
         <v>0.4353620852570957</v>
       </c>
       <c r="J31" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K31" t="n">
         <v>180</v>
@@ -30319,7 +30439,7 @@
         <v>0.3264535858033515</v>
       </c>
       <c r="J32" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K32" t="n">
         <v>170</v>
@@ -30397,7 +30517,7 @@
         <v>0.334670527862065</v>
       </c>
       <c r="J33" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K33" t="n">
         <v>153</v>
@@ -30475,7 +30595,7 @@
         <v>0.1794687925384129</v>
       </c>
       <c r="J34" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K34" t="n">
         <v>176</v>
@@ -30553,7 +30673,7 @@
         <v>-0.2008953754927714</v>
       </c>
       <c r="J35" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K35" t="n">
         <v>176</v>
@@ -30631,7 +30751,7 @@
         <v>0.322165345207671</v>
       </c>
       <c r="J36" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K36" t="n">
         <v>170</v>
@@ -30709,7 +30829,7 @@
         <v>-0.2657932798613098</v>
       </c>
       <c r="J37" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K37" t="n">
         <v>155</v>
@@ -30787,7 +30907,7 @@
         <v>-0.1769107694881522</v>
       </c>
       <c r="J38" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K38" t="n">
         <v>152</v>
@@ -30865,7 +30985,7 @@
         <v>-0.4693673773476136</v>
       </c>
       <c r="J39" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K39" t="n">
         <v>155</v>
@@ -30943,7 +31063,7 @@
         <v>-0.08492433354509818</v>
       </c>
       <c r="J40" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K40" t="n">
         <v>149</v>
@@ -31021,7 +31141,7 @@
         <v>-0.07817108508874698</v>
       </c>
       <c r="J41" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K41" t="n">
         <v>148</v>
@@ -31099,7 +31219,7 @@
         <v>0.240564747166173</v>
       </c>
       <c r="J42" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K42" t="n">
         <v>143</v>
@@ -31171,7 +31291,7 @@
         <v>0.4671341369083165</v>
       </c>
       <c r="J43" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K43" t="n">
         <v>130</v>
@@ -31227,7 +31347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR205"/>
+  <dimension ref="A1:AR206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70447,7 +70567,11 @@
         </is>
       </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>-34.46225234485124,172.67002406281875</t>
+        </is>
+      </c>
       <c r="M205" t="inlineStr">
         <is>
           <t>-34.46160629225181,172.6703540814383</t>
@@ -70565,6 +70689,168 @@
         </is>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>-34.468108019950215,172.66442030630714</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>-34.46768206990254,172.66518449621614</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>-34.467154111099106,172.6658150779242</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>-34.46661415382418,172.66642994843386</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>-34.46609445424781,172.66706806641633</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>-34.46554857476017,172.66766294130682</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>-34.46438825204395,172.668790489335</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>-34.464153781741025,172.66977000391066</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>-34.463323444849586,172.67004030851322</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>-34.462419385611966,172.6702228748343</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>-34.461771067901466,172.67059264768434</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>-34.46124857131096,172.67084314829287</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>-34.46068973156499,172.67124761916756</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>-34.459377054815455,172.6721255467304</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>-34.458712444425196,172.67253707098976</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>-34.458042099447105,172.6729295718683</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>-34.457375815643566,172.67333557769587</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>-34.456691763233785,172.6736825992144</t>
+        </is>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>-34.4559897312765,172.6739699360969</t>
+        </is>
+      </c>
+      <c r="W206" t="inlineStr">
+        <is>
+          <t>-34.45528672405852,172.6742540538758</t>
+        </is>
+      </c>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t>-34.454578418825704,172.67452059832377</t>
+        </is>
+      </c>
+      <c r="Y206" t="inlineStr">
+        <is>
+          <t>-34.45387253926852,172.67479521702288</t>
+        </is>
+      </c>
+      <c r="Z206" t="inlineStr">
+        <is>
+          <t>-34.453155841717546,172.67503393292185</t>
+        </is>
+      </c>
+      <c r="AA206" t="inlineStr">
+        <is>
+          <t>-34.45244434577881,172.67528994096432</t>
+        </is>
+      </c>
+      <c r="AB206" t="inlineStr">
+        <is>
+          <t>-34.4517484790218,172.67551176215179</t>
+        </is>
+      </c>
+      <c r="AC206" t="inlineStr">
+        <is>
+          <t>-34.45107277876336,172.67576291602973</t>
+        </is>
+      </c>
+      <c r="AD206" t="inlineStr">
+        <is>
+          <t>-34.45038801207757,172.67614028085322</t>
+        </is>
+      </c>
+      <c r="AE206" t="inlineStr"/>
+      <c r="AF206" t="inlineStr"/>
+      <c r="AG206" t="inlineStr"/>
+      <c r="AH206" t="inlineStr"/>
+      <c r="AI206" t="inlineStr"/>
+      <c r="AJ206" t="inlineStr"/>
+      <c r="AK206" t="inlineStr"/>
+      <c r="AL206" t="inlineStr"/>
+      <c r="AM206" t="inlineStr"/>
+      <c r="AN206" t="inlineStr"/>
+      <c r="AO206" t="inlineStr"/>
+      <c r="AP206" t="inlineStr"/>
+      <c r="AQ206" t="inlineStr"/>
+      <c r="AR206" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0005/nzd0005.xlsx
+++ b/data/nzd0005/nzd0005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37180,7 +37180,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-34.46441642415074,172.66882402019732</t>
+          <t>-34.46441642415075,172.66882402019732</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -38027,7 +38027,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-34.46785490892325,172.66408877907313</t>
+          <t>-34.46785490892326,172.66408877907313</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -45994,7 +45994,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>-34.46069826714385,172.67127596269935</t>
+          <t>-34.46069826714384,172.67127596269935</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -47368,7 +47368,7 @@
       </c>
       <c r="AI87" t="inlineStr">
         <is>
-          <t>-34.44673874858027,172.67691426917082</t>
+          <t>-34.44673874858028,172.67691426917082</t>
         </is>
       </c>
       <c r="AJ87" t="inlineStr">
@@ -49471,7 +49471,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>-34.458678206095975,172.67242337760408</t>
+          <t>-34.45867820609598,172.67242337760408</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -52496,7 +52496,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-34.46747128517395,172.66490840654717</t>
+          <t>-34.46747128517394,172.66490840654717</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -65463,7 +65463,7 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>-34.458698080891075,172.67248937471743</t>
+          <t>-34.45869808089107,172.67248937471743</t>
         </is>
       </c>
       <c r="S179" t="inlineStr">

--- a/data/nzd0005/nzd0005.xlsx
+++ b/data/nzd0005/nzd0005.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR206"/>
+  <dimension ref="A1:AR208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25768,7 +25768,9 @@
       <c r="O206" t="n">
         <v>442.9842857142857</v>
       </c>
-      <c r="P206" t="inlineStr"/>
+      <c r="P206" t="n">
+        <v>427.1933333333333</v>
+      </c>
       <c r="Q206" t="n">
         <v>416.9233333333333</v>
       </c>
@@ -25811,11 +25813,21 @@
       <c r="AD206" t="n">
         <v>389.2242857142857</v>
       </c>
-      <c r="AE206" t="inlineStr"/>
-      <c r="AF206" t="inlineStr"/>
-      <c r="AG206" t="inlineStr"/>
-      <c r="AH206" t="inlineStr"/>
-      <c r="AI206" t="inlineStr"/>
+      <c r="AE206" t="n">
+        <v>381.9788888888889</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>376.71</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>372.51</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>372.1288888888889</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>370.13</v>
+      </c>
       <c r="AJ206" t="inlineStr"/>
       <c r="AK206" t="inlineStr"/>
       <c r="AL206" t="inlineStr"/>
@@ -25825,6 +25837,226 @@
       <c r="AP206" t="inlineStr"/>
       <c r="AQ206" t="inlineStr"/>
       <c r="AR206" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>376.16</v>
+      </c>
+      <c r="C207" t="n">
+        <v>347.2918181818182</v>
+      </c>
+      <c r="D207" t="n">
+        <v>342.5633333333333</v>
+      </c>
+      <c r="E207" t="n">
+        <v>333.2933333333333</v>
+      </c>
+      <c r="F207" t="n">
+        <v>335.2</v>
+      </c>
+      <c r="G207" t="n">
+        <v>329.0333333333333</v>
+      </c>
+      <c r="H207" t="n">
+        <v>390.1185714285714</v>
+      </c>
+      <c r="I207" t="n">
+        <v>350.0166666666667</v>
+      </c>
+      <c r="J207" t="n">
+        <v>304.5188888888889</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>376.08</v>
+      </c>
+      <c r="M207" t="n">
+        <v>430.5285714285715</v>
+      </c>
+      <c r="N207" t="n">
+        <v>438.8</v>
+      </c>
+      <c r="O207" t="n">
+        <v>440.6685714285715</v>
+      </c>
+      <c r="P207" t="n">
+        <v>433.1566666666667</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>418.9366666666667</v>
+      </c>
+      <c r="R207" t="n">
+        <v>410.0585714285714</v>
+      </c>
+      <c r="S207" t="n">
+        <v>402.7485714285714</v>
+      </c>
+      <c r="T207" t="n">
+        <v>393.9185714285715</v>
+      </c>
+      <c r="U207" t="n">
+        <v>387.4177777777778</v>
+      </c>
+      <c r="V207" t="n">
+        <v>374.8633333333333</v>
+      </c>
+      <c r="W207" t="n">
+        <v>381.8418181818182</v>
+      </c>
+      <c r="X207" t="n">
+        <v>390.4418181818182</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>394.42</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>394.4</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>405.25</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>411.52</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>413.02</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>408.5885714285714</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>392.4977777777778</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>380.03</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>373.72</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>364.5577777777777</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>364.35</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>381.8766666666667</v>
+      </c>
+      <c r="AK207" t="inlineStr"/>
+      <c r="AL207" t="inlineStr"/>
+      <c r="AM207" t="inlineStr"/>
+      <c r="AN207" t="n">
+        <v>409.5466666666667</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>416.5385714285715</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>423.87</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>402.72</v>
+      </c>
+      <c r="AR207" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>336.6533333333333</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>453.1069230769231</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>441.4814285714286</v>
+      </c>
+      <c r="N208" t="n">
+        <v>430.2</v>
+      </c>
+      <c r="O208" t="n">
+        <v>420.5214285714285</v>
+      </c>
+      <c r="P208" t="n">
+        <v>451.4533333333333</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>435.0833333333333</v>
+      </c>
+      <c r="R208" t="n">
+        <v>416.9214285714286</v>
+      </c>
+      <c r="S208" t="n">
+        <v>399.8214285714286</v>
+      </c>
+      <c r="T208" t="n">
+        <v>401.4714285714285</v>
+      </c>
+      <c r="U208" t="n">
+        <v>397.8255555555555</v>
+      </c>
+      <c r="V208" t="n">
+        <v>407.9266666666667</v>
+      </c>
+      <c r="W208" t="n">
+        <v>396.79</v>
+      </c>
+      <c r="X208" t="n">
+        <v>385.55</v>
+      </c>
+      <c r="Y208" t="inlineStr"/>
+      <c r="Z208" t="inlineStr"/>
+      <c r="AA208" t="inlineStr"/>
+      <c r="AB208" t="inlineStr"/>
+      <c r="AC208" t="inlineStr"/>
+      <c r="AD208" t="inlineStr"/>
+      <c r="AE208" t="inlineStr"/>
+      <c r="AF208" t="inlineStr"/>
+      <c r="AG208" t="inlineStr"/>
+      <c r="AH208" t="inlineStr"/>
+      <c r="AI208" t="inlineStr"/>
+      <c r="AJ208" t="inlineStr"/>
+      <c r="AK208" t="inlineStr"/>
+      <c r="AL208" t="inlineStr"/>
+      <c r="AM208" t="inlineStr"/>
+      <c r="AN208" t="n">
+        <v>385.3333333333333</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>398.9314285714286</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>411.99</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>406.83</v>
+      </c>
+      <c r="AR208" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25841,7 +26073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B208"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27929,6 +28161,26 @@
       </c>
       <c r="B208" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>-1.1</v>
       </c>
     </row>
   </sheetData>
@@ -28102,28 +28354,28 @@
         <v>0.0455</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1090637062396952</v>
+        <v>0.1042659983536539</v>
       </c>
       <c r="J2" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K2" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003508682073354641</v>
+        <v>0.003245699188297202</v>
       </c>
       <c r="M2" t="n">
-        <v>11.16928531194459</v>
+        <v>11.13349663578124</v>
       </c>
       <c r="N2" t="n">
-        <v>207.8860995962227</v>
+        <v>206.7706786848086</v>
       </c>
       <c r="O2" t="n">
-        <v>14.41825577510063</v>
+        <v>14.37952289489497</v>
       </c>
       <c r="P2" t="n">
-        <v>377.7863141669259</v>
+        <v>377.8296903135912</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28180,28 +28432,28 @@
         <v>0.0679</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5092347543151338</v>
+        <v>0.4900812353012409</v>
       </c>
       <c r="J3" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K3" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04956067937245401</v>
+        <v>0.04635072329503709</v>
       </c>
       <c r="M3" t="n">
-        <v>12.77472648366667</v>
+        <v>12.79388700570421</v>
       </c>
       <c r="N3" t="n">
-        <v>306.1038715224964</v>
+        <v>306.1228889613955</v>
       </c>
       <c r="O3" t="n">
-        <v>17.49582440248233</v>
+        <v>17.49636787911695</v>
       </c>
       <c r="P3" t="n">
-        <v>351.8905160995918</v>
+        <v>352.0637106608713</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28258,28 +28510,28 @@
         <v>0.0737</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1918069471140547</v>
+        <v>0.1775607914920836</v>
       </c>
       <c r="J4" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K4" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01033807966084221</v>
+        <v>0.008943654903769693</v>
       </c>
       <c r="M4" t="n">
-        <v>11.50927136488387</v>
+        <v>11.5109958414685</v>
       </c>
       <c r="N4" t="n">
-        <v>216.0354310851929</v>
+        <v>215.7797410019335</v>
       </c>
       <c r="O4" t="n">
-        <v>14.69814379726886</v>
+        <v>14.68944318216091</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8287969708564</v>
+        <v>350.9557089205704</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28336,28 +28588,28 @@
         <v>0.0707</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2171131917356088</v>
+        <v>-0.2343631880786607</v>
       </c>
       <c r="J5" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K5" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01136257092329107</v>
+        <v>0.01329741534850293</v>
       </c>
       <c r="M5" t="n">
-        <v>12.53947362780299</v>
+        <v>12.55599772865606</v>
       </c>
       <c r="N5" t="n">
-        <v>249.7029467484773</v>
+        <v>249.8040096063847</v>
       </c>
       <c r="O5" t="n">
-        <v>15.80199186015729</v>
+        <v>15.80518932523064</v>
       </c>
       <c r="P5" t="n">
-        <v>355.416703919704</v>
+        <v>355.5710414403727</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28414,28 +28666,28 @@
         <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.447283049274562</v>
+        <v>-0.4635029829721488</v>
       </c>
       <c r="J6" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K6" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03655290216308049</v>
+        <v>0.03948159151609698</v>
       </c>
       <c r="M6" t="n">
-        <v>14.10264860204008</v>
+        <v>14.09611983633772</v>
       </c>
       <c r="N6" t="n">
-        <v>317.6371987641871</v>
+        <v>317.0512166568918</v>
       </c>
       <c r="O6" t="n">
-        <v>17.82237915555011</v>
+        <v>17.80593206369416</v>
       </c>
       <c r="P6" t="n">
-        <v>361.5731915256164</v>
+        <v>361.7195171459413</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28492,28 +28744,28 @@
         <v>0.0697</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5024338450375513</v>
+        <v>-0.527307951305287</v>
       </c>
       <c r="J7" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K7" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04312826503763412</v>
+        <v>0.0474389987769861</v>
       </c>
       <c r="M7" t="n">
-        <v>14.34333451010619</v>
+        <v>14.40362833274984</v>
       </c>
       <c r="N7" t="n">
-        <v>342.2037073988239</v>
+        <v>343.2645153229644</v>
       </c>
       <c r="O7" t="n">
-        <v>18.49874880630644</v>
+        <v>18.52739904365868</v>
       </c>
       <c r="P7" t="n">
-        <v>365.0288494154698</v>
+        <v>365.256551332137</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28570,28 +28822,28 @@
         <v>0.0409</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2406141520737102</v>
+        <v>0.2352730090464402</v>
       </c>
       <c r="J8" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K8" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01526178210666262</v>
+        <v>0.01478025517472392</v>
       </c>
       <c r="M8" t="n">
-        <v>12.42471708028303</v>
+        <v>12.38477991222608</v>
       </c>
       <c r="N8" t="n">
-        <v>225.308389372165</v>
+        <v>224.1002897738207</v>
       </c>
       <c r="O8" t="n">
-        <v>15.01027612578013</v>
+        <v>14.96997961835021</v>
       </c>
       <c r="P8" t="n">
-        <v>388.6773371974152</v>
+        <v>388.7258613949608</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28648,28 +28900,28 @@
         <v>0.0853</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2130886618555705</v>
+        <v>-0.2401385184806133</v>
       </c>
       <c r="J9" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K9" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02598276536312982</v>
+        <v>0.03279447349027731</v>
       </c>
       <c r="M9" t="n">
-        <v>7.764972010663118</v>
+        <v>7.829411530192251</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7904840562389</v>
+        <v>107.9439584396309</v>
       </c>
       <c r="O9" t="n">
-        <v>10.33394813496947</v>
+        <v>10.3896081947122</v>
       </c>
       <c r="P9" t="n">
-        <v>361.5662486866263</v>
+        <v>361.8116676204698</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28726,28 +28978,28 @@
         <v>0.1077</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3256432177630979</v>
+        <v>-0.3399502685367821</v>
       </c>
       <c r="J10" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K10" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03241500805496689</v>
+        <v>0.03546865431355617</v>
       </c>
       <c r="M10" t="n">
-        <v>9.14484833539878</v>
+        <v>9.184897289665487</v>
       </c>
       <c r="N10" t="n">
-        <v>196.7749293777043</v>
+        <v>196.5772151883156</v>
       </c>
       <c r="O10" t="n">
-        <v>14.02764874730275</v>
+        <v>14.02059967292111</v>
       </c>
       <c r="P10" t="n">
-        <v>325.8914433855176</v>
+        <v>326.0213668573896</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28798,28 +29050,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.4195210982777426</v>
+        <v>0.5765323012339537</v>
       </c>
       <c r="J11" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K11" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01176314750954988</v>
+        <v>0.02023798138612154</v>
       </c>
       <c r="M11" t="n">
-        <v>23.64336191063702</v>
+        <v>24.28985476927093</v>
       </c>
       <c r="N11" t="n">
-        <v>949.930603082964</v>
+        <v>1042.489149521565</v>
       </c>
       <c r="O11" t="n">
-        <v>30.82094422763462</v>
+        <v>32.28760055379719</v>
       </c>
       <c r="P11" t="n">
-        <v>325.7537680546257</v>
+        <v>324.3949178773399</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28876,28 +29128,28 @@
         <v>0.0512</v>
       </c>
       <c r="I12" t="n">
-        <v>1.23573656538636</v>
+        <v>1.218755769619279</v>
       </c>
       <c r="J12" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K12" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1232566433313781</v>
+        <v>0.1215204820559397</v>
       </c>
       <c r="M12" t="n">
-        <v>20.41308855146659</v>
+        <v>20.38560617857243</v>
       </c>
       <c r="N12" t="n">
-        <v>679.4918290251991</v>
+        <v>676.5290314237303</v>
       </c>
       <c r="O12" t="n">
-        <v>26.06706406608153</v>
+        <v>26.01017169154656</v>
       </c>
       <c r="P12" t="n">
-        <v>358.8525572592711</v>
+        <v>359.0026401831637</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28954,28 +29206,28 @@
         <v>0.0414</v>
       </c>
       <c r="I13" t="n">
-        <v>1.601061131710435</v>
+        <v>1.609075873952945</v>
       </c>
       <c r="J13" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K13" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2437775803865465</v>
+        <v>0.2504274220771781</v>
       </c>
       <c r="M13" t="n">
-        <v>17.30921233310296</v>
+        <v>17.16248774047848</v>
       </c>
       <c r="N13" t="n">
-        <v>498.49391089966</v>
+        <v>492.7108062861989</v>
       </c>
       <c r="O13" t="n">
-        <v>22.32697720023156</v>
+        <v>22.19709004095354</v>
       </c>
       <c r="P13" t="n">
-        <v>391.1343994748055</v>
+        <v>391.0635809909594</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29032,28 +29284,28 @@
         <v>0.0443</v>
       </c>
       <c r="I14" t="n">
-        <v>1.69717612390168</v>
+        <v>1.669719243024428</v>
       </c>
       <c r="J14" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K14" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2955099318123526</v>
+        <v>0.2926671252899975</v>
       </c>
       <c r="M14" t="n">
-        <v>15.73250939096062</v>
+        <v>15.69664144953453</v>
       </c>
       <c r="N14" t="n">
-        <v>416.3632870460157</v>
+        <v>413.7446142052897</v>
       </c>
       <c r="O14" t="n">
-        <v>20.40498191731656</v>
+        <v>20.34071321771411</v>
       </c>
       <c r="P14" t="n">
-        <v>403.8193795581358</v>
+        <v>404.0697768068243</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29110,28 +29362,28 @@
         <v>0.042</v>
       </c>
       <c r="I15" t="n">
-        <v>2.053788863287967</v>
+        <v>2.014775553090011</v>
       </c>
       <c r="J15" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K15" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4022514505069641</v>
+        <v>0.3955144707978719</v>
       </c>
       <c r="M15" t="n">
-        <v>15.53043822419652</v>
+        <v>15.55857042276953</v>
       </c>
       <c r="N15" t="n">
-        <v>375.2805590301575</v>
+        <v>375.9410864361098</v>
       </c>
       <c r="O15" t="n">
-        <v>19.37215937963957</v>
+        <v>19.38920025261769</v>
       </c>
       <c r="P15" t="n">
-        <v>396.0316684099449</v>
+        <v>396.3958701479232</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29188,28 +29440,28 @@
         <v>0.0328</v>
       </c>
       <c r="I16" t="n">
-        <v>2.1301449974105</v>
+        <v>2.094416476730936</v>
       </c>
       <c r="J16" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K16" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4129918667019864</v>
+        <v>0.4106063175536678</v>
       </c>
       <c r="M16" t="n">
-        <v>16.1082691258742</v>
+        <v>16.08477583053779</v>
       </c>
       <c r="N16" t="n">
-        <v>395.9545340558225</v>
+        <v>393.0370245665252</v>
       </c>
       <c r="O16" t="n">
-        <v>19.89860633451053</v>
+        <v>19.8251614007686</v>
       </c>
       <c r="P16" t="n">
-        <v>393.8786374197114</v>
+        <v>394.2077511425014</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29266,28 +29518,28 @@
         <v>0.0325</v>
       </c>
       <c r="I17" t="n">
-        <v>1.943005522758912</v>
+        <v>1.910375466173202</v>
       </c>
       <c r="J17" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K17" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3562994770158404</v>
+        <v>0.3518537684548152</v>
       </c>
       <c r="M17" t="n">
-        <v>16.22732728671382</v>
+        <v>16.22655577917281</v>
       </c>
       <c r="N17" t="n">
-        <v>425.5132585722404</v>
+        <v>424.072126591541</v>
       </c>
       <c r="O17" t="n">
-        <v>20.62797272085264</v>
+        <v>20.59301159596481</v>
       </c>
       <c r="P17" t="n">
-        <v>392.5912891605274</v>
+        <v>392.8896848529791</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29344,28 +29596,28 @@
         <v>0.0387</v>
       </c>
       <c r="I18" t="n">
-        <v>1.774302644561363</v>
+        <v>1.733376785178114</v>
       </c>
       <c r="J18" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K18" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2773908647748972</v>
+        <v>0.2709805175013487</v>
       </c>
       <c r="M18" t="n">
-        <v>17.66702549851724</v>
+        <v>17.68270295024804</v>
       </c>
       <c r="N18" t="n">
-        <v>498.4746449801225</v>
+        <v>497.3427179378644</v>
       </c>
       <c r="O18" t="n">
-        <v>22.32654574671421</v>
+        <v>22.30118198521918</v>
       </c>
       <c r="P18" t="n">
-        <v>387.645896604402</v>
+        <v>388.0197328987179</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29422,28 +29674,28 @@
         <v>0.0375</v>
       </c>
       <c r="I19" t="n">
-        <v>1.472457064573241</v>
+        <v>1.423292216463746</v>
       </c>
       <c r="J19" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K19" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1965749272028241</v>
+        <v>0.1877690575441495</v>
       </c>
       <c r="M19" t="n">
-        <v>18.60465401240005</v>
+        <v>18.64943519519243</v>
       </c>
       <c r="N19" t="n">
-        <v>525.1590698673984</v>
+        <v>525.6462989558549</v>
       </c>
       <c r="O19" t="n">
-        <v>22.91634940097132</v>
+        <v>22.92697753642758</v>
       </c>
       <c r="P19" t="n">
-        <v>387.477969851794</v>
+        <v>387.9358167473113</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29500,28 +29752,28 @@
         <v>0.0417</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9378138755940131</v>
+        <v>0.8989242523390296</v>
       </c>
       <c r="J20" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K20" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L20" t="n">
-        <v>0.08630363483773518</v>
+        <v>0.08100204827717616</v>
       </c>
       <c r="M20" t="n">
-        <v>19.21918062228142</v>
+        <v>19.20608211237127</v>
       </c>
       <c r="N20" t="n">
-        <v>549.6908315783772</v>
+        <v>547.7653414259887</v>
       </c>
       <c r="O20" t="n">
-        <v>23.4454863796505</v>
+        <v>23.40438722603069</v>
       </c>
       <c r="P20" t="n">
-        <v>392.7208721691434</v>
+        <v>393.0844096257911</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29578,28 +29830,28 @@
         <v>0.0577</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4687306041871537</v>
+        <v>0.4433307848246335</v>
       </c>
       <c r="J21" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K21" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02510508712785164</v>
+        <v>0.02293907916145177</v>
       </c>
       <c r="M21" t="n">
-        <v>17.9445425998119</v>
+        <v>17.88559095603599</v>
       </c>
       <c r="N21" t="n">
-        <v>512.0492975367098</v>
+        <v>508.4418117373732</v>
       </c>
       <c r="O21" t="n">
-        <v>22.62850630370263</v>
+        <v>22.54865432209588</v>
       </c>
       <c r="P21" t="n">
-        <v>393.1722557844443</v>
+        <v>393.4067714659515</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29656,28 +29908,28 @@
         <v>0.0745</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07990320931949427</v>
+        <v>0.07246809312453432</v>
       </c>
       <c r="J22" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K22" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0009623552219912845</v>
+        <v>0.0008039941413315876</v>
       </c>
       <c r="M22" t="n">
-        <v>15.90782070779404</v>
+        <v>15.91876988277224</v>
       </c>
       <c r="N22" t="n">
-        <v>396.1002765468992</v>
+        <v>394.8853865156042</v>
       </c>
       <c r="O22" t="n">
-        <v>19.90226812569108</v>
+        <v>19.8717232900321</v>
       </c>
       <c r="P22" t="n">
-        <v>392.9825604679571</v>
+        <v>393.0510331049506</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -29734,28 +29986,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.08804863722711731</v>
+        <v>-0.09192329482447897</v>
       </c>
       <c r="J23" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K23" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001342395593138757</v>
+        <v>0.001494389152995268</v>
       </c>
       <c r="M23" t="n">
-        <v>14.47157044828235</v>
+        <v>14.3969776212645</v>
       </c>
       <c r="N23" t="n">
-        <v>345.5305823654996</v>
+        <v>342.4213074111859</v>
       </c>
       <c r="O23" t="n">
-        <v>18.58845293093268</v>
+        <v>18.50462935081883</v>
       </c>
       <c r="P23" t="n">
-        <v>393.5206397619622</v>
+        <v>393.5561940205525</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -29812,28 +30064,28 @@
         <v>0.0668</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1837755129367915</v>
+        <v>-0.1854160735276243</v>
       </c>
       <c r="J24" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K24" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L24" t="n">
-        <v>0.006307743943323896</v>
+        <v>0.006569529838355015</v>
       </c>
       <c r="M24" t="n">
-        <v>13.82404115524489</v>
+        <v>13.70383710856916</v>
       </c>
       <c r="N24" t="n">
-        <v>315.7831920484667</v>
+        <v>312.5115736035266</v>
       </c>
       <c r="O24" t="n">
-        <v>17.77028958819936</v>
+        <v>17.6779968775743</v>
       </c>
       <c r="P24" t="n">
-        <v>393.559073199434</v>
+        <v>393.5741312786465</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -29890,28 +30142,28 @@
         <v>0.0546</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1851532975670796</v>
+        <v>-0.1800110306436465</v>
       </c>
       <c r="J25" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K25" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L25" t="n">
-        <v>0.006760976255744566</v>
+        <v>0.006464929273194975</v>
       </c>
       <c r="M25" t="n">
-        <v>13.64596960573266</v>
+        <v>13.59419809929299</v>
       </c>
       <c r="N25" t="n">
-        <v>301.0259594108122</v>
+        <v>299.5338276424784</v>
       </c>
       <c r="O25" t="n">
-        <v>17.35009969454966</v>
+        <v>17.30704560699134</v>
       </c>
       <c r="P25" t="n">
-        <v>394.1601390002917</v>
+        <v>394.112966235677</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -29968,28 +30220,28 @@
         <v>0.055</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2208945821792054</v>
+        <v>-0.2175309357040436</v>
       </c>
       <c r="J26" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K26" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00930868603735413</v>
+        <v>0.009132797401258941</v>
       </c>
       <c r="M26" t="n">
-        <v>14.27308386384887</v>
+        <v>14.21216805180472</v>
       </c>
       <c r="N26" t="n">
-        <v>309.1535919073712</v>
+        <v>307.584443377476</v>
       </c>
       <c r="O26" t="n">
-        <v>17.58276405766088</v>
+        <v>17.53808551061022</v>
       </c>
       <c r="P26" t="n">
-        <v>396.7571439663718</v>
+        <v>396.7263777565485</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30046,28 +30298,28 @@
         <v>0.047</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05472390472503274</v>
+        <v>0.0630563339063384</v>
       </c>
       <c r="J27" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K27" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L27" t="n">
-        <v>0.000588399989718047</v>
+        <v>0.0007891783338863645</v>
       </c>
       <c r="M27" t="n">
-        <v>14.39469069876548</v>
+        <v>14.35006302216694</v>
       </c>
       <c r="N27" t="n">
-        <v>308.7682990390235</v>
+        <v>307.4376626637142</v>
       </c>
       <c r="O27" t="n">
-        <v>17.57180409175517</v>
+        <v>17.53390038364865</v>
       </c>
       <c r="P27" t="n">
-        <v>395.6066340119023</v>
+        <v>395.530444052079</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30124,28 +30376,28 @@
         <v>0.0461</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2940751045031327</v>
+        <v>0.3040713523010732</v>
       </c>
       <c r="J28" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K28" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01628323743373006</v>
+        <v>0.01755912210600696</v>
       </c>
       <c r="M28" t="n">
-        <v>14.269472510213</v>
+        <v>14.23332370190241</v>
       </c>
       <c r="N28" t="n">
-        <v>318.215926509542</v>
+        <v>316.9850954621559</v>
       </c>
       <c r="O28" t="n">
-        <v>17.83860775143458</v>
+        <v>17.80407524872201</v>
       </c>
       <c r="P28" t="n">
-        <v>394.0730545424239</v>
+        <v>393.9818324547783</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30202,28 +30454,28 @@
         <v>0.0462</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5372183468060846</v>
+        <v>0.552225094844719</v>
       </c>
       <c r="J29" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K29" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L29" t="n">
-        <v>0.05147627761795748</v>
+        <v>0.05464348648399731</v>
       </c>
       <c r="M29" t="n">
-        <v>14.52711708220607</v>
+        <v>14.51606622434847</v>
       </c>
       <c r="N29" t="n">
-        <v>326.2481339942934</v>
+        <v>325.59481739206</v>
       </c>
       <c r="O29" t="n">
-        <v>18.06234021366815</v>
+        <v>18.04424610206977</v>
       </c>
       <c r="P29" t="n">
-        <v>384.5088263517665</v>
+        <v>384.3720548884883</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -30280,28 +30532,28 @@
         <v>0.0414</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6038996097716066</v>
+        <v>0.6210338992692106</v>
       </c>
       <c r="J30" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K30" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05359910248877431</v>
+        <v>0.05696738227782971</v>
       </c>
       <c r="M30" t="n">
-        <v>15.82888685114341</v>
+        <v>15.82100028815214</v>
       </c>
       <c r="N30" t="n">
-        <v>386.1097858394506</v>
+        <v>385.4104783482345</v>
       </c>
       <c r="O30" t="n">
-        <v>19.64967648180118</v>
+        <v>19.63187404065731</v>
       </c>
       <c r="P30" t="n">
-        <v>376.7395153700821</v>
+        <v>376.5842013219266</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -30358,28 +30610,28 @@
         <v>0.0501</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4353620852570957</v>
+        <v>0.4438108230040256</v>
       </c>
       <c r="J31" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K31" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02540361468020247</v>
+        <v>0.02698068922901975</v>
       </c>
       <c r="M31" t="n">
-        <v>16.21893644745983</v>
+        <v>16.09931121119656</v>
       </c>
       <c r="N31" t="n">
-        <v>430.1647311594168</v>
+        <v>425.9110648168065</v>
       </c>
       <c r="O31" t="n">
-        <v>20.74041299394534</v>
+        <v>20.63761286624029</v>
       </c>
       <c r="P31" t="n">
-        <v>371.9930914191153</v>
+        <v>371.9159307691469</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -30436,28 +30688,28 @@
         <v>0.0608</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3264535858033515</v>
+        <v>0.3263750084564975</v>
       </c>
       <c r="J32" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K32" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01315810534554729</v>
+        <v>0.01349331134387355</v>
       </c>
       <c r="M32" t="n">
-        <v>16.56690847634499</v>
+        <v>16.39346943046691</v>
       </c>
       <c r="N32" t="n">
-        <v>473.2664772477253</v>
+        <v>467.7950259879215</v>
       </c>
       <c r="O32" t="n">
-        <v>21.75468862677021</v>
+        <v>21.62856967041329</v>
       </c>
       <c r="P32" t="n">
-        <v>369.9907402529894</v>
+        <v>369.9913995831158</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -30514,28 +30766,28 @@
         <v>0.0452</v>
       </c>
       <c r="I33" t="n">
-        <v>0.334670527862065</v>
+        <v>0.3187957546625423</v>
       </c>
       <c r="J33" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K33" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01892386421320769</v>
+        <v>0.01763237775786808</v>
       </c>
       <c r="M33" t="n">
-        <v>15.00272876938499</v>
+        <v>14.89722461408764</v>
       </c>
       <c r="N33" t="n">
-        <v>356.6580963183824</v>
+        <v>352.6378455831429</v>
       </c>
       <c r="O33" t="n">
-        <v>18.88539372950382</v>
+        <v>18.77865398752378</v>
       </c>
       <c r="P33" t="n">
-        <v>371.3066265615698</v>
+        <v>371.4496896139149</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -30592,28 +30844,28 @@
         <v>0.0518</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1794687925384129</v>
+        <v>0.1737827876660564</v>
       </c>
       <c r="J34" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K34" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L34" t="n">
-        <v>0.003674041313988519</v>
+        <v>0.003528006104112857</v>
       </c>
       <c r="M34" t="n">
-        <v>18.23902239662099</v>
+        <v>18.07756822390329</v>
       </c>
       <c r="N34" t="n">
-        <v>527.4063005052448</v>
+        <v>521.7221441902414</v>
       </c>
       <c r="O34" t="n">
-        <v>22.96532822550648</v>
+        <v>22.84123779899507</v>
       </c>
       <c r="P34" t="n">
-        <v>366.4351058376717</v>
+        <v>366.4867511216967</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -30670,28 +30922,28 @@
         <v>0.0461</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2008953754927714</v>
+        <v>-0.2017808602138759</v>
       </c>
       <c r="J35" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K35" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L35" t="n">
-        <v>0.004001407938702961</v>
+        <v>0.0041385497247165</v>
       </c>
       <c r="M35" t="n">
-        <v>19.21957925644186</v>
+        <v>19.03632155068407</v>
       </c>
       <c r="N35" t="n">
-        <v>596.2961706249002</v>
+        <v>589.6914034110379</v>
       </c>
       <c r="O35" t="n">
-        <v>24.41917628882883</v>
+        <v>24.28356241186696</v>
       </c>
       <c r="P35" t="n">
-        <v>372.8260940523832</v>
+        <v>372.8342154644342</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -30748,28 +31000,28 @@
         <v>0.0367</v>
       </c>
       <c r="I36" t="n">
-        <v>0.322165345207671</v>
+        <v>0.324324892485821</v>
       </c>
       <c r="J36" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K36" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01271837445726276</v>
+        <v>0.01306215740239003</v>
       </c>
       <c r="M36" t="n">
-        <v>17.97754234665903</v>
+        <v>17.88345382728088</v>
       </c>
       <c r="N36" t="n">
-        <v>484.8572137888344</v>
+        <v>482.0422963032066</v>
       </c>
       <c r="O36" t="n">
-        <v>22.01947351298015</v>
+        <v>21.95546165087873</v>
       </c>
       <c r="P36" t="n">
-        <v>371.6663327763949</v>
+        <v>371.6472037211802</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -30829,7 +31081,7 @@
         <v>-0.2657932798613098</v>
       </c>
       <c r="J37" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K37" t="n">
         <v>155</v>
@@ -30907,7 +31159,7 @@
         <v>-0.1769107694881522</v>
       </c>
       <c r="J38" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K38" t="n">
         <v>152</v>
@@ -30985,7 +31237,7 @@
         <v>-0.4693673773476136</v>
       </c>
       <c r="J39" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K39" t="n">
         <v>155</v>
@@ -31060,28 +31312,28 @@
         <v>0.0354</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.08492433354509818</v>
+        <v>-0.08690001139405741</v>
       </c>
       <c r="J40" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K40" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0008833538764415616</v>
+        <v>0.0009510010770236166</v>
       </c>
       <c r="M40" t="n">
-        <v>17.13378518119681</v>
+        <v>17.06888501244024</v>
       </c>
       <c r="N40" t="n">
-        <v>475.3858230186513</v>
+        <v>471.0372738557901</v>
       </c>
       <c r="O40" t="n">
-        <v>21.8033443081251</v>
+        <v>21.70339314152951</v>
       </c>
       <c r="P40" t="n">
-        <v>400.3730428592142</v>
+        <v>400.3909730179692</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
@@ -31138,28 +31390,28 @@
         <v>0.0391</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.07817108508874698</v>
+        <v>-0.06330645982247063</v>
       </c>
       <c r="J41" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K41" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0008100446563991115</v>
+        <v>0.0005459755325636362</v>
       </c>
       <c r="M41" t="n">
-        <v>17.09638197767589</v>
+        <v>16.97669228174634</v>
       </c>
       <c r="N41" t="n">
-        <v>450.0704303988705</v>
+        <v>445.5393951831067</v>
       </c>
       <c r="O41" t="n">
-        <v>21.2148634310681</v>
+        <v>21.10780412982617</v>
       </c>
       <c r="P41" t="n">
-        <v>403.9049166894097</v>
+        <v>403.7711840637083</v>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
@@ -31216,28 +31468,28 @@
         <v>0.0469</v>
       </c>
       <c r="I42" t="n">
-        <v>0.240564747166173</v>
+        <v>0.2610154647495173</v>
       </c>
       <c r="J42" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K42" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L42" t="n">
-        <v>0.007362224097316461</v>
+        <v>0.008918155267840011</v>
       </c>
       <c r="M42" t="n">
-        <v>16.98449094183707</v>
+        <v>16.84848689123913</v>
       </c>
       <c r="N42" t="n">
-        <v>450.2549774154189</v>
+        <v>445.2689026499564</v>
       </c>
       <c r="O42" t="n">
-        <v>21.21921245983033</v>
+        <v>21.10139575122832</v>
       </c>
       <c r="P42" t="n">
-        <v>404.2314892930754</v>
+        <v>404.0448434376949</v>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
@@ -31288,28 +31540,28 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>0.4671341369083165</v>
+        <v>0.4354444470999504</v>
       </c>
       <c r="J43" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K43" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L43" t="n">
-        <v>0.02562001277702664</v>
+        <v>0.02304957615059267</v>
       </c>
       <c r="M43" t="n">
-        <v>17.35741618686253</v>
+        <v>17.25060631444041</v>
       </c>
       <c r="N43" t="n">
-        <v>486.8565144766301</v>
+        <v>481.1979184893341</v>
       </c>
       <c r="O43" t="n">
-        <v>22.06482527636759</v>
+        <v>21.93622388856692</v>
       </c>
       <c r="P43" t="n">
-        <v>403.4258684375571</v>
+        <v>403.71184316055</v>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
@@ -31347,7 +31599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR206"/>
+  <dimension ref="A1:AR208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70761,7 +71013,11 @@
           <t>-34.46068973156499,172.67124761916756</t>
         </is>
       </c>
-      <c r="P206" t="inlineStr"/>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>-34.46004190253911,172.67171482978716</t>
+        </is>
+      </c>
       <c r="Q206" t="inlineStr">
         <is>
           <t>-34.459377054815455,172.6721255467304</t>
@@ -70832,11 +71088,31 @@
           <t>-34.45038801207757,172.67614028085322</t>
         </is>
       </c>
-      <c r="AE206" t="inlineStr"/>
-      <c r="AF206" t="inlineStr"/>
-      <c r="AG206" t="inlineStr"/>
-      <c r="AH206" t="inlineStr"/>
-      <c r="AI206" t="inlineStr"/>
+      <c r="AE206" t="inlineStr">
+        <is>
+          <t>-34.4496732113963,172.6763881485639</t>
+        </is>
+      </c>
+      <c r="AF206" t="inlineStr">
+        <is>
+          <t>-34.44895499163869,172.67661489652258</t>
+        </is>
+      </c>
+      <c r="AG206" t="inlineStr">
+        <is>
+          <t>-34.44823491993595,172.67683022284058</t>
+        </is>
+      </c>
+      <c r="AH206" t="inlineStr">
+        <is>
+          <t>-34.44750824837058,172.67700474526137</t>
+        </is>
+      </c>
+      <c r="AI206" t="inlineStr">
+        <is>
+          <t>-34.446784363592904,172.67719655271063</t>
+        </is>
+      </c>
       <c r="AJ206" t="inlineStr"/>
       <c r="AK206" t="inlineStr"/>
       <c r="AL206" t="inlineStr"/>
@@ -70851,6 +71127,338 @@
         </is>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>-34.46799915970309,172.66427771972894</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>-34.46763040453056,172.6651168237688</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>-34.46711409626694,172.6657626654985</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>-34.46662554292253,172.66644486619575</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>-34.46606984344643,172.667036224132</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>-34.46557433493989,172.66769471206638</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>-34.46466538314471,172.667861758323</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>-34.464402295283755,172.6688072038046</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>-34.46417385457933,172.669793895188</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>-34.46267299666781,172.6705247251177</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>-34.461845604988774,172.67070056484542</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>-34.46132447614661,172.6710233721179</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>-34.460696867291745,172.67127131430126</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>-34.460023527063534,172.67165381144997</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>-34.45937085096415,172.67210494593073</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>-34.45870170809236,172.67250141937674</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>-34.458027727220106,172.67288184669198</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>-34.457358423846564,172.6732778255129</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>-34.45668193734401,172.67364997082092</t>
+        </is>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>-34.45602409768929,172.6740840550759</t>
+        </is>
+      </c>
+      <c r="W207" t="inlineStr">
+        <is>
+          <t>-34.455306065940626,172.6743182813386</t>
+        </is>
+      </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>-34.45458303228893,172.67453591791585</t>
+        </is>
+      </c>
+      <c r="Y207" t="inlineStr">
+        <is>
+          <t>-34.45387423394549,172.67480084439433</t>
+        </is>
+      </c>
+      <c r="Z207" t="inlineStr">
+        <is>
+          <t>-34.45317774917102,172.67510667892026</t>
+        </is>
+      </c>
+      <c r="AA207" t="inlineStr">
+        <is>
+          <t>-34.45244776591885,172.67530129784214</t>
+        </is>
+      </c>
+      <c r="AB207" t="inlineStr">
+        <is>
+          <t>-34.45175405882002,172.67553406421365</t>
+        </is>
+      </c>
+      <c r="AC207" t="inlineStr">
+        <is>
+          <t>-34.45106463288172,172.67571792878422</t>
+        </is>
+      </c>
+      <c r="AD207" t="inlineStr">
+        <is>
+          <t>-34.45035457775782,172.67593337524778</t>
+        </is>
+      </c>
+      <c r="AE207" t="inlineStr">
+        <is>
+          <t>-34.449655049731014,172.67627575610024</t>
+        </is>
+      </c>
+      <c r="AF207" t="inlineStr">
+        <is>
+          <t>-34.44894925946515,172.67657942319698</t>
+        </is>
+      </c>
+      <c r="AG207" t="inlineStr">
+        <is>
+          <t>-34.448232830818235,172.67681729441549</t>
+        </is>
+      </c>
+      <c r="AH207" t="inlineStr">
+        <is>
+          <t>-34.44752132011556,172.67708563925882</t>
+        </is>
+      </c>
+      <c r="AI207" t="inlineStr">
+        <is>
+          <t>-34.44679434286929,172.67725830895435</t>
+        </is>
+      </c>
+      <c r="AJ207" t="inlineStr">
+        <is>
+          <t>-34.44603674051999,172.67724149709449</t>
+        </is>
+      </c>
+      <c r="AK207" t="inlineStr"/>
+      <c r="AL207" t="inlineStr"/>
+      <c r="AM207" t="inlineStr"/>
+      <c r="AN207" t="inlineStr">
+        <is>
+          <t>-34.443090213061296,172.67762537874128</t>
+        </is>
+      </c>
+      <c r="AO207" t="inlineStr">
+        <is>
+          <t>-34.44236098578509,172.67767027006093</t>
+        </is>
+      </c>
+      <c r="AP207" t="inlineStr">
+        <is>
+          <t>-34.44162005531926,172.67770391796384</t>
+        </is>
+      </c>
+      <c r="AQ207" t="inlineStr">
+        <is>
+          <t>-34.440909491021586,172.67804543318124</t>
+        </is>
+      </c>
+      <c r="AR207" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>-34.46448811741142,172.668909350738</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>-34.46269895619759,172.6692970391111</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>-34.46178234665434,172.6706089773996</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>-34.46135962853868,172.67110683614365</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>-34.460758949242035,172.67147746652145</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>-34.45996714734057,172.6714665954903</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>-34.4593210967733,172.67193973035694</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>-34.45868056114001,172.67243119785837</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>-34.45803674673013,172.67291179734434</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>-34.457335151105774,172.67320054491506</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>-34.456649867907466,172.67354347952906</t>
+        </is>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>-34.4559222203782,172.67374575703818</t>
+        </is>
+      </c>
+      <c r="W208" t="inlineStr">
+        <is>
+          <t>-34.45526000671552,172.67416533538184</t>
+        </is>
+      </c>
+      <c r="X208" t="inlineStr">
+        <is>
+          <t>-34.454598105163,172.67458596936976</t>
+        </is>
+      </c>
+      <c r="Y208" t="inlineStr"/>
+      <c r="Z208" t="inlineStr"/>
+      <c r="AA208" t="inlineStr"/>
+      <c r="AB208" t="inlineStr"/>
+      <c r="AC208" t="inlineStr"/>
+      <c r="AD208" t="inlineStr"/>
+      <c r="AE208" t="inlineStr"/>
+      <c r="AF208" t="inlineStr"/>
+      <c r="AG208" t="inlineStr"/>
+      <c r="AH208" t="inlineStr"/>
+      <c r="AI208" t="inlineStr"/>
+      <c r="AJ208" t="inlineStr"/>
+      <c r="AK208" t="inlineStr"/>
+      <c r="AL208" t="inlineStr"/>
+      <c r="AM208" t="inlineStr"/>
+      <c r="AN208" t="inlineStr">
+        <is>
+          <t>-34.443126233445334,172.67788533865243</t>
+        </is>
+      </c>
+      <c r="AO208" t="inlineStr">
+        <is>
+          <t>-34.442382116457196,172.6778602236735</t>
+        </is>
+      </c>
+      <c r="AP208" t="inlineStr">
+        <is>
+          <t>-34.441633748262426,172.67783217314172</t>
+        </is>
+      </c>
+      <c r="AQ208" t="inlineStr">
+        <is>
+          <t>-34.44090475389566,172.67800106243908</t>
+        </is>
+      </c>
+      <c r="AR208" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0005/nzd0005.xlsx
+++ b/data/nzd0005/nzd0005.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR208"/>
+  <dimension ref="A1:AR210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25951,9 +25951,15 @@
       <c r="AJ207" t="n">
         <v>381.8766666666667</v>
       </c>
-      <c r="AK207" t="inlineStr"/>
-      <c r="AL207" t="inlineStr"/>
-      <c r="AM207" t="inlineStr"/>
+      <c r="AK207" t="n">
+        <v>372.0577777777777</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>370.0866666666667</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>383.9877777777778</v>
+      </c>
       <c r="AN207" t="n">
         <v>409.5466666666667</v>
       </c>
@@ -25978,7 +25984,9 @@
           <t>2025-06-21 22:17:14+00:00</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr"/>
+      <c r="B208" t="n">
+        <v>329.08</v>
+      </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
@@ -25989,9 +25997,7 @@
         <v>336.6533333333333</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>453.1069230769231</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>441.4814285714286</v>
@@ -26062,6 +26068,252 @@
         </is>
       </c>
     </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:17:19+00:00</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="n">
+        <v>432.7466666666666</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>419.8666666666667</v>
+      </c>
+      <c r="R209" t="n">
+        <v>413.0028571428572</v>
+      </c>
+      <c r="S209" t="n">
+        <v>398.8128571428572</v>
+      </c>
+      <c r="T209" t="n">
+        <v>393.5028571428572</v>
+      </c>
+      <c r="U209" t="n">
+        <v>397.2044444444445</v>
+      </c>
+      <c r="V209" t="n">
+        <v>383.6333333333333</v>
+      </c>
+      <c r="W209" t="n">
+        <v>381.0454545454546</v>
+      </c>
+      <c r="X209" t="n">
+        <v>383.2654545454546</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>387.17</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>396.47</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>406.72</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>410.67</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>406.72</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>396.2328571428571</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>392.7344444444445</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>384.74</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>380.97</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>386.5444444444445</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>375.57</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>370.9466666666667</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>390.9044444444445</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>390.5166666666667</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>402.6044444444445</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>412.9966666666666</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>425.1428571428572</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>434.54</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>434.88</v>
+      </c>
+      <c r="AR209" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>368.31</v>
+      </c>
+      <c r="C210" t="n">
+        <v>348.2672727272728</v>
+      </c>
+      <c r="D210" t="n">
+        <v>345.2566666666667</v>
+      </c>
+      <c r="E210" t="n">
+        <v>332.7866666666667</v>
+      </c>
+      <c r="F210" t="n">
+        <v>331.2</v>
+      </c>
+      <c r="G210" t="n">
+        <v>333.8166666666667</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>348.4033333333334</v>
+      </c>
+      <c r="J210" t="n">
+        <v>312.8644444444445</v>
+      </c>
+      <c r="K210" t="n">
+        <v>321.2353846153846</v>
+      </c>
+      <c r="L210" t="n">
+        <v>376.15</v>
+      </c>
+      <c r="M210" t="n">
+        <v>426.7728571428572</v>
+      </c>
+      <c r="N210" t="n">
+        <v>436.71</v>
+      </c>
+      <c r="O210" t="n">
+        <v>436.9028571428572</v>
+      </c>
+      <c r="P210" t="n">
+        <v>428.5433333333333</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>417.8933333333333</v>
+      </c>
+      <c r="R210" t="n">
+        <v>407.2228571428572</v>
+      </c>
+      <c r="S210" t="n">
+        <v>396.5028571428572</v>
+      </c>
+      <c r="T210" t="n">
+        <v>397.6928571428572</v>
+      </c>
+      <c r="U210" t="n">
+        <v>393.5488888888889</v>
+      </c>
+      <c r="V210" t="n">
+        <v>386.6666666666667</v>
+      </c>
+      <c r="W210" t="n">
+        <v>382.7372727272728</v>
+      </c>
+      <c r="X210" t="n">
+        <v>383.5072727272727</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>385.75</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>406.02</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>419.5</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>419.82</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>412.6</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>400.8928571428572</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>389.5688888888889</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>381.16</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>376.7</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>374.3988888888889</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>373.51</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>374.7733333333333</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>379.1588888888889</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>381.5833333333333</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>396.4288888888889</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>414.2533333333333</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>423.6728571428571</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>432.5</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>436.86</v>
+      </c>
+      <c r="AR210" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26073,7 +26325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B210"/>
+  <dimension ref="A1:B212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28181,6 +28433,26 @@
       </c>
       <c r="B210" t="n">
         <v>-1.1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -28354,28 +28626,28 @@
         <v>0.0455</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1042659983536539</v>
+        <v>0.03770834290599218</v>
       </c>
       <c r="J2" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K2" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003245699188297202</v>
+        <v>0.0004045747657555054</v>
       </c>
       <c r="M2" t="n">
-        <v>11.13349663578124</v>
+        <v>11.4230136006187</v>
       </c>
       <c r="N2" t="n">
-        <v>206.7706786848086</v>
+        <v>220.2865016147848</v>
       </c>
       <c r="O2" t="n">
-        <v>14.37952289489497</v>
+        <v>14.84205179935661</v>
       </c>
       <c r="P2" t="n">
-        <v>377.8296903135912</v>
+        <v>378.4326525029156</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28432,28 +28704,28 @@
         <v>0.0679</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4900812353012409</v>
+        <v>0.472420652568997</v>
       </c>
       <c r="J3" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K3" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04635072329503709</v>
+        <v>0.04350752089530185</v>
       </c>
       <c r="M3" t="n">
-        <v>12.79388700570421</v>
+        <v>12.80467078111713</v>
       </c>
       <c r="N3" t="n">
-        <v>306.1228889613955</v>
+        <v>305.8958668794187</v>
       </c>
       <c r="O3" t="n">
-        <v>17.49636787911695</v>
+        <v>17.48987898412733</v>
       </c>
       <c r="P3" t="n">
-        <v>352.0637106608713</v>
+        <v>352.2243351043749</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28510,28 +28782,28 @@
         <v>0.0737</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1775607914920836</v>
+        <v>0.1665543489787247</v>
       </c>
       <c r="J4" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K4" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008943654903769693</v>
+        <v>0.007954631987027727</v>
       </c>
       <c r="M4" t="n">
-        <v>11.5109958414685</v>
+        <v>11.49757242027317</v>
       </c>
       <c r="N4" t="n">
-        <v>215.7797410019335</v>
+        <v>215.1423794220002</v>
       </c>
       <c r="O4" t="n">
-        <v>14.68944318216091</v>
+        <v>14.66773259307655</v>
       </c>
       <c r="P4" t="n">
-        <v>350.9557089205704</v>
+        <v>351.0543096278001</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28588,28 +28860,28 @@
         <v>0.0707</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2343631880786607</v>
+        <v>-0.2516674473661525</v>
       </c>
       <c r="J5" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K5" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01329741534850293</v>
+        <v>0.01539520599614463</v>
       </c>
       <c r="M5" t="n">
-        <v>12.55599772865606</v>
+        <v>12.57553420693574</v>
       </c>
       <c r="N5" t="n">
-        <v>249.8040096063847</v>
+        <v>249.9381415108609</v>
       </c>
       <c r="O5" t="n">
-        <v>15.80518932523064</v>
+        <v>15.80943204264027</v>
       </c>
       <c r="P5" t="n">
-        <v>355.5710414403727</v>
+        <v>355.7267215947442</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28666,28 +28938,28 @@
         <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4635029829721488</v>
+        <v>-0.4835644398340017</v>
       </c>
       <c r="J6" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K6" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03948159151609698</v>
+        <v>0.04309726320043905</v>
       </c>
       <c r="M6" t="n">
-        <v>14.09611983633772</v>
+        <v>14.10629820159654</v>
       </c>
       <c r="N6" t="n">
-        <v>317.0512166568918</v>
+        <v>317.1593501138482</v>
       </c>
       <c r="O6" t="n">
-        <v>17.80593206369416</v>
+        <v>17.80896824956034</v>
       </c>
       <c r="P6" t="n">
-        <v>361.7195171459413</v>
+        <v>361.9014881312198</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28744,28 +29016,28 @@
         <v>0.0697</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.527307951305287</v>
+        <v>-0.5463442379789759</v>
       </c>
       <c r="J7" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K7" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0474389987769861</v>
+        <v>0.05107711126866521</v>
       </c>
       <c r="M7" t="n">
-        <v>14.40362833274984</v>
+        <v>14.4347717851404</v>
       </c>
       <c r="N7" t="n">
-        <v>343.2645153229644</v>
+        <v>343.0673752482691</v>
       </c>
       <c r="O7" t="n">
-        <v>18.52739904365868</v>
+        <v>18.52207804886561</v>
       </c>
       <c r="P7" t="n">
-        <v>365.256551332137</v>
+        <v>365.4318318919665</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28825,7 +29097,7 @@
         <v>0.2352730090464402</v>
       </c>
       <c r="J8" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K8" t="n">
         <v>168</v>
@@ -28900,28 +29172,28 @@
         <v>0.0853</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2401385184806133</v>
+        <v>-0.2476982385412914</v>
       </c>
       <c r="J9" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K9" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03279447349027731</v>
+        <v>0.03511793291175747</v>
       </c>
       <c r="M9" t="n">
-        <v>7.829411530192251</v>
+        <v>7.827601158722735</v>
       </c>
       <c r="N9" t="n">
-        <v>107.9439584396309</v>
+        <v>107.5946162764129</v>
       </c>
       <c r="O9" t="n">
-        <v>10.3896081947122</v>
+        <v>10.37278247513236</v>
       </c>
       <c r="P9" t="n">
-        <v>361.8116676204698</v>
+        <v>361.8806210442156</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28978,28 +29250,28 @@
         <v>0.1077</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3399502685367821</v>
+        <v>-0.344699552042858</v>
       </c>
       <c r="J10" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K10" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03546865431355617</v>
+        <v>0.03684572475908932</v>
       </c>
       <c r="M10" t="n">
-        <v>9.184897289665487</v>
+        <v>9.160992435939631</v>
       </c>
       <c r="N10" t="n">
-        <v>196.5772151883156</v>
+        <v>195.4779616558741</v>
       </c>
       <c r="O10" t="n">
-        <v>14.02059967292111</v>
+        <v>13.98134334232137</v>
       </c>
       <c r="P10" t="n">
-        <v>326.0213668573896</v>
+        <v>326.064756270295</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29050,28 +29322,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.5765323012339537</v>
+        <v>0.3986203817046755</v>
       </c>
       <c r="J11" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K11" t="n">
         <v>133</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02023798138612154</v>
+        <v>0.01078372081314405</v>
       </c>
       <c r="M11" t="n">
-        <v>24.28985476927093</v>
+        <v>23.58572013503734</v>
       </c>
       <c r="N11" t="n">
-        <v>1042.489149521565</v>
+        <v>944.5292037359112</v>
       </c>
       <c r="O11" t="n">
-        <v>32.28760055379719</v>
+        <v>30.73319384209704</v>
       </c>
       <c r="P11" t="n">
-        <v>324.3949178773399</v>
+        <v>325.9355059621496</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29128,28 +29400,28 @@
         <v>0.0512</v>
       </c>
       <c r="I12" t="n">
-        <v>1.218755769619279</v>
+        <v>1.20220535663455</v>
       </c>
       <c r="J12" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K12" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1215204820559397</v>
+        <v>0.1198365682418006</v>
       </c>
       <c r="M12" t="n">
-        <v>20.38560617857243</v>
+        <v>20.35503808657068</v>
       </c>
       <c r="N12" t="n">
-        <v>676.5290314237303</v>
+        <v>673.5632580633139</v>
       </c>
       <c r="O12" t="n">
-        <v>26.01017169154656</v>
+        <v>25.95309727302917</v>
       </c>
       <c r="P12" t="n">
-        <v>359.0026401831637</v>
+        <v>359.1497727557031</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29206,28 +29478,28 @@
         <v>0.0414</v>
       </c>
       <c r="I13" t="n">
-        <v>1.609075873952945</v>
+        <v>1.602285151084236</v>
       </c>
       <c r="J13" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K13" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2504274220771781</v>
+        <v>0.2512184128348218</v>
       </c>
       <c r="M13" t="n">
-        <v>17.16248774047848</v>
+        <v>17.08893850144491</v>
       </c>
       <c r="N13" t="n">
-        <v>492.7108062861989</v>
+        <v>489.8354448497093</v>
       </c>
       <c r="O13" t="n">
-        <v>22.19709004095354</v>
+        <v>22.13222638709692</v>
       </c>
       <c r="P13" t="n">
-        <v>391.0635809909594</v>
+        <v>391.1238494336295</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29284,28 +29556,28 @@
         <v>0.0443</v>
       </c>
       <c r="I14" t="n">
-        <v>1.669719243024428</v>
+        <v>1.658702946750367</v>
       </c>
       <c r="J14" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K14" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2926671252899975</v>
+        <v>0.2920551539326139</v>
       </c>
       <c r="M14" t="n">
-        <v>15.69664144953453</v>
+        <v>15.66683145575801</v>
       </c>
       <c r="N14" t="n">
-        <v>413.7446142052897</v>
+        <v>412.0380151398296</v>
       </c>
       <c r="O14" t="n">
-        <v>20.34071321771411</v>
+        <v>20.29871954434145</v>
       </c>
       <c r="P14" t="n">
-        <v>404.0697768068243</v>
+        <v>404.1707432019369</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29362,28 +29634,28 @@
         <v>0.042</v>
       </c>
       <c r="I15" t="n">
-        <v>2.014775553090011</v>
+        <v>2.002502978470789</v>
       </c>
       <c r="J15" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K15" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3955144707978719</v>
+        <v>0.3948788506008941</v>
       </c>
       <c r="M15" t="n">
-        <v>15.55857042276953</v>
+        <v>15.53337880964504</v>
       </c>
       <c r="N15" t="n">
-        <v>375.9410864361098</v>
+        <v>374.5511965937546</v>
       </c>
       <c r="O15" t="n">
-        <v>19.38920025261769</v>
+        <v>19.35332520766792</v>
       </c>
       <c r="P15" t="n">
-        <v>396.3958701479232</v>
+        <v>396.5110035934791</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29440,28 +29712,28 @@
         <v>0.0328</v>
       </c>
       <c r="I16" t="n">
-        <v>2.094416476730936</v>
+        <v>2.058552424541431</v>
       </c>
       <c r="J16" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K16" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4106063175536678</v>
+        <v>0.4053484352589926</v>
       </c>
       <c r="M16" t="n">
-        <v>16.08477583053779</v>
+        <v>16.1290100431809</v>
       </c>
       <c r="N16" t="n">
-        <v>393.0370245665252</v>
+        <v>392.0828040592514</v>
       </c>
       <c r="O16" t="n">
-        <v>19.8251614007686</v>
+        <v>19.80108088108453</v>
       </c>
       <c r="P16" t="n">
-        <v>394.2077511425014</v>
+        <v>394.5406388099765</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29518,28 +29790,28 @@
         <v>0.0325</v>
       </c>
       <c r="I17" t="n">
-        <v>1.910375466173202</v>
+        <v>1.863033187275069</v>
       </c>
       <c r="J17" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K17" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3518537684548152</v>
+        <v>0.3421471777312515</v>
       </c>
       <c r="M17" t="n">
-        <v>16.22655577917281</v>
+        <v>16.32044702095775</v>
       </c>
       <c r="N17" t="n">
-        <v>424.072126591541</v>
+        <v>425.3865365952836</v>
       </c>
       <c r="O17" t="n">
-        <v>20.59301159596481</v>
+        <v>20.62490088692025</v>
       </c>
       <c r="P17" t="n">
-        <v>392.8896848529791</v>
+        <v>393.324700031081</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29596,28 +29868,28 @@
         <v>0.0387</v>
       </c>
       <c r="I18" t="n">
-        <v>1.733376785178114</v>
+        <v>1.687895278864347</v>
       </c>
       <c r="J18" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K18" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2709805175013487</v>
+        <v>0.2627770050039985</v>
       </c>
       <c r="M18" t="n">
-        <v>17.68270295024804</v>
+        <v>17.72488729847094</v>
       </c>
       <c r="N18" t="n">
-        <v>497.3427179378644</v>
+        <v>497.5052539215172</v>
       </c>
       <c r="O18" t="n">
-        <v>22.30118198521918</v>
+        <v>22.30482579895026</v>
       </c>
       <c r="P18" t="n">
-        <v>388.0197328987179</v>
+        <v>388.4369833821208</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29674,28 +29946,28 @@
         <v>0.0375</v>
       </c>
       <c r="I19" t="n">
-        <v>1.423292216463746</v>
+        <v>1.369629809134722</v>
       </c>
       <c r="J19" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K19" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1877690575441495</v>
+        <v>0.1774403928953326</v>
       </c>
       <c r="M19" t="n">
-        <v>18.64943519519243</v>
+        <v>18.73390210592702</v>
       </c>
       <c r="N19" t="n">
-        <v>525.6462989558549</v>
+        <v>527.6908608177517</v>
       </c>
       <c r="O19" t="n">
-        <v>22.92697753642758</v>
+        <v>22.97152282322075</v>
       </c>
       <c r="P19" t="n">
-        <v>387.9358167473113</v>
+        <v>388.4375316477888</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29752,28 +30024,28 @@
         <v>0.0417</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8989242523390296</v>
+        <v>0.8580393927846742</v>
       </c>
       <c r="J20" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K20" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L20" t="n">
-        <v>0.08100204827717616</v>
+        <v>0.07529962518264377</v>
       </c>
       <c r="M20" t="n">
-        <v>19.20608211237127</v>
+        <v>19.20344745144091</v>
       </c>
       <c r="N20" t="n">
-        <v>547.7653414259887</v>
+        <v>546.4132335558496</v>
       </c>
       <c r="O20" t="n">
-        <v>23.40438722603069</v>
+        <v>23.37548360047017</v>
       </c>
       <c r="P20" t="n">
-        <v>393.0844096257911</v>
+        <v>393.4681047470127</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29830,28 +30102,28 @@
         <v>0.0577</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4433307848246335</v>
+        <v>0.4247158097282496</v>
       </c>
       <c r="J21" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K21" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02293907916145177</v>
+        <v>0.02151510098324794</v>
       </c>
       <c r="M21" t="n">
-        <v>17.88559095603599</v>
+        <v>17.79096134525973</v>
       </c>
       <c r="N21" t="n">
-        <v>508.4418117373732</v>
+        <v>503.9289965657495</v>
       </c>
       <c r="O21" t="n">
-        <v>22.54865432209588</v>
+        <v>22.44836289277571</v>
       </c>
       <c r="P21" t="n">
-        <v>393.4067714659515</v>
+        <v>393.5794148186523</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29908,28 +30180,28 @@
         <v>0.0745</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07246809312453432</v>
+        <v>0.05300600796999057</v>
       </c>
       <c r="J22" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K22" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0008039941413315876</v>
+        <v>0.0004390128894833367</v>
       </c>
       <c r="M22" t="n">
-        <v>15.91876988277224</v>
+        <v>15.86069840387295</v>
       </c>
       <c r="N22" t="n">
-        <v>394.8853865156042</v>
+        <v>391.6052493574424</v>
       </c>
       <c r="O22" t="n">
-        <v>19.8717232900321</v>
+        <v>19.78901840308009</v>
       </c>
       <c r="P22" t="n">
-        <v>393.0510331049506</v>
+        <v>393.2314164612335</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -29986,28 +30258,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.09192329482447897</v>
+        <v>-0.1101377223680848</v>
       </c>
       <c r="J23" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K23" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001494389152995268</v>
+        <v>0.002186670196347773</v>
       </c>
       <c r="M23" t="n">
-        <v>14.3969776212645</v>
+        <v>14.34554893459112</v>
       </c>
       <c r="N23" t="n">
-        <v>342.4213074111859</v>
+        <v>339.643372088705</v>
       </c>
       <c r="O23" t="n">
-        <v>18.50462935081883</v>
+        <v>18.42941594540383</v>
       </c>
       <c r="P23" t="n">
-        <v>393.5561940205525</v>
+        <v>393.7243509728017</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30064,28 +30336,28 @@
         <v>0.0668</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1854160735276243</v>
+        <v>-0.1959329537891227</v>
       </c>
       <c r="J24" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K24" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L24" t="n">
-        <v>0.006569529838355015</v>
+        <v>0.007490044298608667</v>
       </c>
       <c r="M24" t="n">
-        <v>13.70383710856916</v>
+        <v>13.61628021241412</v>
       </c>
       <c r="N24" t="n">
-        <v>312.5115736035266</v>
+        <v>309.5329282690902</v>
       </c>
       <c r="O24" t="n">
-        <v>17.6779968775743</v>
+        <v>17.5935479159006</v>
       </c>
       <c r="P24" t="n">
-        <v>393.5741312786465</v>
+        <v>393.6708705487205</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30142,28 +30414,28 @@
         <v>0.0546</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1800110306436465</v>
+        <v>-0.1859541837387796</v>
       </c>
       <c r="J25" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K25" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L25" t="n">
-        <v>0.006464929273194975</v>
+        <v>0.007052856566375665</v>
       </c>
       <c r="M25" t="n">
-        <v>13.59419809929299</v>
+        <v>13.48570436814012</v>
       </c>
       <c r="N25" t="n">
-        <v>299.5338276424784</v>
+        <v>296.4279492981841</v>
       </c>
       <c r="O25" t="n">
-        <v>17.30704560699134</v>
+        <v>17.21708306590243</v>
       </c>
       <c r="P25" t="n">
-        <v>394.112966235677</v>
+        <v>394.1677417923316</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30220,28 +30492,28 @@
         <v>0.055</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2175309357040436</v>
+        <v>-0.1976199510827476</v>
       </c>
       <c r="J26" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K26" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L26" t="n">
-        <v>0.009132797401258941</v>
+        <v>0.00769052407418136</v>
       </c>
       <c r="M26" t="n">
-        <v>14.21216805180472</v>
+        <v>14.14655439953535</v>
       </c>
       <c r="N26" t="n">
-        <v>307.584443377476</v>
+        <v>305.657405815536</v>
       </c>
       <c r="O26" t="n">
-        <v>17.53808551061022</v>
+        <v>17.48306053914863</v>
       </c>
       <c r="P26" t="n">
-        <v>396.7263777565485</v>
+        <v>396.5433701149948</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30298,28 +30570,28 @@
         <v>0.047</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0630563339063384</v>
+        <v>0.0945459448322499</v>
       </c>
       <c r="J27" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K27" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0007891783338863645</v>
+        <v>0.001794598783057433</v>
       </c>
       <c r="M27" t="n">
-        <v>14.35006302216694</v>
+        <v>14.32773296917731</v>
       </c>
       <c r="N27" t="n">
-        <v>307.4376626637142</v>
+        <v>307.2120298558443</v>
       </c>
       <c r="O27" t="n">
-        <v>17.53390038364865</v>
+        <v>17.52746501510827</v>
       </c>
       <c r="P27" t="n">
-        <v>395.530444052079</v>
+        <v>395.2410538548655</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30376,28 +30648,28 @@
         <v>0.0461</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3040713523010732</v>
+        <v>0.3305525071399062</v>
       </c>
       <c r="J28" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K28" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01755912210600696</v>
+        <v>0.0210099237161927</v>
       </c>
       <c r="M28" t="n">
-        <v>14.23332370190241</v>
+        <v>14.18895012528617</v>
       </c>
       <c r="N28" t="n">
-        <v>316.9850954621559</v>
+        <v>315.6418192154851</v>
       </c>
       <c r="O28" t="n">
-        <v>17.80407524872201</v>
+        <v>17.76631135648267</v>
       </c>
       <c r="P28" t="n">
-        <v>393.9818324547783</v>
+        <v>393.738963520598</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30454,28 +30726,28 @@
         <v>0.0462</v>
       </c>
       <c r="I29" t="n">
-        <v>0.552225094844719</v>
+        <v>0.5741645850189369</v>
       </c>
       <c r="J29" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K29" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L29" t="n">
-        <v>0.05464348648399731</v>
+        <v>0.05984178153946662</v>
       </c>
       <c r="M29" t="n">
-        <v>14.51606622434847</v>
+        <v>14.46021605299357</v>
       </c>
       <c r="N29" t="n">
-        <v>325.59481739206</v>
+        <v>323.3544246748898</v>
       </c>
       <c r="O29" t="n">
-        <v>18.04424610206977</v>
+        <v>17.9820584103959</v>
       </c>
       <c r="P29" t="n">
-        <v>384.3720548884883</v>
+        <v>384.1710956388348</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -30532,28 +30804,28 @@
         <v>0.0414</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6210338992692106</v>
+        <v>0.633117760301271</v>
       </c>
       <c r="J30" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K30" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05696738227782971</v>
+        <v>0.0603638997317123</v>
       </c>
       <c r="M30" t="n">
-        <v>15.82100028815214</v>
+        <v>15.7031330359119</v>
       </c>
       <c r="N30" t="n">
-        <v>385.4104783482345</v>
+        <v>381.6226799662687</v>
       </c>
       <c r="O30" t="n">
-        <v>19.63187404065731</v>
+        <v>19.53516521471648</v>
       </c>
       <c r="P30" t="n">
-        <v>376.5842013219266</v>
+        <v>376.4741405524559</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -30610,28 +30882,28 @@
         <v>0.0501</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4438108230040256</v>
+        <v>0.4596246536149701</v>
       </c>
       <c r="J31" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K31" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02698068922901975</v>
+        <v>0.0295147919111548</v>
       </c>
       <c r="M31" t="n">
-        <v>16.09931121119656</v>
+        <v>16.0073058650062</v>
       </c>
       <c r="N31" t="n">
-        <v>425.9110648168065</v>
+        <v>421.9374223713605</v>
       </c>
       <c r="O31" t="n">
-        <v>20.63761286624029</v>
+        <v>20.54111541205493</v>
       </c>
       <c r="P31" t="n">
-        <v>371.9159307691469</v>
+        <v>371.7709846496537</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -30688,28 +30960,28 @@
         <v>0.0608</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3263750084564975</v>
+        <v>0.3360916441952312</v>
       </c>
       <c r="J32" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K32" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01349331134387355</v>
+        <v>0.01465019864151484</v>
       </c>
       <c r="M32" t="n">
-        <v>16.39346943046691</v>
+        <v>16.25232917356588</v>
       </c>
       <c r="N32" t="n">
-        <v>467.7950259879215</v>
+        <v>462.6797220405733</v>
       </c>
       <c r="O32" t="n">
-        <v>21.62856967041329</v>
+        <v>21.50999121433045</v>
       </c>
       <c r="P32" t="n">
-        <v>369.9913995831158</v>
+        <v>369.9025778674991</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -30766,28 +31038,28 @@
         <v>0.0452</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3187957546625423</v>
+        <v>0.3168064799652121</v>
       </c>
       <c r="J33" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K33" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01763237775786808</v>
+        <v>0.01786440986088644</v>
       </c>
       <c r="M33" t="n">
-        <v>14.89722461408764</v>
+        <v>14.73474530232699</v>
       </c>
       <c r="N33" t="n">
-        <v>352.6378455831429</v>
+        <v>348.2134702182668</v>
       </c>
       <c r="O33" t="n">
-        <v>18.77865398752378</v>
+        <v>18.66047883143053</v>
       </c>
       <c r="P33" t="n">
-        <v>371.4496896139149</v>
+        <v>371.4677900635947</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -30844,28 +31116,28 @@
         <v>0.0518</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1737827876660564</v>
+        <v>0.1930271474491408</v>
       </c>
       <c r="J34" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K34" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L34" t="n">
-        <v>0.003528006104112857</v>
+        <v>0.004440431971549641</v>
       </c>
       <c r="M34" t="n">
-        <v>18.07756822390329</v>
+        <v>17.97551900581851</v>
       </c>
       <c r="N34" t="n">
-        <v>521.7221441902414</v>
+        <v>517.3004613869689</v>
       </c>
       <c r="O34" t="n">
-        <v>22.84123779899507</v>
+        <v>22.74424018047138</v>
       </c>
       <c r="P34" t="n">
-        <v>366.4867511216967</v>
+        <v>366.3114130023195</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -30922,28 +31194,28 @@
         <v>0.0461</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2017808602138759</v>
+        <v>-0.1872940582752035</v>
       </c>
       <c r="J35" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K35" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0041385497247165</v>
+        <v>0.003652707176489578</v>
       </c>
       <c r="M35" t="n">
-        <v>19.03632155068407</v>
+        <v>18.89433774238057</v>
       </c>
       <c r="N35" t="n">
-        <v>589.6914034110379</v>
+        <v>583.6664724013444</v>
       </c>
       <c r="O35" t="n">
-        <v>24.28356241186696</v>
+        <v>24.15919022652341</v>
       </c>
       <c r="P35" t="n">
-        <v>372.8342154644342</v>
+        <v>372.7020965950491</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -31000,28 +31272,28 @@
         <v>0.0367</v>
       </c>
       <c r="I36" t="n">
-        <v>0.324324892485821</v>
+        <v>0.308410065997558</v>
       </c>
       <c r="J36" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K36" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01306215740239003</v>
+        <v>0.0121280095038212</v>
       </c>
       <c r="M36" t="n">
-        <v>17.88345382728088</v>
+        <v>17.75675431931889</v>
       </c>
       <c r="N36" t="n">
-        <v>482.0422963032066</v>
+        <v>477.0868283430807</v>
       </c>
       <c r="O36" t="n">
-        <v>21.95546165087873</v>
+        <v>21.84231737575207</v>
       </c>
       <c r="P36" t="n">
-        <v>371.6472037211802</v>
+        <v>371.7887330750707</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -31078,28 +31350,28 @@
         <v>0.05</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.2657932798613098</v>
+        <v>-0.2385965707897599</v>
       </c>
       <c r="J37" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K37" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L37" t="n">
-        <v>0.007884360155924863</v>
+        <v>0.006629958843865524</v>
       </c>
       <c r="M37" t="n">
-        <v>18.44811133325308</v>
+        <v>18.24228130537271</v>
       </c>
       <c r="N37" t="n">
-        <v>537.7145977163904</v>
+        <v>529.6387186478248</v>
       </c>
       <c r="O37" t="n">
-        <v>23.18867391026038</v>
+        <v>23.01388099925401</v>
       </c>
       <c r="P37" t="n">
-        <v>380.1452492275784</v>
+        <v>379.9071006183822</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -31156,28 +31428,28 @@
         <v>0.0346</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.1769107694881522</v>
+        <v>-0.158106909200675</v>
       </c>
       <c r="J38" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K38" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L38" t="n">
-        <v>0.002587081869030783</v>
+        <v>0.002161695720725776</v>
       </c>
       <c r="M38" t="n">
-        <v>21.59206956530275</v>
+        <v>21.33303724489359</v>
       </c>
       <c r="N38" t="n">
-        <v>713.9188734960304</v>
+        <v>701.8969409896717</v>
       </c>
       <c r="O38" t="n">
-        <v>26.7192603470985</v>
+        <v>26.49333767175574</v>
       </c>
       <c r="P38" t="n">
-        <v>380.3728728490951</v>
+        <v>380.2059560409746</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -31234,28 +31506,28 @@
         <v>0.0591</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.4693673773476136</v>
+        <v>-0.4228866210805459</v>
       </c>
       <c r="J39" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K39" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02178589957672883</v>
+        <v>0.01846706705603962</v>
       </c>
       <c r="M39" t="n">
-        <v>18.87025042938806</v>
+        <v>18.71467707968594</v>
       </c>
       <c r="N39" t="n">
-        <v>567.0540008944564</v>
+        <v>560.0827099146215</v>
       </c>
       <c r="O39" t="n">
-        <v>23.81289568478509</v>
+        <v>23.66606663378225</v>
       </c>
       <c r="P39" t="n">
-        <v>394.2715904308565</v>
+        <v>393.8483747545475</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -31312,28 +31584,28 @@
         <v>0.0354</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.08690001139405741</v>
+        <v>-0.04761323029060795</v>
       </c>
       <c r="J40" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K40" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0009510010770236166</v>
+        <v>0.0002926673846066485</v>
       </c>
       <c r="M40" t="n">
-        <v>17.06888501244024</v>
+        <v>17.00604237155564</v>
       </c>
       <c r="N40" t="n">
-        <v>471.0372738557901</v>
+        <v>467.8856114530446</v>
       </c>
       <c r="O40" t="n">
-        <v>21.70339314152951</v>
+        <v>21.63066368498767</v>
       </c>
       <c r="P40" t="n">
-        <v>400.3909730179692</v>
+        <v>400.0360955494612</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
@@ -31390,28 +31662,28 @@
         <v>0.0391</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.06330645982247063</v>
+        <v>-0.008609460672149225</v>
       </c>
       <c r="J41" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K41" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0005459755325636362</v>
+        <v>1.025509067087427e-05</v>
       </c>
       <c r="M41" t="n">
-        <v>16.97669228174634</v>
+        <v>17.00121839705003</v>
       </c>
       <c r="N41" t="n">
-        <v>445.5393951831067</v>
+        <v>445.9434154175261</v>
       </c>
       <c r="O41" t="n">
-        <v>21.10780412982617</v>
+        <v>21.11737236063062</v>
       </c>
       <c r="P41" t="n">
-        <v>403.7711840637083</v>
+        <v>403.2768187073732</v>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
@@ -31468,28 +31740,28 @@
         <v>0.0469</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2610154647495173</v>
+        <v>0.3207750288704898</v>
       </c>
       <c r="J42" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K42" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L42" t="n">
-        <v>0.008918155267840011</v>
+        <v>0.01362397248931746</v>
       </c>
       <c r="M42" t="n">
-        <v>16.84848689123913</v>
+        <v>16.90048615787445</v>
       </c>
       <c r="N42" t="n">
-        <v>445.2689026499564</v>
+        <v>445.9340320401529</v>
       </c>
       <c r="O42" t="n">
-        <v>21.10139575122832</v>
+        <v>21.11715018746973</v>
       </c>
       <c r="P42" t="n">
-        <v>404.0448434376949</v>
+        <v>403.4972736729798</v>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
@@ -31540,28 +31812,28 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>0.4354444470999504</v>
+        <v>0.4946141674856722</v>
       </c>
       <c r="J43" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K43" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L43" t="n">
-        <v>0.02304957615059267</v>
+        <v>0.03014654392492466</v>
       </c>
       <c r="M43" t="n">
-        <v>17.25060631444041</v>
+        <v>17.30591652563302</v>
       </c>
       <c r="N43" t="n">
-        <v>481.1979184893341</v>
+        <v>480.2236918865509</v>
       </c>
       <c r="O43" t="n">
-        <v>21.93622388856692</v>
+        <v>21.9140067510839</v>
       </c>
       <c r="P43" t="n">
-        <v>403.71184316055</v>
+        <v>403.1758245391788</v>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
@@ -31599,7 +31871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR208"/>
+  <dimension ref="A1:AR210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71304,9 +71576,21 @@
           <t>-34.44603674051999,172.67724149709449</t>
         </is>
       </c>
-      <c r="AK207" t="inlineStr"/>
-      <c r="AL207" t="inlineStr"/>
-      <c r="AM207" t="inlineStr"/>
+      <c r="AK207" t="inlineStr">
+        <is>
+          <t>-34.44532634443421,172.6775168561775</t>
+        </is>
+      </c>
+      <c r="AL207" t="inlineStr">
+        <is>
+          <t>-34.4446023926389,172.6777083662954</t>
+        </is>
+      </c>
+      <c r="AM207" t="inlineStr">
+        <is>
+          <t>-34.44385103127856,172.67773029554144</t>
+        </is>
+      </c>
       <c r="AN207" t="inlineStr">
         <is>
           <t>-34.443090213061296,172.67762537874128</t>
@@ -71339,7 +71623,11 @@
           <t>2025-06-21 22:17:14+00:00</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr"/>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>-34.468286926912995,172.66465464226866</t>
+        </is>
+      </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
@@ -71352,11 +71640,7 @@
         </is>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>-34.46269895619759,172.6692970391111</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
       <c r="M208" t="inlineStr">
         <is>
@@ -71459,6 +71743,390 @@
         </is>
       </c>
     </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:17:19+00:00</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>-34.460024790442645,172.67165800667297</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>-34.45936798527671,172.67209542999944</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>-34.45869263568496,172.67247129311315</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>-34.45803985447566,172.67292211709238</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>-34.45735970479229,172.67328207908974</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>-34.456651781736795,172.67354983467058</t>
+        </is>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>-34.45599707497494,172.67399432194372</t>
+        </is>
+      </c>
+      <c r="W209" t="inlineStr">
+        <is>
+          <t>-34.45530851973818,172.67432642953153</t>
+        </is>
+      </c>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t>-34.45460514439268,172.67460934408393</t>
+        </is>
+      </c>
+      <c r="Y209" t="inlineStr">
+        <is>
+          <t>-34.45389657284502,172.67487502340316</t>
+        </is>
+      </c>
+      <c r="Z209" t="inlineStr">
+        <is>
+          <t>-34.4531713710561,172.67508549970157</t>
+        </is>
+      </c>
+      <c r="AA209" t="inlineStr">
+        <is>
+          <t>-34.452443236543985,172.6752862576528</t>
+        </is>
+      </c>
+      <c r="AB209" t="inlineStr">
+        <is>
+          <t>-34.4517562750939,172.67554292251006</t>
+        </is>
+      </c>
+      <c r="AC209" t="inlineStr">
+        <is>
+          <t>-34.45107676503985,172.67578493106802</t>
+        </is>
+      </c>
+      <c r="AD209" t="inlineStr">
+        <is>
+          <t>-34.450375911138735,172.67606539489506</t>
+        </is>
+      </c>
+      <c r="AE209" t="inlineStr">
+        <is>
+          <t>-34.44965464110674,172.67627322735942</t>
+        </is>
+      </c>
+      <c r="AF209" t="inlineStr">
+        <is>
+          <t>-34.448941127357955,172.67652909809595</t>
+        </is>
+      </c>
+      <c r="AG209" t="inlineStr">
+        <is>
+          <t>-34.44822031334888,172.67673983072504</t>
+        </is>
+      </c>
+      <c r="AH209" t="inlineStr">
+        <is>
+          <t>-34.447483359344275,172.67685072145156</t>
+        </is>
+      </c>
+      <c r="AI209" t="inlineStr">
+        <is>
+          <t>-34.44677497130433,172.67713842920077</t>
+        </is>
+      </c>
+      <c r="AJ209" t="inlineStr">
+        <is>
+          <t>-34.446055611352044,172.67735827733526</t>
+        </is>
+      </c>
+      <c r="AK209" t="inlineStr">
+        <is>
+          <t>-34.445293805438055,172.6773154930264</t>
+        </is>
+      </c>
+      <c r="AL209" t="inlineStr">
+        <is>
+          <t>-34.44456712022221,172.67749008819058</t>
+        </is>
+      </c>
+      <c r="AM209" t="inlineStr">
+        <is>
+          <t>-34.443818889541554,172.67753139322932</t>
+        </is>
+      </c>
+      <c r="AN209" t="inlineStr">
+        <is>
+          <t>-34.44308508070673,172.67758833876695</t>
+        </is>
+      </c>
+      <c r="AO209" t="inlineStr">
+        <is>
+          <t>-34.44235065950849,172.67757744327236</t>
+        </is>
+      </c>
+      <c r="AP209" t="inlineStr">
+        <is>
+          <t>-34.44160775691322,172.67758872584997</t>
+        </is>
+      </c>
+      <c r="AQ209" t="inlineStr">
+        <is>
+          <t>-34.44087242344645,172.67769824035784</t>
+        </is>
+      </c>
+      <c r="AR209" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>-34.46804714135972,172.6643405666591</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>-34.4676244422842,172.66510901429515</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>-34.467097633946565,172.66574110276355</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>-34.466628639779,172.66644892254672</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>-34.46609445424781,172.66706806641633</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>-34.46554415872854,172.66765749489286</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>-34.46441265645311,172.66881953582535</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>-34.46412025802127,172.66973010303994</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>-34.463545858960074,172.67030503083117</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>-34.46267254711736,172.67052419005606</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>-34.4618672961379,172.6707319700416</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>-34.461333019000605,172.6710436558107</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>-34.46070847109181,172.67130984631024</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>-34.460037742638136,172.67170101624285</t>
+        </is>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>-34.45937406587428,172.6721156215103</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>-34.458710445945,172.67253043473144</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>-34.458046972354154,172.6729457531187</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>-34.457346794085076,172.67323920713423</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>-34.456663045591476,172.67358723792444</t>
+        </is>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>-34.45598772844882,172.67396328541213</t>
+        </is>
+      </c>
+      <c r="W210" t="inlineStr">
+        <is>
+          <t>-34.4553033068183,172.67430911927295</t>
+        </is>
+      </c>
+      <c r="X210" t="inlineStr">
+        <is>
+          <t>-34.454604399293366,172.67460686988002</t>
+        </is>
+      </c>
+      <c r="Y210" t="inlineStr">
+        <is>
+          <t>-34.453900948182834,172.67488955226196</t>
+        </is>
+      </c>
+      <c r="Z210" t="inlineStr">
+        <is>
+          <t>-34.45314194540613,172.6749877888555</t>
+        </is>
+      </c>
+      <c r="AA210" t="inlineStr">
+        <is>
+          <t>-34.452403858635826,172.67515550015727</t>
+        </is>
+      </c>
+      <c r="AB210" t="inlineStr">
+        <is>
+          <t>-34.4517324175239,172.67544756557928</t>
+        </is>
+      </c>
+      <c r="AC210" t="inlineStr">
+        <is>
+          <t>-34.4510654416934,172.67572239560252</t>
+        </is>
+      </c>
+      <c r="AD210" t="inlineStr">
+        <is>
+          <t>-34.4503678651977,172.67601560322447</t>
+        </is>
+      </c>
+      <c r="AE210" t="inlineStr">
+        <is>
+          <t>-34.449660106691795,172.67630705075402</t>
+        </is>
+      </c>
+      <c r="AF210" t="inlineStr">
+        <is>
+          <t>-34.44894730845194,172.67656734944572</t>
+        </is>
+      </c>
+      <c r="AG210" t="inlineStr">
+        <is>
+          <t>-34.448227685712624,172.6767854541647</t>
+        </is>
+      </c>
+      <c r="AH210" t="inlineStr">
+        <is>
+          <t>-34.44750432913873,172.6769804913132</t>
+        </is>
+      </c>
+      <c r="AI210" t="inlineStr">
+        <is>
+          <t>-34.44677852794625,172.67716043920475</t>
+        </is>
+      </c>
+      <c r="AJ210" t="inlineStr">
+        <is>
+          <t>-34.44604900455922,172.6773173917798</t>
+        </is>
+      </c>
+      <c r="AK210" t="inlineStr">
+        <is>
+          <t>-34.445314084319506,172.67744098586653</t>
+        </is>
+      </c>
+      <c r="AL210" t="inlineStr">
+        <is>
+          <t>-34.44458254367954,172.6775855336434</t>
+        </is>
+      </c>
+      <c r="AM210" t="inlineStr">
+        <is>
+          <t>-34.443829551694584,172.6775973734599</t>
+        </is>
+      </c>
+      <c r="AN210" t="inlineStr">
+        <is>
+          <t>-34.44308321123759,172.6775748469127</t>
+        </is>
+      </c>
+      <c r="AO210" t="inlineStr">
+        <is>
+          <t>-34.44235242370716,172.6775933022721</t>
+        </is>
+      </c>
+      <c r="AP210" t="inlineStr">
+        <is>
+          <t>-34.44161010825695,172.6776107494567</t>
+        </is>
+      </c>
+      <c r="AQ210" t="inlineStr">
+        <is>
+          <t>-34.440870141268796,172.67767686469057</t>
+        </is>
+      </c>
+      <c r="AR210" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0005/nzd0005.xlsx
+++ b/data/nzd0005/nzd0005.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR210"/>
+  <dimension ref="A1:AR212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26314,6 +26314,282 @@
         </is>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>355.79</v>
+      </c>
+      <c r="C211" t="n">
+        <v>342.4618181818182</v>
+      </c>
+      <c r="D211" t="n">
+        <v>329.98</v>
+      </c>
+      <c r="E211" t="n">
+        <v>317.39</v>
+      </c>
+      <c r="F211" t="n">
+        <v>310.41</v>
+      </c>
+      <c r="G211" t="n">
+        <v>319.78</v>
+      </c>
+      <c r="H211" t="n">
+        <v>378.54</v>
+      </c>
+      <c r="I211" t="n">
+        <v>337.78</v>
+      </c>
+      <c r="J211" t="n">
+        <v>308.0966666666667</v>
+      </c>
+      <c r="K211" t="n">
+        <v>318.1392307692308</v>
+      </c>
+      <c r="L211" t="n">
+        <v>355.97</v>
+      </c>
+      <c r="M211" t="n">
+        <v>401.15</v>
+      </c>
+      <c r="N211" t="n">
+        <v>425.63</v>
+      </c>
+      <c r="O211" t="n">
+        <v>420.66</v>
+      </c>
+      <c r="P211" t="n">
+        <v>415.08</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>404.03</v>
+      </c>
+      <c r="R211" t="n">
+        <v>388.21</v>
+      </c>
+      <c r="S211" t="n">
+        <v>385.15</v>
+      </c>
+      <c r="T211" t="n">
+        <v>383.92</v>
+      </c>
+      <c r="U211" t="n">
+        <v>381.2933333333333</v>
+      </c>
+      <c r="V211" t="n">
+        <v>374.42</v>
+      </c>
+      <c r="W211" t="n">
+        <v>355.5518181818182</v>
+      </c>
+      <c r="X211" t="n">
+        <v>362.1018181818182</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>377.87</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>382.05</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>398.07</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>406</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>399.33</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>386.33</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>378.2233333333333</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>370.91</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>358.86</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>355.5933333333333</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>359.7</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>361.14</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>364.9733333333333</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>352.82</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>381.1033333333333</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>400.29</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>412.91</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>421.21</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>419.36</v>
+      </c>
+      <c r="AR211" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>367.68</v>
+      </c>
+      <c r="C212" t="n">
+        <v>345.2718181818182</v>
+      </c>
+      <c r="D212" t="n">
+        <v>334.3166666666667</v>
+      </c>
+      <c r="E212" t="n">
+        <v>326.2566666666667</v>
+      </c>
+      <c r="F212" t="n">
+        <v>324.47</v>
+      </c>
+      <c r="G212" t="n">
+        <v>325.1266666666667</v>
+      </c>
+      <c r="H212" t="n">
+        <v>392.4542857142857</v>
+      </c>
+      <c r="I212" t="n">
+        <v>346.0533333333333</v>
+      </c>
+      <c r="J212" t="n">
+        <v>312.6477777777778</v>
+      </c>
+      <c r="K212" t="n">
+        <v>305.5007692307692</v>
+      </c>
+      <c r="L212" t="n">
+        <v>361.25</v>
+      </c>
+      <c r="M212" t="n">
+        <v>404.5242857142857</v>
+      </c>
+      <c r="N212" t="n">
+        <v>431.05</v>
+      </c>
+      <c r="O212" t="n">
+        <v>429.5942857142857</v>
+      </c>
+      <c r="P212" t="n">
+        <v>423.4733333333333</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>413.1333333333333</v>
+      </c>
+      <c r="R212" t="n">
+        <v>400.5542857142857</v>
+      </c>
+      <c r="S212" t="n">
+        <v>396.4742857142857</v>
+      </c>
+      <c r="T212" t="n">
+        <v>399.3342857142857</v>
+      </c>
+      <c r="U212" t="n">
+        <v>391.3955555555555</v>
+      </c>
+      <c r="V212" t="n">
+        <v>379.0366666666667</v>
+      </c>
+      <c r="W212" t="n">
+        <v>365.9718181818182</v>
+      </c>
+      <c r="X212" t="n">
+        <v>364.6118181818182</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>378.06</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>391.33</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>404.32</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>409.46</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>403.82</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>394.3842857142857</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>382.5255555555556</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>370.64</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>365.79</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>359.6955555555556</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>350.16</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>359.2133333333333</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>358.8255555555555</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>347.0133333333333</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>370.8655555555556</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>390.0233333333333</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>401.3342857142857</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>409.67</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>395.08</v>
+      </c>
+      <c r="AR212" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26325,7 +26601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B212"/>
+  <dimension ref="A1:B214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28453,6 +28729,26 @@
       </c>
       <c r="B212" t="n">
         <v>0.04</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -28626,28 +28922,28 @@
         <v>0.0455</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03770834290599218</v>
+        <v>0.00170144866526663</v>
       </c>
       <c r="J2" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K2" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004045747657555054</v>
+        <v>8.286309017835336e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>11.4230136006187</v>
+        <v>11.52545309617549</v>
       </c>
       <c r="N2" t="n">
-        <v>220.2865016147848</v>
+        <v>221.63671125611</v>
       </c>
       <c r="O2" t="n">
-        <v>14.84205179935661</v>
+        <v>14.88746826213611</v>
       </c>
       <c r="P2" t="n">
-        <v>378.4326525029156</v>
+        <v>378.7606259705631</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28704,28 +29000,28 @@
         <v>0.0679</v>
       </c>
       <c r="I3" t="n">
-        <v>0.472420652568997</v>
+        <v>0.4297060762257707</v>
       </c>
       <c r="J3" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K3" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04350752089530185</v>
+        <v>0.03655219524349651</v>
       </c>
       <c r="M3" t="n">
-        <v>12.80467078111713</v>
+        <v>12.8620034910869</v>
       </c>
       <c r="N3" t="n">
-        <v>305.8958668794187</v>
+        <v>307.1351317382649</v>
       </c>
       <c r="O3" t="n">
-        <v>17.48987898412733</v>
+        <v>17.52527123151778</v>
       </c>
       <c r="P3" t="n">
-        <v>352.2243351043749</v>
+        <v>352.6134901809137</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28782,28 +29078,28 @@
         <v>0.0737</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1665543489787247</v>
+        <v>0.1185364627531234</v>
       </c>
       <c r="J4" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K4" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007954631987027727</v>
+        <v>0.004032411906100264</v>
       </c>
       <c r="M4" t="n">
-        <v>11.49757242027317</v>
+        <v>11.60719011865429</v>
       </c>
       <c r="N4" t="n">
-        <v>215.1423794220002</v>
+        <v>218.6481675799872</v>
       </c>
       <c r="O4" t="n">
-        <v>14.66773259307655</v>
+        <v>14.78675649288873</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0543096278001</v>
+        <v>351.4851762877198</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28860,28 +29156,28 @@
         <v>0.0707</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2516674473661525</v>
+        <v>-0.3065800688734368</v>
       </c>
       <c r="J5" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K5" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01539520599614463</v>
+        <v>0.02249053331113438</v>
       </c>
       <c r="M5" t="n">
-        <v>12.57553420693574</v>
+        <v>12.7329345182429</v>
       </c>
       <c r="N5" t="n">
-        <v>249.9381415108609</v>
+        <v>255.3001505609156</v>
       </c>
       <c r="O5" t="n">
-        <v>15.80943204264027</v>
+        <v>15.97811473738112</v>
       </c>
       <c r="P5" t="n">
-        <v>355.7267215947442</v>
+        <v>356.2215252668485</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28938,28 +29234,28 @@
         <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4835644398340017</v>
+        <v>-0.5504872273761822</v>
       </c>
       <c r="J6" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K6" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04309726320043905</v>
+        <v>0.05453661245622843</v>
       </c>
       <c r="M6" t="n">
-        <v>14.10629820159654</v>
+        <v>14.27173923045664</v>
       </c>
       <c r="N6" t="n">
-        <v>317.1593501138482</v>
+        <v>325.2299527695368</v>
       </c>
       <c r="O6" t="n">
-        <v>17.80896824956034</v>
+        <v>18.03413299190002</v>
       </c>
       <c r="P6" t="n">
-        <v>361.9014881312198</v>
+        <v>362.5094439046803</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29016,28 +29312,28 @@
         <v>0.0697</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5463442379789759</v>
+        <v>-0.6060745828094751</v>
       </c>
       <c r="J7" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K7" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05107711126866521</v>
+        <v>0.06189826820092115</v>
       </c>
       <c r="M7" t="n">
-        <v>14.4347717851404</v>
+        <v>14.63684370467142</v>
       </c>
       <c r="N7" t="n">
-        <v>343.0673752482691</v>
+        <v>348.4979411417024</v>
       </c>
       <c r="O7" t="n">
-        <v>18.52207804886561</v>
+        <v>18.66809955891875</v>
       </c>
       <c r="P7" t="n">
-        <v>365.4318318919665</v>
+        <v>365.9827449682386</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29094,28 +29390,28 @@
         <v>0.0409</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2352730090464402</v>
+        <v>0.2149020176814321</v>
       </c>
       <c r="J8" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K8" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01478025517472392</v>
+        <v>0.01259050626986502</v>
       </c>
       <c r="M8" t="n">
-        <v>12.38477991222608</v>
+        <v>12.36594065916345</v>
       </c>
       <c r="N8" t="n">
-        <v>224.1002897738207</v>
+        <v>223.0210165599047</v>
       </c>
       <c r="O8" t="n">
-        <v>14.96997961835021</v>
+        <v>14.9338881929625</v>
       </c>
       <c r="P8" t="n">
-        <v>388.7258613949608</v>
+        <v>388.9121871002227</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29172,28 +29468,28 @@
         <v>0.0853</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2476982385412914</v>
+        <v>-0.2752865835798579</v>
       </c>
       <c r="J9" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K9" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03511793291175747</v>
+        <v>0.04306434776564749</v>
       </c>
       <c r="M9" t="n">
-        <v>7.827601158722735</v>
+        <v>7.90251170390915</v>
       </c>
       <c r="N9" t="n">
-        <v>107.5946162764129</v>
+        <v>108.6353478272835</v>
       </c>
       <c r="O9" t="n">
-        <v>10.37278247513236</v>
+        <v>10.42282820674329</v>
       </c>
       <c r="P9" t="n">
-        <v>361.8806210442156</v>
+        <v>362.1326837399973</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29250,28 +29546,28 @@
         <v>0.1077</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.344699552042858</v>
+        <v>-0.358964177306401</v>
       </c>
       <c r="J10" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K10" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03684572475908932</v>
+        <v>0.04064035715809045</v>
       </c>
       <c r="M10" t="n">
-        <v>9.160992435939631</v>
+        <v>9.148330426304979</v>
       </c>
       <c r="N10" t="n">
-        <v>195.4779616558741</v>
+        <v>193.6920719454661</v>
       </c>
       <c r="O10" t="n">
-        <v>13.98134334232137</v>
+        <v>13.91732991437173</v>
       </c>
       <c r="P10" t="n">
-        <v>326.064756270295</v>
+        <v>326.1952865695573</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29322,28 +29618,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.3986203817046755</v>
+        <v>0.3349871936497197</v>
       </c>
       <c r="J11" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K11" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01078372081314405</v>
+        <v>0.007802931305421867</v>
       </c>
       <c r="M11" t="n">
-        <v>23.58572013503734</v>
+        <v>23.60607687396349</v>
       </c>
       <c r="N11" t="n">
-        <v>944.5292037359112</v>
+        <v>939.5985059808035</v>
       </c>
       <c r="O11" t="n">
-        <v>30.73319384209704</v>
+        <v>30.6528710887056</v>
       </c>
       <c r="P11" t="n">
-        <v>325.9355059621496</v>
+        <v>326.4898912280684</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29400,28 +29696,28 @@
         <v>0.0512</v>
       </c>
       <c r="I12" t="n">
-        <v>1.20220535663455</v>
+        <v>1.132051217113128</v>
       </c>
       <c r="J12" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K12" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1198365682418006</v>
+        <v>0.1084765081323421</v>
       </c>
       <c r="M12" t="n">
-        <v>20.35503808657068</v>
+        <v>20.51744502951886</v>
       </c>
       <c r="N12" t="n">
-        <v>673.5632580633139</v>
+        <v>677.3368306143761</v>
       </c>
       <c r="O12" t="n">
-        <v>25.95309727302917</v>
+        <v>26.02569558367991</v>
       </c>
       <c r="P12" t="n">
-        <v>359.1497727557031</v>
+        <v>359.7745027174896</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29478,28 +29774,28 @@
         <v>0.0414</v>
       </c>
       <c r="I13" t="n">
-        <v>1.602285151084236</v>
+        <v>1.537161952811164</v>
       </c>
       <c r="J13" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K13" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2512184128348218</v>
+        <v>0.2365624588212419</v>
       </c>
       <c r="M13" t="n">
-        <v>17.08893850144491</v>
+        <v>17.21394573615367</v>
       </c>
       <c r="N13" t="n">
-        <v>489.8354448497093</v>
+        <v>494.4715148118598</v>
       </c>
       <c r="O13" t="n">
-        <v>22.13222638709692</v>
+        <v>22.23671546815896</v>
       </c>
       <c r="P13" t="n">
-        <v>391.1238494336295</v>
+        <v>391.7028409289909</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29556,28 +29852,28 @@
         <v>0.0443</v>
       </c>
       <c r="I14" t="n">
-        <v>1.658702946750367</v>
+        <v>1.620849590328557</v>
       </c>
       <c r="J14" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K14" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2920551539326139</v>
+        <v>0.2853145210496983</v>
       </c>
       <c r="M14" t="n">
-        <v>15.66683145575801</v>
+        <v>15.69927495932975</v>
       </c>
       <c r="N14" t="n">
-        <v>412.0380151398296</v>
+        <v>411.3723131336552</v>
       </c>
       <c r="O14" t="n">
-        <v>20.29871954434145</v>
+        <v>20.28231528040266</v>
       </c>
       <c r="P14" t="n">
-        <v>404.1707432019369</v>
+        <v>404.5182467623322</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29634,28 +29930,28 @@
         <v>0.042</v>
       </c>
       <c r="I15" t="n">
-        <v>2.002502978470789</v>
+        <v>1.955138286952259</v>
       </c>
       <c r="J15" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K15" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3948788506008941</v>
+        <v>0.3848894634526748</v>
       </c>
       <c r="M15" t="n">
-        <v>15.53337880964504</v>
+        <v>15.61809975531234</v>
       </c>
       <c r="N15" t="n">
-        <v>374.5511965937546</v>
+        <v>376.5341195137589</v>
       </c>
       <c r="O15" t="n">
-        <v>19.35332520766792</v>
+        <v>19.40448709741535</v>
       </c>
       <c r="P15" t="n">
-        <v>396.5110035934791</v>
+        <v>396.9560764714361</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29712,28 +30008,28 @@
         <v>0.0328</v>
       </c>
       <c r="I16" t="n">
-        <v>2.058552424541431</v>
+        <v>2.002415093615331</v>
       </c>
       <c r="J16" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K16" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4053484352589926</v>
+        <v>0.39143583835824</v>
       </c>
       <c r="M16" t="n">
-        <v>16.1290100431809</v>
+        <v>16.30116107596827</v>
       </c>
       <c r="N16" t="n">
-        <v>392.0828040592514</v>
+        <v>397.0025033396625</v>
       </c>
       <c r="O16" t="n">
-        <v>19.80108088108453</v>
+        <v>19.92492166458033</v>
       </c>
       <c r="P16" t="n">
-        <v>394.5406388099765</v>
+        <v>395.0632315875463</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29790,28 +30086,28 @@
         <v>0.0325</v>
       </c>
       <c r="I17" t="n">
-        <v>1.863033187275069</v>
+        <v>1.798216797195227</v>
       </c>
       <c r="J17" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K17" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3421471777312515</v>
+        <v>0.3246168197762896</v>
       </c>
       <c r="M17" t="n">
-        <v>16.32044702095775</v>
+        <v>16.51857583660667</v>
       </c>
       <c r="N17" t="n">
-        <v>425.3865365952836</v>
+        <v>433.0591324512422</v>
       </c>
       <c r="O17" t="n">
-        <v>20.62490088692025</v>
+        <v>20.81007286030595</v>
       </c>
       <c r="P17" t="n">
-        <v>393.324700031081</v>
+        <v>393.9221061155596</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29868,28 +30164,28 @@
         <v>0.0387</v>
       </c>
       <c r="I18" t="n">
-        <v>1.687895278864347</v>
+        <v>1.614519250488803</v>
       </c>
       <c r="J18" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K18" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2627770050039985</v>
+        <v>0.244186160463805</v>
       </c>
       <c r="M18" t="n">
-        <v>17.72488729847094</v>
+        <v>17.93068567605833</v>
       </c>
       <c r="N18" t="n">
-        <v>497.5052539215172</v>
+        <v>507.7122198863722</v>
       </c>
       <c r="O18" t="n">
-        <v>22.30482579895026</v>
+        <v>22.53247034584473</v>
       </c>
       <c r="P18" t="n">
-        <v>388.4369833821208</v>
+        <v>389.1119678752408</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29946,28 +30242,28 @@
         <v>0.0375</v>
       </c>
       <c r="I19" t="n">
-        <v>1.369629809134722</v>
+        <v>1.305842376746565</v>
       </c>
       <c r="J19" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K19" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1774403928953326</v>
+        <v>0.1638626523572994</v>
       </c>
       <c r="M19" t="n">
-        <v>18.73390210592702</v>
+        <v>18.88037855026381</v>
       </c>
       <c r="N19" t="n">
-        <v>527.6908608177517</v>
+        <v>533.7933464854494</v>
       </c>
       <c r="O19" t="n">
-        <v>22.97152282322075</v>
+        <v>23.10396819781073</v>
       </c>
       <c r="P19" t="n">
-        <v>388.4375316477888</v>
+        <v>389.0355347412625</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30024,28 +30320,28 @@
         <v>0.0417</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8580393927846742</v>
+        <v>0.8118611935847277</v>
       </c>
       <c r="J20" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K20" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07529962518264377</v>
+        <v>0.06854257137291686</v>
       </c>
       <c r="M20" t="n">
-        <v>19.20344745144091</v>
+        <v>19.23382966137562</v>
       </c>
       <c r="N20" t="n">
-        <v>546.4132335558496</v>
+        <v>547.2239871905261</v>
       </c>
       <c r="O20" t="n">
-        <v>23.37548360047017</v>
+        <v>23.39281913730207</v>
       </c>
       <c r="P20" t="n">
-        <v>393.4681047470127</v>
+        <v>393.9026878222514</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30102,28 +30398,28 @@
         <v>0.0577</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4247158097282496</v>
+        <v>0.389979689909706</v>
       </c>
       <c r="J21" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K21" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02151510098324794</v>
+        <v>0.018453415736988</v>
       </c>
       <c r="M21" t="n">
-        <v>17.79096134525973</v>
+        <v>17.78318348516861</v>
       </c>
       <c r="N21" t="n">
-        <v>503.9289965657495</v>
+        <v>502.2659447639702</v>
       </c>
       <c r="O21" t="n">
-        <v>22.44836289277571</v>
+        <v>22.41129056444475</v>
       </c>
       <c r="P21" t="n">
-        <v>393.5794148186523</v>
+        <v>393.902388097287</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30180,28 +30476,28 @@
         <v>0.0745</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05300600796999057</v>
+        <v>0.01839479348124846</v>
       </c>
       <c r="J22" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K22" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004390128894833367</v>
+        <v>5.359359564793831e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>15.86069840387295</v>
+        <v>15.89324738520618</v>
       </c>
       <c r="N22" t="n">
-        <v>391.6052493574424</v>
+        <v>390.7736775378833</v>
       </c>
       <c r="O22" t="n">
-        <v>19.78901840308009</v>
+        <v>19.76799629547424</v>
       </c>
       <c r="P22" t="n">
-        <v>393.2314164612335</v>
+        <v>393.5531703668872</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30258,28 +30554,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1101377223680848</v>
+        <v>-0.1675992614879153</v>
       </c>
       <c r="J23" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K23" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002186670196347773</v>
+        <v>0.005016419928890348</v>
       </c>
       <c r="M23" t="n">
-        <v>14.34554893459112</v>
+        <v>14.5213560631179</v>
       </c>
       <c r="N23" t="n">
-        <v>339.643372088705</v>
+        <v>345.6517920012215</v>
       </c>
       <c r="O23" t="n">
-        <v>18.42941594540383</v>
+        <v>18.59171299265405</v>
       </c>
       <c r="P23" t="n">
-        <v>393.7243509728017</v>
+        <v>394.2563738313899</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30336,28 +30632,28 @@
         <v>0.0668</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1959329537891227</v>
+        <v>-0.2438762929851572</v>
       </c>
       <c r="J24" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K24" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L24" t="n">
-        <v>0.007490044298608667</v>
+        <v>0.01157062990334645</v>
       </c>
       <c r="M24" t="n">
-        <v>13.61628021241412</v>
+        <v>13.72638247947371</v>
       </c>
       <c r="N24" t="n">
-        <v>309.5329282690902</v>
+        <v>312.7264671184133</v>
       </c>
       <c r="O24" t="n">
-        <v>17.5935479159006</v>
+        <v>17.68407382698945</v>
       </c>
       <c r="P24" t="n">
-        <v>393.6708705487205</v>
+        <v>394.1131085653495</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30414,28 +30710,28 @@
         <v>0.0546</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1859541837387796</v>
+        <v>-0.2079369889631325</v>
       </c>
       <c r="J25" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K25" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L25" t="n">
-        <v>0.007052856566375665</v>
+        <v>0.008959322304542994</v>
       </c>
       <c r="M25" t="n">
-        <v>13.48570436814012</v>
+        <v>13.48002325319278</v>
       </c>
       <c r="N25" t="n">
-        <v>296.4279492981841</v>
+        <v>294.6160341945993</v>
       </c>
       <c r="O25" t="n">
-        <v>17.21708306590243</v>
+        <v>17.16438272104766</v>
       </c>
       <c r="P25" t="n">
-        <v>394.1677417923316</v>
+        <v>394.3708626683239</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30492,28 +30788,28 @@
         <v>0.055</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1976199510827476</v>
+        <v>-0.2066091595500844</v>
       </c>
       <c r="J26" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K26" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00769052407418136</v>
+        <v>0.008573519070753655</v>
       </c>
       <c r="M26" t="n">
-        <v>14.14655439953535</v>
+        <v>14.0589605385585</v>
       </c>
       <c r="N26" t="n">
-        <v>305.657405815536</v>
+        <v>302.9510015692274</v>
       </c>
       <c r="O26" t="n">
-        <v>17.48306053914863</v>
+        <v>17.40548768547516</v>
       </c>
       <c r="P26" t="n">
-        <v>396.5433701149948</v>
+        <v>396.6261315364277</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30570,28 +30866,28 @@
         <v>0.047</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0945459448322499</v>
+        <v>0.1012668714879485</v>
       </c>
       <c r="J27" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K27" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001794598783057433</v>
+        <v>0.002102075597153474</v>
       </c>
       <c r="M27" t="n">
-        <v>14.32773296917731</v>
+        <v>14.20308785534151</v>
       </c>
       <c r="N27" t="n">
-        <v>307.2120298558443</v>
+        <v>304.1410185023994</v>
       </c>
       <c r="O27" t="n">
-        <v>17.52746501510827</v>
+        <v>17.43963928819628</v>
       </c>
       <c r="P27" t="n">
-        <v>395.2410538548655</v>
+        <v>395.1791044953267</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30648,28 +30944,28 @@
         <v>0.0461</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3305525071399062</v>
+        <v>0.3409541201230115</v>
       </c>
       <c r="J28" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K28" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0210099237161927</v>
+        <v>0.02278208217621636</v>
       </c>
       <c r="M28" t="n">
-        <v>14.18895012528617</v>
+        <v>14.07891801071323</v>
       </c>
       <c r="N28" t="n">
-        <v>315.6418192154851</v>
+        <v>312.5676716474396</v>
       </c>
       <c r="O28" t="n">
-        <v>17.76631135648267</v>
+        <v>17.67958346928569</v>
       </c>
       <c r="P28" t="n">
-        <v>393.738963520598</v>
+        <v>393.6433069279316</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30726,28 +31022,28 @@
         <v>0.0462</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5741645850189369</v>
+        <v>0.5790137773865344</v>
       </c>
       <c r="J29" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K29" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L29" t="n">
-        <v>0.05984178153946662</v>
+        <v>0.06204222952095817</v>
       </c>
       <c r="M29" t="n">
-        <v>14.46021605299357</v>
+        <v>14.32405088594252</v>
       </c>
       <c r="N29" t="n">
-        <v>323.3544246748898</v>
+        <v>319.9033825350985</v>
       </c>
       <c r="O29" t="n">
-        <v>17.9820584103959</v>
+        <v>17.88584307588263</v>
       </c>
       <c r="P29" t="n">
-        <v>384.1710956388348</v>
+        <v>384.1265357779546</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -30804,28 +31100,28 @@
         <v>0.0414</v>
       </c>
       <c r="I30" t="n">
-        <v>0.633117760301271</v>
+        <v>0.6280337317565452</v>
       </c>
       <c r="J30" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K30" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0603638997317123</v>
+        <v>0.06073197454903834</v>
       </c>
       <c r="M30" t="n">
-        <v>15.7031330359119</v>
+        <v>15.5806936767034</v>
       </c>
       <c r="N30" t="n">
-        <v>381.6226799662687</v>
+        <v>377.7400404256582</v>
       </c>
       <c r="O30" t="n">
-        <v>19.53516521471648</v>
+        <v>19.4355355065318</v>
       </c>
       <c r="P30" t="n">
-        <v>376.4741405524559</v>
+        <v>376.5205128596731</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -30882,28 +31178,28 @@
         <v>0.0501</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4596246536149701</v>
+        <v>0.4530122984860053</v>
       </c>
       <c r="J31" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K31" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0295147919111548</v>
+        <v>0.02933473646311557</v>
       </c>
       <c r="M31" t="n">
-        <v>16.0073058650062</v>
+        <v>15.87026655794861</v>
       </c>
       <c r="N31" t="n">
-        <v>421.9374223713605</v>
+        <v>417.5653232052939</v>
       </c>
       <c r="O31" t="n">
-        <v>20.54111541205493</v>
+        <v>20.43441516670575</v>
       </c>
       <c r="P31" t="n">
-        <v>371.7709846496537</v>
+        <v>371.8317512810474</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -30960,28 +31256,28 @@
         <v>0.0608</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3360916441952312</v>
+        <v>0.3196441143505221</v>
       </c>
       <c r="J32" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K32" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01465019864151484</v>
+        <v>0.01357311214774293</v>
       </c>
       <c r="M32" t="n">
-        <v>16.25232917356588</v>
+        <v>16.16120485274422</v>
       </c>
       <c r="N32" t="n">
-        <v>462.6797220405733</v>
+        <v>458.0986119009331</v>
       </c>
       <c r="O32" t="n">
-        <v>21.50999121433045</v>
+        <v>21.40323835079479</v>
       </c>
       <c r="P32" t="n">
-        <v>369.9025778674991</v>
+        <v>370.0534132507016</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -31038,28 +31334,28 @@
         <v>0.0452</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3168064799652121</v>
+        <v>0.2787815041153776</v>
       </c>
       <c r="J33" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K33" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01786440986088644</v>
+        <v>0.01408196234288017</v>
       </c>
       <c r="M33" t="n">
-        <v>14.73474530232699</v>
+        <v>14.7621550163003</v>
       </c>
       <c r="N33" t="n">
-        <v>348.2134702182668</v>
+        <v>347.6387451692373</v>
       </c>
       <c r="O33" t="n">
-        <v>18.66047883143053</v>
+        <v>18.64507294620317</v>
       </c>
       <c r="P33" t="n">
-        <v>371.4677900635947</v>
+        <v>371.8137587570032</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -31116,28 +31412,28 @@
         <v>0.0518</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1930271474491408</v>
+        <v>0.1660272461600956</v>
       </c>
       <c r="J34" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K34" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L34" t="n">
-        <v>0.004440431971549641</v>
+        <v>0.003350940527733326</v>
       </c>
       <c r="M34" t="n">
-        <v>17.97551900581851</v>
+        <v>17.93240285899846</v>
       </c>
       <c r="N34" t="n">
-        <v>517.3004613869689</v>
+        <v>513.6499381862558</v>
       </c>
       <c r="O34" t="n">
-        <v>22.74424018047138</v>
+        <v>22.66384650023592</v>
       </c>
       <c r="P34" t="n">
-        <v>366.3114130023195</v>
+        <v>366.5582846167522</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -31194,28 +31490,28 @@
         <v>0.0461</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.1872940582752035</v>
+        <v>-0.2134843239502208</v>
       </c>
       <c r="J35" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K35" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L35" t="n">
-        <v>0.003652707176489578</v>
+        <v>0.004836604895424923</v>
       </c>
       <c r="M35" t="n">
-        <v>18.89433774238057</v>
+        <v>18.83711060752001</v>
       </c>
       <c r="N35" t="n">
-        <v>583.6664724013444</v>
+        <v>579.271071674927</v>
       </c>
       <c r="O35" t="n">
-        <v>24.15919022652341</v>
+        <v>24.06805084910133</v>
       </c>
       <c r="P35" t="n">
-        <v>372.7020965950491</v>
+        <v>372.9417015476249</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -31272,28 +31568,28 @@
         <v>0.0367</v>
       </c>
       <c r="I36" t="n">
-        <v>0.308410065997558</v>
+        <v>0.2663558826168906</v>
       </c>
       <c r="J36" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K36" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0121280095038212</v>
+        <v>0.009225880862954172</v>
       </c>
       <c r="M36" t="n">
-        <v>17.75675431931889</v>
+        <v>17.7684758629038</v>
       </c>
       <c r="N36" t="n">
-        <v>477.0868283430807</v>
+        <v>475.8837849476206</v>
       </c>
       <c r="O36" t="n">
-        <v>21.84231737575207</v>
+        <v>21.81476071259139</v>
       </c>
       <c r="P36" t="n">
-        <v>371.7887330750707</v>
+        <v>372.1638508322375</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -31350,28 +31646,28 @@
         <v>0.05</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.2385965707897599</v>
+        <v>-0.2663654223139102</v>
       </c>
       <c r="J37" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K37" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L37" t="n">
-        <v>0.006629958843865524</v>
+        <v>0.008458483419615304</v>
       </c>
       <c r="M37" t="n">
-        <v>18.24228130537271</v>
+        <v>18.16831197701374</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6387186478248</v>
+        <v>524.8098189722554</v>
       </c>
       <c r="O37" t="n">
-        <v>23.01388099925401</v>
+        <v>22.90872800860527</v>
       </c>
       <c r="P37" t="n">
-        <v>379.9071006183822</v>
+        <v>380.1510326801871</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -31428,28 +31724,28 @@
         <v>0.0346</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.158106909200675</v>
+        <v>-0.2220377386786988</v>
       </c>
       <c r="J38" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K38" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L38" t="n">
-        <v>0.002161695720725776</v>
+        <v>0.004329575428437593</v>
       </c>
       <c r="M38" t="n">
-        <v>21.33303724489359</v>
+        <v>21.42473889703252</v>
       </c>
       <c r="N38" t="n">
-        <v>701.8969409896717</v>
+        <v>701.4324403486783</v>
       </c>
       <c r="O38" t="n">
-        <v>26.49333767175574</v>
+        <v>26.48456985394851</v>
       </c>
       <c r="P38" t="n">
-        <v>380.2059560409746</v>
+        <v>380.7744096480328</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -31506,28 +31802,28 @@
         <v>0.0591</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.4228866210805459</v>
+        <v>-0.4397278933693411</v>
       </c>
       <c r="J39" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K39" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L39" t="n">
-        <v>0.01846706705603962</v>
+        <v>0.02048854925560128</v>
       </c>
       <c r="M39" t="n">
-        <v>18.71467707968594</v>
+        <v>18.5736992395019</v>
       </c>
       <c r="N39" t="n">
-        <v>560.0827099146215</v>
+        <v>553.9764775882609</v>
       </c>
       <c r="O39" t="n">
-        <v>23.66606663378225</v>
+        <v>23.5367049008195</v>
       </c>
       <c r="P39" t="n">
-        <v>393.8483747545475</v>
+        <v>394.0022221553804</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -31584,28 +31880,28 @@
         <v>0.0354</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.04761323029060795</v>
+        <v>-0.05652637251221522</v>
       </c>
       <c r="J40" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K40" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0002926673846066485</v>
+        <v>0.0004242033187882299</v>
       </c>
       <c r="M40" t="n">
-        <v>17.00604237155564</v>
+        <v>16.86224349798428</v>
       </c>
       <c r="N40" t="n">
-        <v>467.8856114530446</v>
+        <v>462.352489979598</v>
       </c>
       <c r="O40" t="n">
-        <v>21.63066368498767</v>
+        <v>21.50238335579565</v>
       </c>
       <c r="P40" t="n">
-        <v>400.0360955494612</v>
+        <v>400.1168803276109</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
@@ -31662,28 +31958,28 @@
         <v>0.0391</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.008609460672149225</v>
+        <v>0.001014049298031499</v>
       </c>
       <c r="J41" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K41" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L41" t="n">
-        <v>1.025509067087427e-05</v>
+        <v>1.460638999750685e-07</v>
       </c>
       <c r="M41" t="n">
-        <v>17.00121839705003</v>
+        <v>16.84809333436641</v>
       </c>
       <c r="N41" t="n">
-        <v>445.9434154175261</v>
+        <v>440.793402760531</v>
       </c>
       <c r="O41" t="n">
-        <v>21.11737236063062</v>
+        <v>20.99508044186854</v>
       </c>
       <c r="P41" t="n">
-        <v>403.2768187073732</v>
+        <v>403.1896637573055</v>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
@@ -31740,28 +32036,28 @@
         <v>0.0469</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3207750288704898</v>
+        <v>0.3299090234357225</v>
       </c>
       <c r="J42" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K42" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L42" t="n">
-        <v>0.01362397248931746</v>
+        <v>0.01480957762735924</v>
       </c>
       <c r="M42" t="n">
-        <v>16.90048615787445</v>
+        <v>16.7469549265554</v>
       </c>
       <c r="N42" t="n">
-        <v>445.9340320401529</v>
+        <v>440.5636121386781</v>
       </c>
       <c r="O42" t="n">
-        <v>21.11715018746973</v>
+        <v>20.98960724117243</v>
       </c>
       <c r="P42" t="n">
-        <v>403.4972736729798</v>
+        <v>403.4134275758406</v>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
@@ -31812,28 +32108,28 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>0.4946141674856722</v>
+        <v>0.4706765126633149</v>
       </c>
       <c r="J43" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K43" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L43" t="n">
-        <v>0.03014654392492466</v>
+        <v>0.02805844187545348</v>
       </c>
       <c r="M43" t="n">
-        <v>17.30591652563302</v>
+        <v>17.22739781574678</v>
       </c>
       <c r="N43" t="n">
-        <v>480.2236918865509</v>
+        <v>476.4170735261313</v>
       </c>
       <c r="O43" t="n">
-        <v>21.9140067510839</v>
+        <v>21.82698040330204</v>
       </c>
       <c r="P43" t="n">
-        <v>403.1758245391788</v>
+        <v>403.3934281082662</v>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
@@ -31871,7 +32167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR210"/>
+  <dimension ref="A1:AR212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72127,6 +72423,450 @@
         </is>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>-34.46812366745103,172.66444080165707</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>-34.46765992681104,172.66515549268877</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>-34.46719100866632,172.6658634073489</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>-34.466722747478656,172.66657218772392</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>-34.46622236875451,172.66723356699032</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>-34.465632710630885,172.6677667085701</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>-34.46473974367664,172.66795026247513</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>-34.46448088172523,172.66890073869112</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>-34.4641508774942,172.66976654719284</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>-34.463565742917645,172.67032869726998</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>-34.46280214599732,172.67067844091667</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>-34.46201528087959,172.67094622821585</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>-34.46137830833324,172.6711511885673</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>-34.46075852224547,172.67147604861177</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>-34.460079228593344,172.67183877656515</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>-34.459416784032776,172.67225747377873</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>-34.45876903119876,172.67272497662984</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>-34.4580819542177,172.67306191613432</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>-34.45738923253139,172.67338013064926</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>-34.45670080852254,172.67371263553324</t>
+        </is>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>-34.45602546371605,172.67408859118788</t>
+        </is>
+      </c>
+      <c r="W211" t="inlineStr">
+        <is>
+          <t>-34.45538707178641,172.67458727427655</t>
+        </is>
+      </c>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>-34.45467035439455,172.67482588360593</t>
+        </is>
+      </c>
+      <c r="Y211" t="inlineStr">
+        <is>
+          <t>-34.45392522819527,172.6749701772245</t>
+        </is>
+      </c>
+      <c r="Z211" t="inlineStr">
+        <is>
+          <t>-34.45321580209944,172.6752330380944</t>
+        </is>
+      </c>
+      <c r="AA211" t="inlineStr">
+        <is>
+          <t>-34.4524698889614,172.6753747594708</t>
+        </is>
+      </c>
+      <c r="AB211" t="inlineStr">
+        <is>
+          <t>-34.45176845155186,172.6755915910412</t>
+        </is>
+      </c>
+      <c r="AC211" t="inlineStr">
+        <is>
+          <t>-34.451090996207235,172.67586352583547</t>
+        </is>
+      </c>
+      <c r="AD211" t="inlineStr">
+        <is>
+          <t>-34.45039300931291,172.67617120604334</t>
+        </is>
+      </c>
+      <c r="AE211" t="inlineStr">
+        <is>
+          <t>-34.44967969562491,172.67642827602148</t>
+        </is>
+      </c>
+      <c r="AF211" t="inlineStr">
+        <is>
+          <t>-34.44896500565216,172.6766768680068</t>
+        </is>
+      </c>
+      <c r="AG211" t="inlineStr">
+        <is>
+          <t>-34.44825848716104,172.6769760683427</t>
+        </is>
+      </c>
+      <c r="AH211" t="inlineStr">
+        <is>
+          <t>-34.44753679742226,172.67718142044419</t>
+        </is>
+      </c>
+      <c r="AI211" t="inlineStr">
+        <is>
+          <t>-34.44680237115729,172.67730799175644</t>
+        </is>
+      </c>
+      <c r="AJ211" t="inlineStr">
+        <is>
+          <t>-34.44607254263515,172.67746305550463</t>
+        </is>
+      </c>
+      <c r="AK211" t="inlineStr">
+        <is>
+          <t>-34.44533857572696,172.67759254843946</t>
+        </is>
+      </c>
+      <c r="AL211" t="inlineStr">
+        <is>
+          <t>-34.44463220325405,172.67789284687538</t>
+        </is>
+      </c>
+      <c r="AM211" t="inlineStr">
+        <is>
+          <t>-34.4438560112526,172.67776111324568</t>
+        </is>
+      </c>
+      <c r="AN211" t="inlineStr">
+        <is>
+          <t>-34.443103983584365,172.67772476041503</t>
+        </is>
+      </c>
+      <c r="AO211" t="inlineStr">
+        <is>
+          <t>-34.44236534052783,172.67770941667973</t>
+        </is>
+      </c>
+      <c r="AP211" t="inlineStr">
+        <is>
+          <t>-34.44162312125929,172.67773263502858</t>
+        </is>
+      </c>
+      <c r="AQ211" t="inlineStr">
+        <is>
+          <t>-34.44089031190161,172.6778657910841</t>
+        </is>
+      </c>
+      <c r="AR211" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>-34.46805099211549,172.66434561042857</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>-34.46764275132429,172.66513299586038</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>-34.46716450191234,172.66582868808368</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>-34.4666685525423,172.66650120146554</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>-34.46613586190242,172.66712164110191</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>-34.46559898058981,172.66772510827258</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>-34.46465038258547,172.66784390463582</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>-34.46442774865005,172.66883749879494</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>-34.464121649491375,172.66973175920575</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>-34.46364690893792,172.6704253034956</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>-34.46276823709213,172.6706380818744</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>-34.461995792723066,172.67091801241614</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>-34.461356154176876,172.67109858678913</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>-34.460730991937815,172.67138463001237</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>-34.46005336536932,172.6717528937831</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>-34.459388733247984,172.67216432672095</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>-34.45873099417795,172.67259866834527</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>-34.4580470603922,172.67294604546288</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>-34.45734173632354,172.6732224120895</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>-34.45666968064704,172.67360927060577</t>
+        </is>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>-34.456011238541876,172.67404135423948</t>
+        </is>
+      </c>
+      <c r="W212" t="inlineStr">
+        <is>
+          <t>-34.45535496531787,172.67448065928755</t>
+        </is>
+      </c>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t>-34.454662620530726,172.6748002020753</t>
+        </is>
+      </c>
+      <c r="Y212" t="inlineStr">
+        <is>
+          <t>-34.45392464276412,172.67496823322105</t>
+        </is>
+      </c>
+      <c r="Z212" t="inlineStr">
+        <is>
+          <t>-34.45318720849412,172.67513808965154</t>
+        </is>
+      </c>
+      <c r="AA212" t="inlineStr">
+        <is>
+          <t>-34.45245063144076,172.6753108130648</t>
+        </is>
+      </c>
+      <c r="AB212" t="inlineStr">
+        <is>
+          <t>-34.45175943002383,172.67555553255642</t>
+        </is>
+      </c>
+      <c r="AC212" t="inlineStr">
+        <is>
+          <t>-34.451082349671765,172.67581577339573</t>
+        </is>
+      </c>
+      <c r="AD212" t="inlineStr">
+        <is>
+          <t>-34.45037910287063,172.67608514671312</t>
+        </is>
+      </c>
+      <c r="AE212" t="inlineStr">
+        <is>
+          <t>-34.44967226753708,172.67638230752624</t>
+        </is>
+      </c>
+      <c r="AF212" t="inlineStr">
+        <is>
+          <t>-34.44896547182098,172.67667975288663</t>
+        </is>
+      </c>
+      <c r="AG212" t="inlineStr">
+        <is>
+          <t>-34.44824652228384,172.67690202369275</t>
+        </is>
+      </c>
+      <c r="AH212" t="inlineStr">
+        <is>
+          <t>-34.447529714856394,172.67713758998158</t>
+        </is>
+      </c>
+      <c r="AI212" t="inlineStr">
+        <is>
+          <t>-34.446818842033494,172.67740992166446</t>
+        </is>
+      </c>
+      <c r="AJ212" t="inlineStr">
+        <is>
+          <t>-34.44607586902898,172.67748364075166</t>
+        </is>
+      </c>
+      <c r="AK212" t="inlineStr">
+        <is>
+          <t>-34.445349189826906,172.67765823310094</t>
+        </is>
+      </c>
+      <c r="AL212" t="inlineStr">
+        <is>
+          <t>-34.44464222830585,172.6779548865135</t>
+        </is>
+      </c>
+      <c r="AM212" t="inlineStr">
+        <is>
+          <t>-34.44387368664493,172.67787049475754</t>
+        </is>
+      </c>
+      <c r="AN212" t="inlineStr">
+        <is>
+          <t>-34.4431192565225,172.67783498571686</t>
+        </is>
+      </c>
+      <c r="AO212" t="inlineStr">
+        <is>
+          <t>-34.442379232759315,172.67783430058645</t>
+        </is>
+      </c>
+      <c r="AP212" t="inlineStr">
+        <is>
+          <t>-34.44163642228952,172.67785721961243</t>
+        </is>
+      </c>
+      <c r="AQ212" t="inlineStr">
+        <is>
+          <t>-34.44091829673118,172.67812791311462</t>
+        </is>
+      </c>
+      <c r="AR212" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0005/nzd0005.xlsx
+++ b/data/nzd0005/nzd0005.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR212"/>
+  <dimension ref="A1:AR213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26590,6 +26590,140 @@
         </is>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>376.59</v>
+      </c>
+      <c r="C213" t="n">
+        <v>341.4072727272728</v>
+      </c>
+      <c r="D213" t="n">
+        <v>337.0033333333333</v>
+      </c>
+      <c r="E213" t="n">
+        <v>330.7033333333333</v>
+      </c>
+      <c r="F213" t="n">
+        <v>341.19</v>
+      </c>
+      <c r="G213" t="n">
+        <v>338.8233333333333</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>356.0166666666667</v>
+      </c>
+      <c r="J213" t="n">
+        <v>317.0422222222222</v>
+      </c>
+      <c r="K213" t="n">
+        <v>304.6538461538461</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>408.4257142857143</v>
+      </c>
+      <c r="N213" t="n">
+        <v>436.69</v>
+      </c>
+      <c r="O213" t="n">
+        <v>445.7257142857143</v>
+      </c>
+      <c r="P213" t="n">
+        <v>435.7366666666667</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>425.4766666666667</v>
+      </c>
+      <c r="R213" t="n">
+        <v>408.0557142857143</v>
+      </c>
+      <c r="S213" t="n">
+        <v>400.5757142857143</v>
+      </c>
+      <c r="T213" t="n">
+        <v>397.2957142857143</v>
+      </c>
+      <c r="U213" t="n">
+        <v>390.8344444444445</v>
+      </c>
+      <c r="V213" t="n">
+        <v>382.9033333333333</v>
+      </c>
+      <c r="W213" t="n">
+        <v>395.8572727272728</v>
+      </c>
+      <c r="X213" t="n">
+        <v>390.5272727272728</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>383.28</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>387.25</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>398.45</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>412.5</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>419.14</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>407.1657142857143</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>385.4044444444445</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>381.49</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>377.47</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>365.1144444444445</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>371.85</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>381.7266666666667</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>362.6644444444445</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>369.0866666666667</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>377.7744444444445</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>401.8666666666667</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>411.1157142857143</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>418.83</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>403.52</v>
+      </c>
+      <c r="AR213" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26601,7 +26735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B214"/>
+  <dimension ref="A1:B215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28749,6 +28883,16 @@
       </c>
       <c r="B214" t="n">
         <v>0.34</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -28922,28 +29066,28 @@
         <v>0.0455</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00170144866526663</v>
+        <v>-0.0005447807902977427</v>
       </c>
       <c r="J2" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K2" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L2" t="n">
-        <v>8.286309017835336e-07</v>
+        <v>8.59268248776246e-08</v>
       </c>
       <c r="M2" t="n">
-        <v>11.52545309617549</v>
+        <v>11.47372082535352</v>
       </c>
       <c r="N2" t="n">
-        <v>221.63671125611</v>
+        <v>220.3906509561747</v>
       </c>
       <c r="O2" t="n">
-        <v>14.88746826213611</v>
+        <v>14.84555997448984</v>
       </c>
       <c r="P2" t="n">
-        <v>378.7606259705631</v>
+        <v>378.7812504644602</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29000,28 +29144,28 @@
         <v>0.0679</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4297060762257707</v>
+        <v>0.4065985562854604</v>
       </c>
       <c r="J3" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K3" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03655219524349651</v>
+        <v>0.03293154732089743</v>
       </c>
       <c r="M3" t="n">
-        <v>12.8620034910869</v>
+        <v>12.90301541670959</v>
       </c>
       <c r="N3" t="n">
-        <v>307.1351317382649</v>
+        <v>308.2159191403191</v>
       </c>
       <c r="O3" t="n">
-        <v>17.52527123151778</v>
+        <v>17.55607926446902</v>
       </c>
       <c r="P3" t="n">
-        <v>352.6134901809137</v>
+        <v>352.82564442804</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29078,28 +29222,28 @@
         <v>0.0737</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1185364627531234</v>
+        <v>0.1004677051102149</v>
       </c>
       <c r="J4" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K4" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004032411906100264</v>
+        <v>0.002912394910188798</v>
       </c>
       <c r="M4" t="n">
-        <v>11.60719011865429</v>
+        <v>11.63315840451055</v>
       </c>
       <c r="N4" t="n">
-        <v>218.6481675799872</v>
+        <v>219.1249568867331</v>
       </c>
       <c r="O4" t="n">
-        <v>14.78675649288873</v>
+        <v>14.80286988684063</v>
       </c>
       <c r="P4" t="n">
-        <v>351.4851762877198</v>
+        <v>351.6485218620297</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29156,28 +29300,28 @@
         <v>0.0707</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3065800688734368</v>
+        <v>-0.3240671628762273</v>
       </c>
       <c r="J5" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K5" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02249053331113438</v>
+        <v>0.02519387993725264</v>
       </c>
       <c r="M5" t="n">
-        <v>12.7329345182429</v>
+        <v>12.7592967800367</v>
       </c>
       <c r="N5" t="n">
-        <v>255.3001505609156</v>
+        <v>255.5500022165275</v>
       </c>
       <c r="O5" t="n">
-        <v>15.97811473738112</v>
+        <v>15.98593138408043</v>
       </c>
       <c r="P5" t="n">
-        <v>356.2215252668485</v>
+        <v>356.3802661578667</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29234,28 +29378,28 @@
         <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5504872273761822</v>
+        <v>-0.5577345760588486</v>
       </c>
       <c r="J6" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K6" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05453661245622843</v>
+        <v>0.05650544338681496</v>
       </c>
       <c r="M6" t="n">
-        <v>14.27173923045664</v>
+        <v>14.22811588316462</v>
       </c>
       <c r="N6" t="n">
-        <v>325.2299527695368</v>
+        <v>323.6691689810022</v>
       </c>
       <c r="O6" t="n">
-        <v>18.03413299190002</v>
+        <v>17.99080790239844</v>
       </c>
       <c r="P6" t="n">
-        <v>362.5094439046803</v>
+        <v>362.5757677293057</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29312,28 +29456,28 @@
         <v>0.0697</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6060745828094751</v>
+        <v>-0.6177780435803192</v>
       </c>
       <c r="J7" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K7" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06189826820092115</v>
+        <v>0.06473360386316007</v>
       </c>
       <c r="M7" t="n">
-        <v>14.63684370467142</v>
+        <v>14.62424584875383</v>
       </c>
       <c r="N7" t="n">
-        <v>348.4979411417024</v>
+        <v>347.205933982497</v>
       </c>
       <c r="O7" t="n">
-        <v>18.66809955891875</v>
+        <v>18.63346274803739</v>
       </c>
       <c r="P7" t="n">
-        <v>365.9827449682386</v>
+        <v>366.0915311373335</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29393,7 +29537,7 @@
         <v>0.2149020176814321</v>
       </c>
       <c r="J8" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K8" t="n">
         <v>170</v>
@@ -29468,28 +29612,28 @@
         <v>0.0853</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2752865835798579</v>
+        <v>-0.2741990491069893</v>
       </c>
       <c r="J9" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K9" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04306434776564749</v>
+        <v>0.04320115422095272</v>
       </c>
       <c r="M9" t="n">
-        <v>7.90251170390915</v>
+        <v>7.861193140296382</v>
       </c>
       <c r="N9" t="n">
-        <v>108.6353478272835</v>
+        <v>107.9915900523549</v>
       </c>
       <c r="O9" t="n">
-        <v>10.42282820674329</v>
+        <v>10.39190021374122</v>
       </c>
       <c r="P9" t="n">
-        <v>362.1326837399973</v>
+        <v>362.1226627476474</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29546,28 +29690,28 @@
         <v>0.1077</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.358964177306401</v>
+        <v>-0.3587337974334207</v>
       </c>
       <c r="J10" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K10" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04064035715809045</v>
+        <v>0.04105444039084971</v>
       </c>
       <c r="M10" t="n">
-        <v>9.148330426304979</v>
+        <v>9.09385581291496</v>
       </c>
       <c r="N10" t="n">
-        <v>193.6920719454661</v>
+        <v>192.5184656492548</v>
       </c>
       <c r="O10" t="n">
-        <v>13.91732991437173</v>
+        <v>13.8751023653613</v>
       </c>
       <c r="P10" t="n">
-        <v>326.1952865695573</v>
+        <v>326.193161120082</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29618,28 +29762,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.3349871936497197</v>
+        <v>0.2956346079343229</v>
       </c>
       <c r="J11" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K11" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007802931305421867</v>
+        <v>0.006136340452221556</v>
       </c>
       <c r="M11" t="n">
-        <v>23.60607687396349</v>
+        <v>23.66113266355795</v>
       </c>
       <c r="N11" t="n">
-        <v>939.5985059808035</v>
+        <v>939.4132311589581</v>
       </c>
       <c r="O11" t="n">
-        <v>30.6528710887056</v>
+        <v>30.64984879504233</v>
       </c>
       <c r="P11" t="n">
-        <v>326.4898912280684</v>
+        <v>326.8354123225488</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29699,7 +29843,7 @@
         <v>1.132051217113128</v>
       </c>
       <c r="J12" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K12" t="n">
         <v>161</v>
@@ -29774,28 +29918,28 @@
         <v>0.0414</v>
       </c>
       <c r="I13" t="n">
-        <v>1.537161952811164</v>
+        <v>1.511819802312204</v>
       </c>
       <c r="J13" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K13" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2365624588212419</v>
+        <v>0.2316433620435439</v>
       </c>
       <c r="M13" t="n">
-        <v>17.21394573615367</v>
+        <v>17.24337888400531</v>
       </c>
       <c r="N13" t="n">
-        <v>494.4715148118598</v>
+        <v>494.7391963673784</v>
       </c>
       <c r="O13" t="n">
-        <v>22.23671546815896</v>
+        <v>22.2427335632871</v>
       </c>
       <c r="P13" t="n">
-        <v>391.7028409289909</v>
+        <v>391.9299447394778</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29852,28 +29996,28 @@
         <v>0.0443</v>
       </c>
       <c r="I14" t="n">
-        <v>1.620849590328557</v>
+        <v>1.610732263484035</v>
       </c>
       <c r="J14" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K14" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2853145210496983</v>
+        <v>0.284802051754268</v>
       </c>
       <c r="M14" t="n">
-        <v>15.69927495932975</v>
+        <v>15.66982302861589</v>
       </c>
       <c r="N14" t="n">
-        <v>411.3723131336552</v>
+        <v>409.6491521700046</v>
       </c>
       <c r="O14" t="n">
-        <v>20.28231528040266</v>
+        <v>20.23979130747164</v>
       </c>
       <c r="P14" t="n">
-        <v>404.5182467623322</v>
+        <v>404.611842225452</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29930,28 +30074,28 @@
         <v>0.042</v>
       </c>
       <c r="I15" t="n">
-        <v>1.955138286952259</v>
+        <v>1.952842239532435</v>
       </c>
       <c r="J15" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K15" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3848894634526748</v>
+        <v>0.3869763717558677</v>
       </c>
       <c r="M15" t="n">
-        <v>15.61809975531234</v>
+        <v>15.54219086637</v>
       </c>
       <c r="N15" t="n">
-        <v>376.5341195137589</v>
+        <v>374.4236444334992</v>
       </c>
       <c r="O15" t="n">
-        <v>19.40448709741535</v>
+        <v>19.35002957190245</v>
       </c>
       <c r="P15" t="n">
-        <v>396.9560764714361</v>
+        <v>396.9778208139843</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30008,28 +30152,28 @@
         <v>0.0328</v>
       </c>
       <c r="I16" t="n">
-        <v>2.002415093615331</v>
+        <v>1.991105557055402</v>
       </c>
       <c r="J16" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K16" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L16" t="n">
-        <v>0.39143583835824</v>
+        <v>0.3908080077115271</v>
       </c>
       <c r="M16" t="n">
-        <v>16.30116107596827</v>
+        <v>16.2781145594104</v>
       </c>
       <c r="N16" t="n">
-        <v>397.0025033396625</v>
+        <v>395.473601511262</v>
       </c>
       <c r="O16" t="n">
-        <v>19.92492166458033</v>
+        <v>19.88651808415093</v>
       </c>
       <c r="P16" t="n">
-        <v>395.0632315875463</v>
+        <v>395.1694066167942</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30086,28 +30230,28 @@
         <v>0.0325</v>
       </c>
       <c r="I17" t="n">
-        <v>1.798216797195227</v>
+        <v>1.783202361140904</v>
       </c>
       <c r="J17" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K17" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3246168197762896</v>
+        <v>0.32260123824603</v>
       </c>
       <c r="M17" t="n">
-        <v>16.51857583660667</v>
+        <v>16.5110675857806</v>
       </c>
       <c r="N17" t="n">
-        <v>433.0591324512422</v>
+        <v>431.8964364603725</v>
       </c>
       <c r="O17" t="n">
-        <v>20.81007286030595</v>
+        <v>20.78211818993368</v>
       </c>
       <c r="P17" t="n">
-        <v>393.9221061155596</v>
+        <v>394.0616752885894</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30164,28 +30308,28 @@
         <v>0.0387</v>
       </c>
       <c r="I18" t="n">
-        <v>1.614519250488803</v>
+        <v>1.592120461707585</v>
       </c>
       <c r="J18" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K18" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="n">
-        <v>0.244186160463805</v>
+        <v>0.2400108404472233</v>
       </c>
       <c r="M18" t="n">
-        <v>17.93068567605833</v>
+        <v>17.9549869157383</v>
       </c>
       <c r="N18" t="n">
-        <v>507.7122198863722</v>
+        <v>507.8333312559194</v>
       </c>
       <c r="O18" t="n">
-        <v>22.53247034584473</v>
+        <v>22.53515767097979</v>
       </c>
       <c r="P18" t="n">
-        <v>389.1119678752408</v>
+        <v>389.3196441503538</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30242,28 +30386,28 @@
         <v>0.0375</v>
       </c>
       <c r="I19" t="n">
-        <v>1.305842376746565</v>
+        <v>1.284236460179552</v>
       </c>
       <c r="J19" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K19" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1638626523572994</v>
+        <v>0.1601144400543478</v>
       </c>
       <c r="M19" t="n">
-        <v>18.88037855026381</v>
+        <v>18.8973187481852</v>
       </c>
       <c r="N19" t="n">
-        <v>533.7933464854494</v>
+        <v>533.616342168723</v>
       </c>
       <c r="O19" t="n">
-        <v>23.10396819781073</v>
+        <v>23.10013727597139</v>
       </c>
       <c r="P19" t="n">
-        <v>389.0355347412625</v>
+        <v>389.2396415203664</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30320,28 +30464,28 @@
         <v>0.0417</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8118611935847277</v>
+        <v>0.7948673114054683</v>
       </c>
       <c r="J20" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K20" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06854257137291686</v>
+        <v>0.0663634788993428</v>
       </c>
       <c r="M20" t="n">
-        <v>19.23382966137562</v>
+        <v>19.21768396723628</v>
       </c>
       <c r="N20" t="n">
-        <v>547.2239871905261</v>
+        <v>545.979008440115</v>
       </c>
       <c r="O20" t="n">
-        <v>23.39281913730207</v>
+        <v>23.36619370886313</v>
       </c>
       <c r="P20" t="n">
-        <v>393.9026878222514</v>
+        <v>394.0638536741669</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30398,28 +30542,28 @@
         <v>0.0577</v>
       </c>
       <c r="I21" t="n">
-        <v>0.389979689909706</v>
+        <v>0.3774160899389579</v>
       </c>
       <c r="J21" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K21" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L21" t="n">
-        <v>0.018453415736988</v>
+        <v>0.01745455462900103</v>
       </c>
       <c r="M21" t="n">
-        <v>17.78318348516861</v>
+        <v>17.75523490136107</v>
       </c>
       <c r="N21" t="n">
-        <v>502.2659447639702</v>
+        <v>500.5132829591933</v>
       </c>
       <c r="O21" t="n">
-        <v>22.41129056444475</v>
+        <v>22.37215418682772</v>
       </c>
       <c r="P21" t="n">
-        <v>393.902388097287</v>
+        <v>394.0201214801831</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30476,28 +30620,28 @@
         <v>0.0745</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01839479348124846</v>
+        <v>0.007658376975767515</v>
       </c>
       <c r="J22" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K22" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L22" t="n">
-        <v>5.359359564793831e-05</v>
+        <v>9.37590772920327e-06</v>
       </c>
       <c r="M22" t="n">
-        <v>15.89324738520618</v>
+        <v>15.87136841444658</v>
       </c>
       <c r="N22" t="n">
-        <v>390.7736775378833</v>
+        <v>389.328004504892</v>
       </c>
       <c r="O22" t="n">
-        <v>19.76799629547424</v>
+        <v>19.7313964154819</v>
       </c>
       <c r="P22" t="n">
-        <v>393.5531703668872</v>
+        <v>393.6537464567481</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30554,28 +30698,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1675992614879153</v>
+        <v>-0.1619133518114313</v>
       </c>
       <c r="J23" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K23" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L23" t="n">
-        <v>0.005016419928890348</v>
+        <v>0.004731389854872536</v>
       </c>
       <c r="M23" t="n">
-        <v>14.5213560631179</v>
+        <v>14.47460081042896</v>
       </c>
       <c r="N23" t="n">
-        <v>345.6517920012215</v>
+        <v>344.0089234940917</v>
       </c>
       <c r="O23" t="n">
-        <v>18.59171299265405</v>
+        <v>18.54747755071001</v>
       </c>
       <c r="P23" t="n">
-        <v>394.2563738313899</v>
+        <v>394.2033239223655</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30632,28 +30776,28 @@
         <v>0.0668</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2438762929851572</v>
+        <v>-0.2412424802630108</v>
       </c>
       <c r="J24" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K24" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01157062990334645</v>
+        <v>0.01144596263451769</v>
       </c>
       <c r="M24" t="n">
-        <v>13.72638247947371</v>
+        <v>13.67028421770253</v>
       </c>
       <c r="N24" t="n">
-        <v>312.7264671184133</v>
+        <v>311.1537150569604</v>
       </c>
       <c r="O24" t="n">
-        <v>17.68407382698945</v>
+        <v>17.63954974076607</v>
       </c>
       <c r="P24" t="n">
-        <v>394.1131085653495</v>
+        <v>394.0886342609801</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30710,28 +30854,28 @@
         <v>0.0546</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.2079369889631325</v>
+        <v>-0.2133880708040384</v>
       </c>
       <c r="J25" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K25" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L25" t="n">
-        <v>0.008959322304542994</v>
+        <v>0.00952897391483909</v>
       </c>
       <c r="M25" t="n">
-        <v>13.48002325319278</v>
+        <v>13.44312387946672</v>
       </c>
       <c r="N25" t="n">
-        <v>294.6160341945993</v>
+        <v>293.2314229123145</v>
       </c>
       <c r="O25" t="n">
-        <v>17.16438272104766</v>
+        <v>17.12400136978254</v>
       </c>
       <c r="P25" t="n">
-        <v>394.3708626683239</v>
+        <v>394.4216038185254</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30788,28 +30932,28 @@
         <v>0.055</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2066091595500844</v>
+        <v>-0.2103891855108742</v>
       </c>
       <c r="J26" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K26" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L26" t="n">
-        <v>0.008573519070753655</v>
+        <v>0.008982017074683157</v>
       </c>
       <c r="M26" t="n">
-        <v>14.0589605385585</v>
+        <v>14.01132690814711</v>
       </c>
       <c r="N26" t="n">
-        <v>302.9510015692274</v>
+        <v>301.4774200838001</v>
       </c>
       <c r="O26" t="n">
-        <v>17.40548768547516</v>
+        <v>17.36310513945591</v>
       </c>
       <c r="P26" t="n">
-        <v>396.6261315364277</v>
+        <v>396.6612062213117</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30866,28 +31010,28 @@
         <v>0.047</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1012668714879485</v>
+        <v>0.1018664052534571</v>
       </c>
       <c r="J27" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K27" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002102075597153474</v>
+        <v>0.002150139501086112</v>
       </c>
       <c r="M27" t="n">
-        <v>14.20308785534151</v>
+        <v>14.12970931010838</v>
       </c>
       <c r="N27" t="n">
-        <v>304.1410185023994</v>
+        <v>302.5166644514225</v>
       </c>
       <c r="O27" t="n">
-        <v>17.43963928819628</v>
+        <v>17.39300619362341</v>
       </c>
       <c r="P27" t="n">
-        <v>395.1791044953267</v>
+        <v>395.1735389572403</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30944,28 +31088,28 @@
         <v>0.0461</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3409541201230115</v>
+        <v>0.3504905867815948</v>
       </c>
       <c r="J28" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K28" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02278208217621636</v>
+        <v>0.02425986557546644</v>
       </c>
       <c r="M28" t="n">
-        <v>14.07891801071323</v>
+        <v>14.04218522128487</v>
       </c>
       <c r="N28" t="n">
-        <v>312.5676716474396</v>
+        <v>311.4114116949556</v>
       </c>
       <c r="O28" t="n">
-        <v>17.67958346928569</v>
+        <v>17.64685274191848</v>
       </c>
       <c r="P28" t="n">
-        <v>393.6433069279316</v>
+        <v>393.5549472352066</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -31022,28 +31166,28 @@
         <v>0.0462</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5790137773865344</v>
+        <v>0.5982586470228506</v>
       </c>
       <c r="J29" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K29" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L29" t="n">
-        <v>0.06204222952095817</v>
+        <v>0.06621902784259215</v>
       </c>
       <c r="M29" t="n">
-        <v>14.32405088594252</v>
+        <v>14.33899951744831</v>
       </c>
       <c r="N29" t="n">
-        <v>319.9033825350985</v>
+        <v>320.2853285814837</v>
       </c>
       <c r="O29" t="n">
-        <v>17.88584307588263</v>
+        <v>17.89651721932186</v>
       </c>
       <c r="P29" t="n">
-        <v>384.1265357779546</v>
+        <v>383.9484010254943</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -31100,28 +31244,28 @@
         <v>0.0414</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6280337317565452</v>
+        <v>0.6421596143113343</v>
       </c>
       <c r="J30" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K30" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L30" t="n">
-        <v>0.06073197454903834</v>
+        <v>0.0638356554116043</v>
       </c>
       <c r="M30" t="n">
-        <v>15.5806936767034</v>
+        <v>15.56229620042527</v>
       </c>
       <c r="N30" t="n">
-        <v>377.7400404256582</v>
+        <v>376.7823691832773</v>
       </c>
       <c r="O30" t="n">
-        <v>19.4355355065318</v>
+        <v>19.41088275126295</v>
       </c>
       <c r="P30" t="n">
-        <v>376.5205128596731</v>
+        <v>376.390607315425</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -31178,28 +31322,28 @@
         <v>0.0501</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4530122984860053</v>
+        <v>0.4547382092441565</v>
       </c>
       <c r="J31" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K31" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02933473646311557</v>
+        <v>0.02988075679581392</v>
       </c>
       <c r="M31" t="n">
-        <v>15.87026655794861</v>
+        <v>15.79476526978063</v>
       </c>
       <c r="N31" t="n">
-        <v>417.5653232052939</v>
+        <v>415.3483728528792</v>
       </c>
       <c r="O31" t="n">
-        <v>20.43441516670575</v>
+        <v>20.38009746917024</v>
       </c>
       <c r="P31" t="n">
-        <v>371.8317512810474</v>
+        <v>371.8157689412317</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -31256,28 +31400,28 @@
         <v>0.0608</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3196441143505221</v>
+        <v>0.3228636310825568</v>
       </c>
       <c r="J32" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K32" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01357311214774293</v>
+        <v>0.01400812648209426</v>
       </c>
       <c r="M32" t="n">
-        <v>16.16120485274422</v>
+        <v>16.0862208794844</v>
       </c>
       <c r="N32" t="n">
-        <v>458.0986119009331</v>
+        <v>455.5635240391557</v>
       </c>
       <c r="O32" t="n">
-        <v>21.40323835079479</v>
+        <v>21.34393412750226</v>
       </c>
       <c r="P32" t="n">
-        <v>370.0534132507016</v>
+        <v>370.0236722292934</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -31334,28 +31478,28 @@
         <v>0.0452</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2787815041153776</v>
+        <v>0.2770158448863188</v>
       </c>
       <c r="J33" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K33" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01408196234288017</v>
+        <v>0.01407615722150568</v>
       </c>
       <c r="M33" t="n">
-        <v>14.7621550163003</v>
+        <v>14.67959734536108</v>
       </c>
       <c r="N33" t="n">
-        <v>347.6387451692373</v>
+        <v>345.4821474487188</v>
       </c>
       <c r="O33" t="n">
-        <v>18.64507294620317</v>
+        <v>18.58715006257599</v>
       </c>
       <c r="P33" t="n">
-        <v>371.8137587570032</v>
+        <v>371.8299537228849</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -31412,28 +31556,28 @@
         <v>0.0518</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1660272461600956</v>
+        <v>0.160347342494595</v>
       </c>
       <c r="J34" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K34" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L34" t="n">
-        <v>0.003350940527733326</v>
+        <v>0.003160492564114659</v>
       </c>
       <c r="M34" t="n">
-        <v>17.93240285899846</v>
+        <v>17.86632977056613</v>
       </c>
       <c r="N34" t="n">
-        <v>513.6499381862558</v>
+        <v>511.0225429389001</v>
       </c>
       <c r="O34" t="n">
-        <v>22.66384650023592</v>
+        <v>22.60580772586771</v>
       </c>
       <c r="P34" t="n">
-        <v>366.5582846167522</v>
+        <v>366.610617957006</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -31490,28 +31634,28 @@
         <v>0.0461</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2134843239502208</v>
+        <v>-0.2089609908590501</v>
       </c>
       <c r="J35" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K35" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L35" t="n">
-        <v>0.004836604895424923</v>
+        <v>0.004688258636266762</v>
       </c>
       <c r="M35" t="n">
-        <v>18.83711060752001</v>
+        <v>18.75679756060117</v>
       </c>
       <c r="N35" t="n">
-        <v>579.271071674927</v>
+        <v>576.2135555215361</v>
       </c>
       <c r="O35" t="n">
-        <v>24.06805084910133</v>
+        <v>24.00444866106148</v>
       </c>
       <c r="P35" t="n">
-        <v>372.9417015476249</v>
+        <v>372.9000256776358</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -31568,28 +31712,28 @@
         <v>0.0367</v>
       </c>
       <c r="I36" t="n">
-        <v>0.2663558826168906</v>
+        <v>0.2691339561459558</v>
       </c>
       <c r="J36" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K36" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L36" t="n">
-        <v>0.009225880862954172</v>
+        <v>0.009536031494137287</v>
       </c>
       <c r="M36" t="n">
-        <v>17.7684758629038</v>
+        <v>17.68269879724713</v>
       </c>
       <c r="N36" t="n">
-        <v>475.8837849476206</v>
+        <v>473.2178629340111</v>
       </c>
       <c r="O36" t="n">
-        <v>21.81476071259139</v>
+        <v>21.75357126850695</v>
       </c>
       <c r="P36" t="n">
-        <v>372.1638508322375</v>
+        <v>372.1388935920506</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -31646,28 +31790,28 @@
         <v>0.05</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.2663654223139102</v>
+        <v>-0.2786388690775787</v>
       </c>
       <c r="J37" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K37" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L37" t="n">
-        <v>0.008458483419615304</v>
+        <v>0.009366552306738885</v>
       </c>
       <c r="M37" t="n">
-        <v>18.16831197701374</v>
+        <v>18.12233365603152</v>
       </c>
       <c r="N37" t="n">
-        <v>524.8098189722554</v>
+        <v>522.2252706241662</v>
       </c>
       <c r="O37" t="n">
-        <v>22.90872800860527</v>
+        <v>22.85224869950802</v>
       </c>
       <c r="P37" t="n">
-        <v>380.1510326801871</v>
+        <v>380.259605624047</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -31724,28 +31868,28 @@
         <v>0.0346</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.2220377386786988</v>
+        <v>-0.229163773775103</v>
       </c>
       <c r="J38" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K38" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L38" t="n">
-        <v>0.004329575428437593</v>
+        <v>0.004676794289994124</v>
       </c>
       <c r="M38" t="n">
-        <v>21.42473889703252</v>
+        <v>21.3293337558895</v>
       </c>
       <c r="N38" t="n">
-        <v>701.4324403486783</v>
+        <v>697.2080628733459</v>
       </c>
       <c r="O38" t="n">
-        <v>26.48456985394851</v>
+        <v>26.40469774251063</v>
       </c>
       <c r="P38" t="n">
-        <v>380.7744096480328</v>
+        <v>380.8382095699595</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -31802,28 +31946,28 @@
         <v>0.0591</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.4397278933693411</v>
+        <v>-0.4454814625806061</v>
       </c>
       <c r="J39" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K39" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02048854925560128</v>
+        <v>0.02131175046416245</v>
       </c>
       <c r="M39" t="n">
-        <v>18.5736992395019</v>
+        <v>18.48956378742048</v>
       </c>
       <c r="N39" t="n">
-        <v>553.9764775882609</v>
+        <v>550.6727405764797</v>
       </c>
       <c r="O39" t="n">
-        <v>23.5367049008195</v>
+        <v>23.46641729315491</v>
       </c>
       <c r="P39" t="n">
-        <v>394.0022221553804</v>
+        <v>394.0551144018392</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -31880,28 +32024,28 @@
         <v>0.0354</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.05652637251221522</v>
+        <v>-0.05261961281975006</v>
       </c>
       <c r="J40" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K40" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0004242033187882299</v>
+        <v>0.0003728753363634318</v>
       </c>
       <c r="M40" t="n">
-        <v>16.86224349798428</v>
+        <v>16.77033512448894</v>
       </c>
       <c r="N40" t="n">
-        <v>462.352489979598</v>
+        <v>459.4540145757838</v>
       </c>
       <c r="O40" t="n">
-        <v>21.50238335579565</v>
+        <v>21.43487845955241</v>
       </c>
       <c r="P40" t="n">
-        <v>400.1168803276109</v>
+        <v>400.0812489814226</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
@@ -31958,28 +32102,28 @@
         <v>0.0391</v>
       </c>
       <c r="I41" t="n">
-        <v>0.001014049298031499</v>
+        <v>0.01029636317498441</v>
       </c>
       <c r="J41" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K41" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L41" t="n">
-        <v>1.460638999750685e-07</v>
+        <v>1.525228154464209e-05</v>
       </c>
       <c r="M41" t="n">
-        <v>16.84809333436641</v>
+        <v>16.7825483925344</v>
       </c>
       <c r="N41" t="n">
-        <v>440.793402760531</v>
+        <v>438.3441450508566</v>
       </c>
       <c r="O41" t="n">
-        <v>20.99508044186854</v>
+        <v>20.93666986535482</v>
       </c>
       <c r="P41" t="n">
-        <v>403.1896637573055</v>
+        <v>403.104902481035</v>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
@@ -32036,28 +32180,28 @@
         <v>0.0469</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3299090234357225</v>
+        <v>0.3384429657834307</v>
       </c>
       <c r="J42" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K42" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L42" t="n">
-        <v>0.01480957762735924</v>
+        <v>0.0157895357539668</v>
       </c>
       <c r="M42" t="n">
-        <v>16.7469549265554</v>
+        <v>16.67709658339708</v>
       </c>
       <c r="N42" t="n">
-        <v>440.5636121386781</v>
+        <v>437.9285596285861</v>
       </c>
       <c r="O42" t="n">
-        <v>20.98960724117243</v>
+        <v>20.92674269036121</v>
       </c>
       <c r="P42" t="n">
-        <v>403.4134275758406</v>
+        <v>403.3344661346192</v>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
@@ -32108,28 +32252,28 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>0.4706765126633149</v>
+        <v>0.454330966264735</v>
       </c>
       <c r="J43" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K43" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L43" t="n">
-        <v>0.02805844187545348</v>
+        <v>0.02654022776812304</v>
       </c>
       <c r="M43" t="n">
-        <v>17.22739781574678</v>
+        <v>17.18763940027076</v>
       </c>
       <c r="N43" t="n">
-        <v>476.4170735261313</v>
+        <v>473.994620714399</v>
       </c>
       <c r="O43" t="n">
-        <v>21.82698040330204</v>
+        <v>21.77141751734138</v>
       </c>
       <c r="P43" t="n">
-        <v>403.3934281082662</v>
+        <v>403.5429843911826</v>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
@@ -32167,7 +32311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR212"/>
+  <dimension ref="A1:AR213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72867,6 +73011,220 @@
         </is>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>-34.4679965314076,172.66427427716036</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>-34.46766637247953,172.66516393537017</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>-34.467148080351905,172.66580717869596</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>-34.46664137356248,172.66646560162465</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>-34.466032988755885,172.66698854034615</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>-34.46551257358091,172.66761854008206</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>-34.464363761998364,172.66876134094414</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>-34.46409342761889,172.6696981687773</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>-34.463652347997176,172.67043177723656</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>-34.46197326004963,172.67088538866068</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>-34.46133310075039,172.67104384991308</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>-34.460681284020716,172.67121956799352</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>-34.460015577016065,172.67162741224482</t>
+        </is>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>-34.459350698694834,172.67203802746022</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>-34.45870787961418,172.67252191284072</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>-34.45803442252326,172.67290407945967</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>-34.45734801780771,172.67324327068758</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>-34.45667140959534,172.6736150118365</t>
+        </is>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>-34.45599932430259,172.67400179117598</t>
+        </is>
+      </c>
+      <c r="W213" t="inlineStr">
+        <is>
+          <t>-34.455262880695734,172.67417487880275</t>
+        </is>
+      </c>
+      <c r="X213" t="inlineStr">
+        <is>
+          <t>-34.454582768982625,172.6745350435736</t>
+        </is>
+      </c>
+      <c r="Y213" t="inlineStr">
+        <is>
+          <t>-34.45390855880159,172.67491482429466</t>
+        </is>
+      </c>
+      <c r="Z213" t="inlineStr">
+        <is>
+          <t>-34.45319977982966,172.67517983421752</t>
+        </is>
+      </c>
+      <c r="AA213" t="inlineStr">
+        <is>
+          <t>-34.4524687181051,172.67537087152846</t>
+        </is>
+      </c>
+      <c r="AB213" t="inlineStr">
+        <is>
+          <t>-34.451751503585825,172.67552385111955</t>
+        </is>
+      </c>
+      <c r="AC213" t="inlineStr">
+        <is>
+          <t>-34.45105284732157,172.67565284087024</t>
+        </is>
+      </c>
+      <c r="AD213" t="inlineStr">
+        <is>
+          <t>-34.450357034470734,172.6759485783393</t>
+        </is>
+      </c>
+      <c r="AE213" t="inlineStr">
+        <is>
+          <t>-34.44966729692425,172.67635154710445</t>
+        </is>
+      </c>
+      <c r="AF213" t="inlineStr">
+        <is>
+          <t>-34.44894673868679,172.6765638234831</t>
+        </is>
+      </c>
+      <c r="AG213" t="inlineStr">
+        <is>
+          <t>-34.448226356271235,172.67677722698645</t>
+        </is>
+      </c>
+      <c r="AH213" t="inlineStr">
+        <is>
+          <t>-34.44752035901609,172.67707969151905</t>
+        </is>
+      </c>
+      <c r="AI213" t="inlineStr">
+        <is>
+          <t>-34.446781393975236,172.677178175423</t>
+        </is>
+      </c>
+      <c r="AJ213" t="inlineStr">
+        <is>
+          <t>-34.44603699949831,172.67724309975068</t>
+        </is>
+      </c>
+      <c r="AK213" t="inlineStr">
+        <is>
+          <t>-34.445342562013344,172.67761721728377</t>
+        </is>
+      </c>
+      <c r="AL213" t="inlineStr">
+        <is>
+          <t>-34.444604119129984,172.67771905049526</t>
+        </is>
+      </c>
+      <c r="AM213" t="inlineStr">
+        <is>
+          <t>-34.44386175854738,172.67779667944518</t>
+        </is>
+      </c>
+      <c r="AN213" t="inlineStr">
+        <is>
+          <t>-34.44310163808866,172.67770783296157</t>
+        </is>
+      </c>
+      <c r="AO213" t="inlineStr">
+        <is>
+          <t>-34.44236749389205,172.67772877422195</t>
+        </is>
+      </c>
+      <c r="AP213" t="inlineStr">
+        <is>
+          <t>-34.44162586446307,172.6777583292462</t>
+        </is>
+      </c>
+      <c r="AQ213" t="inlineStr">
+        <is>
+          <t>-34.44090856895452,172.67803679654003</t>
+        </is>
+      </c>
+      <c r="AR213" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0005/nzd0005.xlsx
+++ b/data/nzd0005/nzd0005.xlsx
@@ -29057,13 +29057,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0392</v>
+        <v>0.0489</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0455</v>
+        <v>0.0594</v>
       </c>
       <c r="I2" t="n">
         <v>-0.0005447807902977427</v>
@@ -29135,13 +29135,13 @@
         <v>0.9755935215441779</v>
       </c>
       <c r="F3" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0497</v>
+        <v>0.0538</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0679</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="I3" t="n">
         <v>0.4065585718973974</v>
@@ -29213,13 +29213,13 @@
         <v>0.9511870430877404</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0538</v>
+        <v>0.0625</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0737</v>
+        <v>0.0861</v>
       </c>
       <c r="I4" t="n">
         <v>0.100464003423388</v>
@@ -29291,13 +29291,13 @@
         <v>0.9267805646318346</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0523</v>
+        <v>0.0554</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0707</v>
+        <v>0.0726</v>
       </c>
       <c r="I5" t="n">
         <v>-0.3240726548581359</v>
@@ -29369,13 +29369,13 @@
         <v>0.9023740861761798</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0453</v>
+        <v>0.0546</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0601</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>-0.5577345760588486</v>
@@ -29447,13 +29447,13 @@
         <v>0.87797292976241</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0515</v>
+        <v>0.0585</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0697</v>
+        <v>0.0844</v>
       </c>
       <c r="I7" t="n">
         <v>-0.6177898348204658</v>
@@ -29525,13 +29525,13 @@
         <v>0.8535664513066422</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0334</v>
+        <v>0.0601</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0409</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>0.2149336605531811</v>
@@ -29603,13 +29603,13 @@
         <v>0.8291599728503077</v>
       </c>
       <c r="F9" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06710000000000001</v>
+        <v>0.0603</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0853</v>
+        <v>0.0848</v>
       </c>
       <c r="I9" t="n">
         <v>-0.2741973903782295</v>
@@ -29681,13 +29681,13 @@
         <v>0.8047534943938134</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09</v>
+        <v>0.035</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07729999999999999</v>
+        <v>0.0307</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1077</v>
+        <v>0.0428</v>
       </c>
       <c r="I10" t="n">
         <v>-0.3587302982002584</v>
@@ -29758,9 +29758,15 @@
       <c r="E11" t="n">
         <v>0.780347015937319</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0237</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0312</v>
+      </c>
       <c r="I11" t="n">
         <v>0.2956260279812526</v>
       </c>
@@ -29831,13 +29837,13 @@
         <v>0.7559405374809846</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.025</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0343</v>
+        <v>0.0237</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0512</v>
+        <v>0.0293</v>
       </c>
       <c r="I12" t="n">
         <v>1.132051217113128</v>
@@ -29912,10 +29918,10 @@
         <v>0.035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0335</v>
+        <v>0.0295</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0414</v>
+        <v>0.0373</v>
       </c>
       <c r="I13" t="n">
         <v>1.511860419986265</v>
@@ -29987,13 +29993,13 @@
         <v>0.7077195992809858</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0345</v>
+        <v>0.0321</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0443</v>
+        <v>0.0384</v>
       </c>
       <c r="I14" t="n">
         <v>1.610732263484035</v>
@@ -30068,10 +30074,10 @@
         <v>0.035</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0326</v>
+        <v>0.0297</v>
       </c>
       <c r="H15" t="n">
-        <v>0.042</v>
+        <v>0.0372</v>
       </c>
       <c r="I15" t="n">
         <v>1.952883235743835</v>
@@ -30146,10 +30152,10 @@
         <v>0.03</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0275</v>
+        <v>0.0265</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0328</v>
+        <v>0.0318</v>
       </c>
       <c r="I16" t="n">
         <v>1.991118951208358</v>
@@ -30227,7 +30233,7 @@
         <v>0.0291</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0325</v>
+        <v>0.036</v>
       </c>
       <c r="I17" t="n">
         <v>1.783207056792628</v>
@@ -30299,13 +30305,13 @@
         <v>0.6100936854562941</v>
       </c>
       <c r="F18" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0298</v>
+        <v>0.0348</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0387</v>
+        <v>0.044</v>
       </c>
       <c r="I18" t="n">
         <v>1.592144938270904</v>
@@ -30377,13 +30383,13 @@
         <v>0.5856872069999876</v>
       </c>
       <c r="F19" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0294</v>
+        <v>0.0425</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0375</v>
+        <v>0.056</v>
       </c>
       <c r="I19" t="n">
         <v>1.284261634389603</v>
@@ -30455,13 +30461,13 @@
         <v>0.5612807285439902</v>
       </c>
       <c r="F20" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0328</v>
+        <v>0.0486</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0417</v>
+        <v>0.067</v>
       </c>
       <c r="I20" t="n">
         <v>0.7948992179330442</v>
@@ -30533,13 +30539,13 @@
         <v>0.5368742500877907</v>
       </c>
       <c r="F21" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0386</v>
+        <v>0.0527</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0577</v>
+        <v>0.0732</v>
       </c>
       <c r="I21" t="n">
         <v>0.3774174595221346</v>
@@ -30614,10 +30620,10 @@
         <v>0.06</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0485</v>
+        <v>0.0523</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0745</v>
+        <v>0.0718</v>
       </c>
       <c r="I22" t="n">
         <v>0.007658102301301766</v>
@@ -30689,13 +30695,13 @@
         <v>0.4880612931752845</v>
       </c>
       <c r="F23" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0497</v>
+        <v>0.0525</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06710000000000001</v>
+        <v>0.0708</v>
       </c>
       <c r="I23" t="n">
         <v>-0.1619414266788378</v>
@@ -30767,13 +30773,13 @@
         <v>0.4636548147190848</v>
       </c>
       <c r="F24" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0492</v>
+        <v>0.0533</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0668</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="I24" t="n">
         <v>-0.2412802450474832</v>
@@ -30845,13 +30851,13 @@
         <v>0.4392483362627783</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G25" t="n">
-        <v>0.044</v>
+        <v>0.053</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0546</v>
+        <v>0.0713</v>
       </c>
       <c r="I25" t="n">
         <v>-0.2133880708040382</v>
@@ -30923,13 +30929,13 @@
         <v>0.4148418578064717</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0448</v>
+        <v>0.0491</v>
       </c>
       <c r="H26" t="n">
-        <v>0.055</v>
+        <v>0.0665</v>
       </c>
       <c r="I26" t="n">
         <v>-0.2103891855108741</v>
@@ -31001,13 +31007,13 @@
         <v>0.3904353793503677</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0383</v>
+        <v>0.0491</v>
       </c>
       <c r="H27" t="n">
-        <v>0.047</v>
+        <v>0.0654</v>
       </c>
       <c r="I27" t="n">
         <v>0.1018664052534571</v>
@@ -31079,13 +31085,13 @@
         <v>0.3660289008940611</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0356</v>
+        <v>0.0491</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0461</v>
+        <v>0.0641</v>
       </c>
       <c r="I28" t="n">
         <v>0.3504905867815948</v>
@@ -31157,13 +31163,13 @@
         <v>0.3416836906418686</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0382</v>
+        <v>0.0489</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0462</v>
+        <v>0.0631</v>
       </c>
       <c r="I29" t="n">
         <v>0.5982586470228506</v>
@@ -31235,13 +31241,13 @@
         <v>0.3172772121856752</v>
       </c>
       <c r="F30" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0343</v>
+        <v>0.0457</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0414</v>
+        <v>0.0589</v>
       </c>
       <c r="I30" t="n">
         <v>0.6421904606298804</v>
@@ -31313,13 +31319,13 @@
         <v>0.2928707337292483</v>
       </c>
       <c r="F31" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0394</v>
+        <v>0.0433</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0501</v>
+        <v>0.0568</v>
       </c>
       <c r="I31" t="n">
         <v>0.4547341421107742</v>
@@ -31391,13 +31397,13 @@
         <v>0.2684642552731665</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0462</v>
+        <v>0.0395</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0608</v>
+        <v>0.051</v>
       </c>
       <c r="I32" t="n">
         <v>0.322863631082557</v>
@@ -31472,10 +31478,10 @@
         <v>0.04</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0356</v>
+        <v>0.0366</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0452</v>
+        <v>0.044</v>
       </c>
       <c r="I33" t="n">
         <v>0.2770158448863188</v>
@@ -31547,13 +31553,13 @@
         <v>0.2196512983607695</v>
       </c>
       <c r="F34" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0392</v>
+        <v>0.0336</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0518</v>
+        <v>0.0439</v>
       </c>
       <c r="I34" t="n">
         <v>0.1603559253875396</v>
@@ -31625,13 +31631,13 @@
         <v>0.1952448199045151</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0358</v>
+        <v>0.032</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0461</v>
+        <v>0.0425</v>
       </c>
       <c r="I35" t="n">
         <v>-0.2089609908590501</v>
@@ -31703,13 +31709,13 @@
         <v>0.1708383414481492</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0291</v>
+        <v>0.0346</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0367</v>
+        <v>0.0424</v>
       </c>
       <c r="I36" t="n">
         <v>0.2691301308302088</v>
@@ -31781,13 +31787,13 @@
         <v>0.1464318629920065</v>
       </c>
       <c r="F37" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G37" t="n">
-        <v>0.039</v>
+        <v>0.0291</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05</v>
+        <v>0.0332</v>
       </c>
       <c r="I37" t="n">
         <v>-0.2786430828223961</v>
@@ -31862,10 +31868,10 @@
         <v>0.03</v>
       </c>
       <c r="G38" t="n">
-        <v>0.025</v>
+        <v>0.028</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0346</v>
+        <v>0.036</v>
       </c>
       <c r="I38" t="n">
         <v>-0.2291900657465202</v>
@@ -31937,13 +31943,13 @@
         <v>0.09761890607973124</v>
       </c>
       <c r="F39" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0378</v>
+        <v>0.0287</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0591</v>
+        <v>0.0363</v>
       </c>
       <c r="I39" t="n">
         <v>-0.4454832388921505</v>
@@ -32018,10 +32024,10 @@
         <v>0.03</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0271</v>
+        <v>0.0284</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0354</v>
+        <v>0.0359</v>
       </c>
       <c r="I40" t="n">
         <v>-0.0526462319089969</v>
@@ -32093,13 +32099,13 @@
         <v>0.04881295691236352</v>
       </c>
       <c r="F41" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0298</v>
+        <v>0.0259</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0391</v>
+        <v>0.0394</v>
       </c>
       <c r="I41" t="n">
         <v>0.01031432400516837</v>
@@ -32171,13 +32177,13 @@
         <v>0.02440647845618176</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0339</v>
+        <v>0.0319</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0469</v>
+        <v>0.0398</v>
       </c>
       <c r="I42" t="n">
         <v>0.3384429657834307</v>
@@ -32248,9 +32254,15 @@
       <c r="E43" t="n">
         <v>0</v>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0249</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0312</v>
+      </c>
       <c r="I43" t="n">
         <v>0.454330966264735</v>
       </c>

--- a/data/nzd0005/nzd0005.xlsx
+++ b/data/nzd0005/nzd0005.xlsx
@@ -671,7 +671,7 @@
         <v>338.2</v>
       </c>
       <c r="D2" t="n">
-        <v>333.1</v>
+        <v>333.17</v>
       </c>
       <c r="E2" t="n">
         <v>329.17</v>
@@ -797,7 +797,7 @@
         <v>337.3</v>
       </c>
       <c r="D3" t="n">
-        <v>337.61</v>
+        <v>338.57</v>
       </c>
       <c r="E3" t="n">
         <v>337.96</v>
@@ -905,7 +905,7 @@
         <v>344.94</v>
       </c>
       <c r="D4" t="n">
-        <v>338.41</v>
+        <v>338.34</v>
       </c>
       <c r="E4" t="n">
         <v>337.84</v>
@@ -1043,7 +1043,7 @@
         <v>347.69</v>
       </c>
       <c r="D5" t="n">
-        <v>343.83</v>
+        <v>343.04</v>
       </c>
       <c r="E5" t="n">
         <v>341.47</v>
@@ -1313,7 +1313,7 @@
         <v>347.03</v>
       </c>
       <c r="D7" t="n">
-        <v>343.91</v>
+        <v>343.98</v>
       </c>
       <c r="E7" t="n">
         <v>345.54</v>
@@ -1451,7 +1451,7 @@
         <v>334.99</v>
       </c>
       <c r="D8" t="n">
-        <v>337.19</v>
+        <v>336.6</v>
       </c>
       <c r="E8" t="n">
         <v>344.23</v>
@@ -1587,7 +1587,7 @@
         <v>342.28</v>
       </c>
       <c r="D9" t="n">
-        <v>338.45</v>
+        <v>338.62</v>
       </c>
       <c r="E9" t="n">
         <v>338.68</v>
@@ -1725,7 +1725,7 @@
         <v>339.97</v>
       </c>
       <c r="D10" t="n">
-        <v>339.22</v>
+        <v>339.61</v>
       </c>
       <c r="E10" t="n">
         <v>346.71</v>
@@ -1861,7 +1861,7 @@
         <v>334.48</v>
       </c>
       <c r="D11" t="n">
-        <v>337.21</v>
+        <v>337.91</v>
       </c>
       <c r="E11" t="n">
         <v>343.76</v>
@@ -1999,7 +1999,7 @@
         <v>351.13</v>
       </c>
       <c r="D12" t="n">
-        <v>347.42</v>
+        <v>346.53</v>
       </c>
       <c r="E12" t="n">
         <v>348.79</v>
@@ -2137,7 +2137,7 @@
         <v>345.08</v>
       </c>
       <c r="D13" t="n">
-        <v>345.06</v>
+        <v>345.5</v>
       </c>
       <c r="E13" t="n">
         <v>342.49</v>
@@ -2275,7 +2275,7 @@
         <v>350.17</v>
       </c>
       <c r="D14" t="n">
-        <v>340.14</v>
+        <v>340.67</v>
       </c>
       <c r="E14" t="n">
         <v>327.96</v>
@@ -2409,7 +2409,7 @@
         <v>338.18</v>
       </c>
       <c r="D15" t="n">
-        <v>332.53</v>
+        <v>332.63</v>
       </c>
       <c r="E15" t="n">
         <v>334.15</v>
@@ -2543,7 +2543,7 @@
         <v>336.32</v>
       </c>
       <c r="D16" t="n">
-        <v>331.79</v>
+        <v>330.81</v>
       </c>
       <c r="E16" t="n">
         <v>335.95</v>
@@ -2681,7 +2681,7 @@
         <v>338.91</v>
       </c>
       <c r="D17" t="n">
-        <v>336.61</v>
+        <v>336.58</v>
       </c>
       <c r="E17" t="n">
         <v>339.71</v>
@@ -2819,7 +2819,7 @@
         <v>339.76</v>
       </c>
       <c r="D18" t="n">
-        <v>333.56</v>
+        <v>333.85</v>
       </c>
       <c r="E18" t="n">
         <v>328.71</v>
@@ -2929,7 +2929,7 @@
         <v>332.34</v>
       </c>
       <c r="D19" t="n">
-        <v>332.65</v>
+        <v>332.69</v>
       </c>
       <c r="E19" t="n">
         <v>332.2</v>
@@ -3059,7 +3059,7 @@
         <v>342.97</v>
       </c>
       <c r="D20" t="n">
-        <v>338.52</v>
+        <v>337.79</v>
       </c>
       <c r="E20" t="n">
         <v>335.89</v>
@@ -3179,7 +3179,7 @@
         <v>344.53</v>
       </c>
       <c r="D21" t="n">
-        <v>343.63</v>
+        <v>343.96</v>
       </c>
       <c r="E21" t="n">
         <v>344.04</v>
@@ -3317,7 +3317,7 @@
         <v>338.18</v>
       </c>
       <c r="D22" t="n">
-        <v>337.52</v>
+        <v>338.28</v>
       </c>
       <c r="E22" t="n">
         <v>341.26</v>
@@ -3421,7 +3421,7 @@
         <v>348.39</v>
       </c>
       <c r="D23" t="n">
-        <v>341.81</v>
+        <v>342.14</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -3531,7 +3531,7 @@
         <v>355.47</v>
       </c>
       <c r="D24" t="n">
-        <v>348.48</v>
+        <v>347.52</v>
       </c>
       <c r="E24" t="n">
         <v>349.82</v>
@@ -3783,7 +3783,7 @@
         <v>359.7</v>
       </c>
       <c r="D26" t="n">
-        <v>348.63</v>
+        <v>347.52</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -3903,7 +3903,7 @@
         <v>354.26</v>
       </c>
       <c r="D27" t="n">
-        <v>351.36</v>
+        <v>350.72</v>
       </c>
       <c r="E27" t="n">
         <v>353.12</v>
@@ -3995,7 +3995,7 @@
         <v>330.3</v>
       </c>
       <c r="D28" t="n">
-        <v>336.84</v>
+        <v>337.66</v>
       </c>
       <c r="E28" t="n">
         <v>339.72</v>
@@ -4083,7 +4083,7 @@
         <v>334.3</v>
       </c>
       <c r="D29" t="n">
-        <v>330.22</v>
+        <v>329.4</v>
       </c>
       <c r="E29" t="n">
         <v>338.18</v>
@@ -4215,7 +4215,7 @@
         <v>336.55</v>
       </c>
       <c r="D30" t="n">
-        <v>332.06</v>
+        <v>331.44</v>
       </c>
       <c r="E30" t="n">
         <v>334.38</v>
@@ -4347,7 +4347,7 @@
         <v>357.94</v>
       </c>
       <c r="D31" t="n">
-        <v>335.83</v>
+        <v>336</v>
       </c>
       <c r="E31" t="n">
         <v>331.15</v>
@@ -4483,7 +4483,7 @@
         <v>334.5</v>
       </c>
       <c r="D32" t="n">
-        <v>338.16</v>
+        <v>338.46</v>
       </c>
       <c r="E32" t="n">
         <v>336.49</v>
@@ -4685,7 +4685,7 @@
         <v>360.88</v>
       </c>
       <c r="D34" t="n">
-        <v>362.93</v>
+        <v>363.29</v>
       </c>
       <c r="E34" t="n">
         <v>363.22</v>
@@ -4791,7 +4791,7 @@
         <v>380.87</v>
       </c>
       <c r="D35" t="n">
-        <v>366.58</v>
+        <v>365.54</v>
       </c>
       <c r="E35" t="n">
         <v>362.65</v>
@@ -4921,7 +4921,7 @@
         <v>365.98</v>
       </c>
       <c r="D36" t="n">
-        <v>359.36</v>
+        <v>358.13</v>
       </c>
       <c r="E36" t="n">
         <v>356.75</v>
@@ -5133,7 +5133,7 @@
         <v>396.93</v>
       </c>
       <c r="D38" t="n">
-        <v>379.22</v>
+        <v>379.55</v>
       </c>
       <c r="E38" t="n">
         <v>376.45</v>
@@ -5265,7 +5265,7 @@
         <v>343.63</v>
       </c>
       <c r="D39" t="n">
-        <v>339.03</v>
+        <v>338.49</v>
       </c>
       <c r="E39" t="n">
         <v>343.18</v>
@@ -5395,7 +5395,7 @@
         <v>352.5</v>
       </c>
       <c r="D40" t="n">
-        <v>349.16</v>
+        <v>349.53</v>
       </c>
       <c r="E40" t="n">
         <v>349.83</v>
@@ -5491,7 +5491,7 @@
         <v>350.97</v>
       </c>
       <c r="D41" t="n">
-        <v>356.76</v>
+        <v>357.49</v>
       </c>
       <c r="E41" t="n">
         <v>361.86</v>
@@ -5625,7 +5625,7 @@
         <v>358.33</v>
       </c>
       <c r="D42" t="n">
-        <v>357.91</v>
+        <v>357.72</v>
       </c>
       <c r="E42" t="n">
         <v>357.88</v>
@@ -5827,7 +5827,7 @@
         <v>363.55</v>
       </c>
       <c r="D44" t="n">
-        <v>362.92</v>
+        <v>362.88</v>
       </c>
       <c r="E44" t="n">
         <v>361.19</v>
@@ -5951,7 +5951,7 @@
         <v>350.41</v>
       </c>
       <c r="D45" t="n">
-        <v>351.01</v>
+        <v>351.41</v>
       </c>
       <c r="E45" t="n">
         <v>351.96</v>
@@ -6047,7 +6047,7 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>362.52</v>
+        <v>361.56</v>
       </c>
       <c r="E46" t="n">
         <v>360.95</v>
@@ -6145,7 +6145,7 @@
         <v>344.3</v>
       </c>
       <c r="D47" t="n">
-        <v>344.08</v>
+        <v>344.55</v>
       </c>
       <c r="E47" t="n">
         <v>346.98</v>
@@ -6375,7 +6375,7 @@
         <v>349.8</v>
       </c>
       <c r="D49" t="n">
-        <v>347.57</v>
+        <v>346.99</v>
       </c>
       <c r="E49" t="n">
         <v>354.83</v>
@@ -6509,7 +6509,7 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>338.38</v>
+        <v>338.88</v>
       </c>
       <c r="E50" t="n">
         <v>338.32</v>
@@ -6621,7 +6621,7 @@
         <v>336.34</v>
       </c>
       <c r="D51" t="n">
-        <v>337.99</v>
+        <v>338.35</v>
       </c>
       <c r="E51" t="n">
         <v>338.82</v>
@@ -6741,7 +6741,7 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>345.7</v>
+        <v>345.21</v>
       </c>
       <c r="E52" t="n">
         <v>351.32</v>
@@ -6955,7 +6955,7 @@
         <v>362.81</v>
       </c>
       <c r="D54" t="n">
-        <v>359.02</v>
+        <v>358.18</v>
       </c>
       <c r="E54" t="n">
         <v>365.82</v>
@@ -7073,7 +7073,7 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>359.52</v>
+        <v>359.39</v>
       </c>
       <c r="E55" t="n">
         <v>358.43</v>
@@ -7191,7 +7191,7 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>362.95</v>
+        <v>361.89</v>
       </c>
       <c r="E56" t="n">
         <v>363.98</v>
@@ -7285,7 +7285,7 @@
         <v>339.62</v>
       </c>
       <c r="D57" t="n">
-        <v>343.46</v>
+        <v>344.05</v>
       </c>
       <c r="E57" t="n">
         <v>350.38</v>
@@ -7407,7 +7407,7 @@
         <v>349.15</v>
       </c>
       <c r="D58" t="n">
-        <v>349.75</v>
+        <v>349.92</v>
       </c>
       <c r="E58" t="n">
         <v>354.87</v>
@@ -7545,7 +7545,7 @@
         <v>346.95</v>
       </c>
       <c r="D59" t="n">
-        <v>345.78</v>
+        <v>345.19</v>
       </c>
       <c r="E59" t="n">
         <v>346.69</v>
@@ -7659,7 +7659,7 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>354</v>
+        <v>352.87</v>
       </c>
       <c r="E60" t="n">
         <v>355.15</v>
@@ -7901,7 +7901,7 @@
         <v>336.85</v>
       </c>
       <c r="D62" t="n">
-        <v>337.92</v>
+        <v>338.62</v>
       </c>
       <c r="E62" t="n">
         <v>335.63</v>
@@ -8015,7 +8015,7 @@
         <v>347.04</v>
       </c>
       <c r="D63" t="n">
-        <v>349.09</v>
+        <v>349.46</v>
       </c>
       <c r="E63" t="n">
         <v>355.67</v>
@@ -8135,7 +8135,7 @@
         <v>360.21</v>
       </c>
       <c r="D64" t="n">
-        <v>358.3</v>
+        <v>357.24</v>
       </c>
       <c r="E64" t="n">
         <v>357.85</v>
@@ -8357,7 +8357,7 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>365.49</v>
+        <v>364.7</v>
       </c>
       <c r="E66" t="n">
         <v>362.47</v>
@@ -8477,7 +8477,7 @@
         <v>377.15</v>
       </c>
       <c r="D67" t="n">
-        <v>372.33</v>
+        <v>371.73</v>
       </c>
       <c r="E67" t="n">
         <v>374.4</v>
@@ -8733,7 +8733,7 @@
         <v>354.3</v>
       </c>
       <c r="D69" t="n">
-        <v>350.87</v>
+        <v>351.51</v>
       </c>
       <c r="E69" t="n">
         <v>357.79</v>
@@ -8971,7 +8971,7 @@
         <v>365.49</v>
       </c>
       <c r="D71" t="n">
-        <v>364.35</v>
+        <v>364.39</v>
       </c>
       <c r="E71" t="n">
         <v>365.48</v>
@@ -9099,7 +9099,7 @@
         <v>347.98</v>
       </c>
       <c r="D72" t="n">
-        <v>345.61</v>
+        <v>344.83</v>
       </c>
       <c r="E72" t="n">
         <v>347.75</v>
@@ -9217,7 +9217,7 @@
         <v>369</v>
       </c>
       <c r="D73" t="n">
-        <v>365.43</v>
+        <v>364.33</v>
       </c>
       <c r="E73" t="n">
         <v>370.95</v>
@@ -9339,7 +9339,7 @@
         <v>379</v>
       </c>
       <c r="D74" t="n">
-        <v>375.31</v>
+        <v>374.69</v>
       </c>
       <c r="E74" t="n">
         <v>382.47</v>
@@ -9471,7 +9471,7 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>383.34</v>
+        <v>383.71</v>
       </c>
       <c r="E75" t="n">
         <v>393.37</v>
@@ -9581,7 +9581,7 @@
         <v>400.59</v>
       </c>
       <c r="D76" t="n">
-        <v>396.81</v>
+        <v>397.4</v>
       </c>
       <c r="E76" t="n">
         <v>393.66</v>
@@ -9813,7 +9813,7 @@
         <v>339.32</v>
       </c>
       <c r="D78" t="n">
-        <v>340.12</v>
+        <v>339.39</v>
       </c>
       <c r="E78" t="n">
         <v>337.58</v>
@@ -9927,7 +9927,7 @@
         <v>355.82</v>
       </c>
       <c r="D79" t="n">
-        <v>353.97</v>
+        <v>352.78</v>
       </c>
       <c r="E79" t="n">
         <v>355.9</v>
@@ -10167,7 +10167,7 @@
         <v>358.76</v>
       </c>
       <c r="D81" t="n">
-        <v>360.42</v>
+        <v>360.43</v>
       </c>
       <c r="E81" t="n">
         <v>362.52</v>
@@ -10291,7 +10291,7 @@
         <v>352.33</v>
       </c>
       <c r="D82" t="n">
-        <v>348.53</v>
+        <v>349.32</v>
       </c>
       <c r="E82" t="n">
         <v>343.52</v>
@@ -10405,7 +10405,7 @@
         <v>358.88</v>
       </c>
       <c r="D83" t="n">
-        <v>358.76</v>
+        <v>357.89</v>
       </c>
       <c r="E83" t="n">
         <v>364.13</v>
@@ -10753,7 +10753,7 @@
         <v>378.16</v>
       </c>
       <c r="D86" t="n">
-        <v>373.95</v>
+        <v>373.19</v>
       </c>
       <c r="E86" t="n">
         <v>371.71</v>
@@ -10875,7 +10875,7 @@
         <v>359.71</v>
       </c>
       <c r="D87" t="n">
-        <v>363.87</v>
+        <v>363.63</v>
       </c>
       <c r="E87" t="n">
         <v>364.35</v>
@@ -10993,7 +10993,7 @@
         <v>376.67</v>
       </c>
       <c r="D88" t="n">
-        <v>372.14</v>
+        <v>371.96</v>
       </c>
       <c r="E88" t="n">
         <v>373.09</v>
@@ -11115,7 +11115,7 @@
         <v>346.37</v>
       </c>
       <c r="D89" t="n">
-        <v>344.52</v>
+        <v>344.03</v>
       </c>
       <c r="E89" t="n">
         <v>342.11</v>
@@ -11219,7 +11219,7 @@
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>359.37</v>
+        <v>359.53</v>
       </c>
       <c r="E90" t="n">
         <v>360.77</v>
@@ -11337,7 +11337,7 @@
         <v>380.37</v>
       </c>
       <c r="D91" t="n">
-        <v>375.33</v>
+        <v>376.2</v>
       </c>
       <c r="E91" t="n">
         <v>392.01</v>
@@ -11453,7 +11453,7 @@
         <v>362.82</v>
       </c>
       <c r="D92" t="n">
-        <v>364.79</v>
+        <v>365.26</v>
       </c>
       <c r="E92" t="n">
         <v>370.62</v>
@@ -11687,7 +11687,7 @@
         <v>345.7</v>
       </c>
       <c r="D94" t="n">
-        <v>350.19</v>
+        <v>350.92</v>
       </c>
       <c r="E94" t="n">
         <v>352.14</v>
@@ -11911,7 +11911,7 @@
         <v>365.93</v>
       </c>
       <c r="D96" t="n">
-        <v>363.04</v>
+        <v>362.31</v>
       </c>
       <c r="E96" t="n">
         <v>364.19</v>
@@ -12153,7 +12153,7 @@
         <v>366.27</v>
       </c>
       <c r="D98" t="n">
-        <v>363.16</v>
+        <v>362.22</v>
       </c>
       <c r="E98" t="n">
         <v>370.46</v>
@@ -12291,7 +12291,7 @@
         <v>359.82</v>
       </c>
       <c r="D99" t="n">
-        <v>361.02</v>
+        <v>360.84</v>
       </c>
       <c r="E99" t="n">
         <v>365.54</v>
@@ -12491,7 +12491,7 @@
         <v>364.25</v>
       </c>
       <c r="D101" t="n">
-        <v>365.26</v>
+        <v>366</v>
       </c>
       <c r="E101" t="n">
         <v>372.01</v>
@@ -12623,7 +12623,7 @@
         <v>361.49</v>
       </c>
       <c r="D102" t="n">
-        <v>357.17</v>
+        <v>356.07</v>
       </c>
       <c r="E102" t="n">
         <v>359.99</v>
@@ -12739,7 +12739,7 @@
         <v>356.77</v>
       </c>
       <c r="D103" t="n">
-        <v>356.14</v>
+        <v>356.37</v>
       </c>
       <c r="E103" t="n">
         <v>359.81</v>
@@ -12875,7 +12875,7 @@
         <v>361.12</v>
       </c>
       <c r="D104" t="n">
-        <v>357.46</v>
+        <v>356.84</v>
       </c>
       <c r="E104" t="n">
         <v>362.76</v>
@@ -13011,7 +13011,7 @@
         <v>365.42</v>
       </c>
       <c r="D105" t="n">
-        <v>363.1</v>
+        <v>362.26</v>
       </c>
       <c r="E105" t="n">
         <v>370.03</v>
@@ -13145,7 +13145,7 @@
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>363.11</v>
+        <v>361.71</v>
       </c>
       <c r="E106" t="n">
         <v>366.71</v>
@@ -13283,7 +13283,7 @@
         <v>369.54</v>
       </c>
       <c r="D107" t="n">
-        <v>367.45</v>
+        <v>367.15</v>
       </c>
       <c r="E107" t="n">
         <v>379.43</v>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>404.37</v>
+        <v>404.91</v>
       </c>
       <c r="E109" t="n">
         <v>385.67</v>
@@ -13673,7 +13673,7 @@
         <v>354.57</v>
       </c>
       <c r="D110" t="n">
-        <v>351</v>
+        <v>350.44</v>
       </c>
       <c r="E110" t="n">
         <v>351.7</v>
@@ -13805,7 +13805,7 @@
         <v>366.56</v>
       </c>
       <c r="D111" t="n">
-        <v>360.34</v>
+        <v>359.68</v>
       </c>
       <c r="E111" t="n">
         <v>363.22</v>
@@ -13941,7 +13941,7 @@
         <v>348.46</v>
       </c>
       <c r="D112" t="n">
-        <v>350.27</v>
+        <v>349.6</v>
       </c>
       <c r="E112" t="n">
         <v>347.57</v>
@@ -14035,7 +14035,7 @@
         <v>361.12</v>
       </c>
       <c r="D113" t="n">
-        <v>361.59</v>
+        <v>361.41</v>
       </c>
       <c r="E113" t="n">
         <v>366.1</v>
@@ -14125,7 +14125,7 @@
         <v>372.2</v>
       </c>
       <c r="D114" t="n">
-        <v>367.93</v>
+        <v>367.23</v>
       </c>
       <c r="E114" t="n">
         <v>369.17</v>
@@ -14373,7 +14373,7 @@
         <v>360.25</v>
       </c>
       <c r="D116" t="n">
-        <v>354.87</v>
+        <v>354.24</v>
       </c>
       <c r="E116" t="n">
         <v>359.68</v>
@@ -14503,7 +14503,7 @@
         <v>354.65</v>
       </c>
       <c r="D117" t="n">
-        <v>350.6</v>
+        <v>350.37</v>
       </c>
       <c r="E117" t="n">
         <v>352.67</v>
@@ -14601,7 +14601,7 @@
         <v>364.51</v>
       </c>
       <c r="D118" t="n">
-        <v>361.02</v>
+        <v>360.26</v>
       </c>
       <c r="E118" t="n">
         <v>364.62</v>
@@ -14737,7 +14737,7 @@
         <v>387.66</v>
       </c>
       <c r="D119" t="n">
-        <v>382.18</v>
+        <v>381.31</v>
       </c>
       <c r="E119" t="n">
         <v>382.43</v>
@@ -14875,7 +14875,7 @@
         <v>390.81</v>
       </c>
       <c r="D120" t="n">
-        <v>383.11</v>
+        <v>381.81</v>
       </c>
       <c r="E120" t="n">
         <v>384.66</v>
@@ -15013,7 +15013,7 @@
         <v>384.28</v>
       </c>
       <c r="D121" t="n">
-        <v>379.13</v>
+        <v>377.8</v>
       </c>
       <c r="E121" t="n">
         <v>379.24</v>
@@ -15151,7 +15151,7 @@
         <v>402.66</v>
       </c>
       <c r="D122" t="n">
-        <v>389.17</v>
+        <v>389.64</v>
       </c>
       <c r="E122" t="n">
         <v>388.18</v>
@@ -15259,7 +15259,7 @@
         <v>379.18</v>
       </c>
       <c r="D123" t="n">
-        <v>376.58</v>
+        <v>376.56</v>
       </c>
       <c r="E123" t="n">
         <v>371.75</v>
@@ -15395,7 +15395,7 @@
         <v>386.84</v>
       </c>
       <c r="D124" t="n">
-        <v>377.56</v>
+        <v>377.03</v>
       </c>
       <c r="E124" t="n">
         <v>373.03</v>
@@ -15533,7 +15533,7 @@
         <v>403.95</v>
       </c>
       <c r="D125" t="n">
-        <v>359.38</v>
+        <v>360.28</v>
       </c>
       <c r="E125" t="n">
         <v>353.13</v>
@@ -15653,7 +15653,7 @@
         <v>394.77</v>
       </c>
       <c r="D126" t="n">
-        <v>387.33</v>
+        <v>388.1</v>
       </c>
       <c r="E126" t="n">
         <v>379.21</v>
@@ -15915,7 +15915,7 @@
         <v>400.77</v>
       </c>
       <c r="D128" t="n">
-        <v>385.2</v>
+        <v>384.71</v>
       </c>
       <c r="E128" t="n">
         <v>372.5</v>
@@ -16043,7 +16043,7 @@
         <v>424.94</v>
       </c>
       <c r="D129" t="n">
-        <v>396.79</v>
+        <v>397.33</v>
       </c>
       <c r="E129" t="n">
         <v>370.08</v>
@@ -16147,7 +16147,7 @@
         <v>381.6</v>
       </c>
       <c r="D130" t="n">
-        <v>368.66</v>
+        <v>368.6</v>
       </c>
       <c r="E130" t="n">
         <v>361.91</v>
@@ -16279,7 +16279,7 @@
         <v>355.81</v>
       </c>
       <c r="D131" t="n">
-        <v>344.61</v>
+        <v>343.57</v>
       </c>
       <c r="E131" t="n">
         <v>339.38</v>
@@ -16411,7 +16411,7 @@
         <v>359.94</v>
       </c>
       <c r="D132" t="n">
-        <v>351.47</v>
+        <v>351.14</v>
       </c>
       <c r="E132" t="n">
         <v>351.65</v>
@@ -16629,7 +16629,7 @@
         <v>349.68</v>
       </c>
       <c r="D134" t="n">
-        <v>343.3</v>
+        <v>343.2</v>
       </c>
       <c r="E134" t="n">
         <v>334.3</v>
@@ -16747,7 +16747,7 @@
         <v>379.53</v>
       </c>
       <c r="D135" t="n">
-        <v>368.95</v>
+        <v>369.39</v>
       </c>
       <c r="E135" t="n">
         <v>360.95</v>
@@ -16885,7 +16885,7 @@
         <v>378.75</v>
       </c>
       <c r="D136" t="n">
-        <v>370.09</v>
+        <v>369.28</v>
       </c>
       <c r="E136" t="n">
         <v>362.05</v>
@@ -17023,7 +17023,7 @@
         <v>377.24</v>
       </c>
       <c r="D137" t="n">
-        <v>366.61</v>
+        <v>365.54</v>
       </c>
       <c r="E137" t="n">
         <v>362.48</v>
@@ -17289,7 +17289,7 @@
         <v>385.11</v>
       </c>
       <c r="D139" t="n">
-        <v>363.89</v>
+        <v>364.16</v>
       </c>
       <c r="E139" t="n">
         <v>355.62</v>
@@ -17417,7 +17417,7 @@
         <v>355.83</v>
       </c>
       <c r="D140" t="n">
-        <v>345.91</v>
+        <v>346.58</v>
       </c>
       <c r="E140" t="n">
         <v>335.91</v>
@@ -17555,7 +17555,7 @@
         <v>364.19</v>
       </c>
       <c r="D141" t="n">
-        <v>353.17</v>
+        <v>353.84</v>
       </c>
       <c r="E141" t="n">
         <v>343.57</v>
@@ -17693,7 +17693,7 @@
         <v>336.14</v>
       </c>
       <c r="D142" t="n">
-        <v>332.34</v>
+        <v>332.2</v>
       </c>
       <c r="E142" t="n">
         <v>326.45</v>
@@ -17811,7 +17811,7 @@
         <v>364.85</v>
       </c>
       <c r="D143" t="n">
-        <v>352.83</v>
+        <v>352.39</v>
       </c>
       <c r="E143" t="n">
         <v>350.77</v>
@@ -17939,7 +17939,7 @@
         <v>359.79</v>
       </c>
       <c r="D144" t="n">
-        <v>358.27</v>
+        <v>358.8</v>
       </c>
       <c r="E144" t="n">
         <v>355.35</v>
@@ -18191,7 +18191,7 @@
         <v>357.5</v>
       </c>
       <c r="D146" t="n">
-        <v>353.2</v>
+        <v>353.44</v>
       </c>
       <c r="E146" t="n">
         <v>348.03</v>
@@ -18329,7 +18329,7 @@
         <v>369.14</v>
       </c>
       <c r="D147" t="n">
-        <v>359.85</v>
+        <v>359.04</v>
       </c>
       <c r="E147" t="n">
         <v>356.71</v>
@@ -18467,7 +18467,7 @@
         <v>369.53</v>
       </c>
       <c r="D148" t="n">
-        <v>356</v>
+        <v>354.87</v>
       </c>
       <c r="E148" t="n">
         <v>352.55</v>
@@ -18571,7 +18571,7 @@
         <v>365.64</v>
       </c>
       <c r="D149" t="n">
-        <v>354.44</v>
+        <v>353.46</v>
       </c>
       <c r="E149" t="n">
         <v>348.21</v>
@@ -18659,7 +18659,7 @@
         <v>339.19</v>
       </c>
       <c r="D150" t="n">
-        <v>333.24</v>
+        <v>332.77</v>
       </c>
       <c r="E150" t="n">
         <v>328.98</v>
@@ -18783,7 +18783,7 @@
         <v>352.97</v>
       </c>
       <c r="D151" t="n">
-        <v>343.82</v>
+        <v>342.85</v>
       </c>
       <c r="E151" t="n">
         <v>344.51</v>
@@ -18907,7 +18907,7 @@
         <v>355.61</v>
       </c>
       <c r="D152" t="n">
-        <v>350.85</v>
+        <v>349.42</v>
       </c>
       <c r="E152" t="n">
         <v>348.29</v>
@@ -19043,7 +19043,7 @@
         <v>357.91</v>
       </c>
       <c r="D153" t="n">
-        <v>353.22</v>
+        <v>353.26</v>
       </c>
       <c r="E153" t="n">
         <v>348.47</v>
@@ -19133,7 +19133,7 @@
         <v>367.16</v>
       </c>
       <c r="D154" t="n">
-        <v>360.34</v>
+        <v>359.17</v>
       </c>
       <c r="E154" t="n">
         <v>356.1</v>
@@ -19243,7 +19243,7 @@
         <v>362.28</v>
       </c>
       <c r="D155" t="n">
-        <v>352.04</v>
+        <v>350.6</v>
       </c>
       <c r="E155" t="n">
         <v>345.73</v>
@@ -19381,7 +19381,7 @@
         <v>362.9</v>
       </c>
       <c r="D156" t="n">
-        <v>355.2</v>
+        <v>354.3</v>
       </c>
       <c r="E156" t="n">
         <v>349.1</v>
@@ -19519,7 +19519,7 @@
         <v>359.83</v>
       </c>
       <c r="D157" t="n">
-        <v>354.71</v>
+        <v>354.18</v>
       </c>
       <c r="E157" t="n">
         <v>351.46</v>
@@ -19887,7 +19887,7 @@
         <v>359.59</v>
       </c>
       <c r="D160" t="n">
-        <v>351.4</v>
+        <v>350.99</v>
       </c>
       <c r="E160" t="n">
         <v>344.36</v>
@@ -20025,7 +20025,7 @@
         <v>369.17</v>
       </c>
       <c r="D161" t="n">
-        <v>359.76</v>
+        <v>358.86</v>
       </c>
       <c r="E161" t="n">
         <v>350.85</v>
@@ -20163,7 +20163,7 @@
         <v>368.13</v>
       </c>
       <c r="D162" t="n">
-        <v>354.18</v>
+        <v>352.77</v>
       </c>
       <c r="E162" t="n">
         <v>348.39</v>
@@ -20301,7 +20301,7 @@
         <v>361.63</v>
       </c>
       <c r="D163" t="n">
-        <v>352.88</v>
+        <v>353.35</v>
       </c>
       <c r="E163" t="n">
         <v>349.99</v>
@@ -20439,7 +20439,7 @@
         <v>357.88</v>
       </c>
       <c r="D164" t="n">
-        <v>347.79</v>
+        <v>346.72</v>
       </c>
       <c r="E164" t="n">
         <v>342.75</v>
@@ -20575,7 +20575,7 @@
         <v>364.47</v>
       </c>
       <c r="D165" t="n">
-        <v>354.98</v>
+        <v>354.18</v>
       </c>
       <c r="E165" t="n">
         <v>355.31</v>
@@ -20713,7 +20713,7 @@
         <v>357.9</v>
       </c>
       <c r="D166" t="n">
-        <v>357.09</v>
+        <v>357.69</v>
       </c>
       <c r="E166" t="n">
         <v>350.93</v>
@@ -20851,7 +20851,7 @@
         <v>354.92</v>
       </c>
       <c r="D167" t="n">
-        <v>337.25</v>
+        <v>336.36</v>
       </c>
       <c r="E167" t="n">
         <v>334.76</v>
@@ -20961,7 +20961,7 @@
         <v>333.08</v>
       </c>
       <c r="D168" t="n">
-        <v>330.01</v>
+        <v>331</v>
       </c>
       <c r="E168" t="n">
         <v>325.7</v>
@@ -21095,7 +21095,7 @@
         <v>359.43</v>
       </c>
       <c r="D169" t="n">
-        <v>343.82</v>
+        <v>343.46</v>
       </c>
       <c r="E169" t="n">
         <v>339.27</v>
@@ -21223,7 +21223,7 @@
         <v>345.02</v>
       </c>
       <c r="D170" t="n">
-        <v>333.91</v>
+        <v>334.67</v>
       </c>
       <c r="E170" t="n">
         <v>327.76</v>
@@ -21361,7 +21361,7 @@
         <v>346.44</v>
       </c>
       <c r="D171" t="n">
-        <v>342.84</v>
+        <v>343.55</v>
       </c>
       <c r="E171" t="n">
         <v>339</v>
@@ -21499,7 +21499,7 @@
         <v>355.37</v>
       </c>
       <c r="D172" t="n">
-        <v>346.01</v>
+        <v>344.74</v>
       </c>
       <c r="E172" t="n">
         <v>340.61</v>
@@ -21637,7 +21637,7 @@
         <v>347.64</v>
       </c>
       <c r="D173" t="n">
-        <v>346.16</v>
+        <v>346.9</v>
       </c>
       <c r="E173" t="n">
         <v>342.97</v>
@@ -21775,7 +21775,7 @@
         <v>360.05</v>
       </c>
       <c r="D174" t="n">
-        <v>350.04</v>
+        <v>349.46</v>
       </c>
       <c r="E174" t="n">
         <v>349.89</v>
@@ -21913,7 +21913,7 @@
         <v>351.66</v>
       </c>
       <c r="D175" t="n">
-        <v>349.04</v>
+        <v>349.51</v>
       </c>
       <c r="E175" t="n">
         <v>353.13</v>
@@ -22031,7 +22031,7 @@
         <v>360.41</v>
       </c>
       <c r="D176" t="n">
-        <v>351.19</v>
+        <v>350.58</v>
       </c>
       <c r="E176" t="n">
         <v>351.13</v>
@@ -22169,7 +22169,7 @@
         <v>359.19</v>
       </c>
       <c r="D177" t="n">
-        <v>353.37</v>
+        <v>353.47</v>
       </c>
       <c r="E177" t="n">
         <v>351.81</v>
@@ -22307,7 +22307,7 @@
         <v>335.47</v>
       </c>
       <c r="D178" t="n">
-        <v>335.88</v>
+        <v>336.61</v>
       </c>
       <c r="E178" t="n">
         <v>331.06</v>
@@ -22427,7 +22427,7 @@
         <v>356.61</v>
       </c>
       <c r="D179" t="n">
-        <v>345.28</v>
+        <v>344.79</v>
       </c>
       <c r="E179" t="n">
         <v>339.49</v>
@@ -22565,7 +22565,7 @@
         <v>325.97</v>
       </c>
       <c r="D180" t="n">
-        <v>319.4</v>
+        <v>319.21</v>
       </c>
       <c r="E180" t="n">
         <v>314.08</v>
@@ -22771,7 +22771,7 @@
         <v>334.23</v>
       </c>
       <c r="D182" t="n">
-        <v>327.94</v>
+        <v>328.6</v>
       </c>
       <c r="E182" t="n">
         <v>316.76</v>
@@ -22893,7 +22893,7 @@
         <v>356.86</v>
       </c>
       <c r="D183" t="n">
-        <v>349.2</v>
+        <v>349.31</v>
       </c>
       <c r="E183" t="n">
         <v>339.25</v>
@@ -23031,7 +23031,7 @@
         <v>349.55</v>
       </c>
       <c r="D184" t="n">
-        <v>338.92</v>
+        <v>338.54</v>
       </c>
       <c r="E184" t="n">
         <v>332.57</v>
@@ -23169,7 +23169,7 @@
         <v>350.93</v>
       </c>
       <c r="D185" t="n">
-        <v>341.72</v>
+        <v>341.05</v>
       </c>
       <c r="E185" t="n">
         <v>337.77</v>
@@ -23307,7 +23307,7 @@
         <v>350.82</v>
       </c>
       <c r="D186" t="n">
-        <v>343</v>
+        <v>341.86</v>
       </c>
       <c r="E186" t="n">
         <v>338.55</v>
@@ -23559,7 +23559,7 @@
         <v>363.53</v>
       </c>
       <c r="D188" t="n">
-        <v>352.47</v>
+        <v>351.85</v>
       </c>
       <c r="E188" t="n">
         <v>352.05</v>
@@ -23685,7 +23685,7 @@
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>342.66</v>
+        <v>342.95</v>
       </c>
       <c r="E189" t="n">
         <v>330.16</v>
@@ -23793,7 +23793,7 @@
         <v>360.61</v>
       </c>
       <c r="D190" t="n">
-        <v>348.25</v>
+        <v>346.75</v>
       </c>
       <c r="E190" t="n">
         <v>345.68</v>
@@ -23921,7 +23921,7 @@
         <v>372.45</v>
       </c>
       <c r="D191" t="n">
-        <v>362.29</v>
+        <v>362.6</v>
       </c>
       <c r="E191" t="n">
         <v>357.03</v>
@@ -24031,7 +24031,7 @@
         <v>352.31</v>
       </c>
       <c r="D192" t="n">
-        <v>339.91</v>
+        <v>339.68</v>
       </c>
       <c r="E192" t="n">
         <v>332.01</v>
@@ -24169,7 +24169,7 @@
         <v>364.75</v>
       </c>
       <c r="D193" t="n">
-        <v>357.1</v>
+        <v>356.52</v>
       </c>
       <c r="E193" t="n">
         <v>349.62</v>
@@ -24307,7 +24307,7 @@
         <v>358.03</v>
       </c>
       <c r="D194" t="n">
-        <v>349.99</v>
+        <v>349.55</v>
       </c>
       <c r="E194" t="n">
         <v>339.02</v>
@@ -24445,7 +24445,7 @@
         <v>356.25</v>
       </c>
       <c r="D195" t="n">
-        <v>349.69</v>
+        <v>349.92</v>
       </c>
       <c r="E195" t="n">
         <v>341.49</v>
@@ -24583,7 +24583,7 @@
         <v>346.48</v>
       </c>
       <c r="D196" t="n">
-        <v>338.26</v>
+        <v>338.83</v>
       </c>
       <c r="E196" t="n">
         <v>342.52</v>
@@ -24699,7 +24699,7 @@
         <v>358.52</v>
       </c>
       <c r="D197" t="n">
-        <v>350.02</v>
+        <v>350.12</v>
       </c>
       <c r="E197" t="n">
         <v>343.05</v>
@@ -24831,7 +24831,7 @@
         <v>358.33</v>
       </c>
       <c r="D198" t="n">
-        <v>351.84</v>
+        <v>350.5</v>
       </c>
       <c r="E198" t="n">
         <v>343.31</v>
@@ -24965,7 +24965,7 @@
         <v>336.94</v>
       </c>
       <c r="D199" t="n">
-        <v>331.15</v>
+        <v>331.95</v>
       </c>
       <c r="E199" t="n">
         <v>329.77</v>
@@ -25201,7 +25201,7 @@
         <v>368.73</v>
       </c>
       <c r="D201" t="n">
-        <v>347.48</v>
+        <v>348.14</v>
       </c>
       <c r="E201" t="n">
         <v>337.84</v>
@@ -25335,7 +25335,7 @@
         <v>364.59</v>
       </c>
       <c r="D202" t="n">
-        <v>354.43</v>
+        <v>353.96</v>
       </c>
       <c r="E202" t="n">
         <v>346.83</v>
@@ -25579,7 +25579,7 @@
         <v>363.89</v>
       </c>
       <c r="D204" t="n">
-        <v>352.47</v>
+        <v>352.81</v>
       </c>
       <c r="E204" t="n">
         <v>346.37</v>
@@ -25693,7 +25693,7 @@
         <v>339.6</v>
       </c>
       <c r="D205" t="n">
-        <v>337.21</v>
+        <v>337.68</v>
       </c>
       <c r="E205" t="n">
         <v>335.8</v>
@@ -25813,7 +25813,7 @@
         <v>345.94</v>
       </c>
       <c r="D206" t="n">
-        <v>340.44</v>
+        <v>339.6</v>
       </c>
       <c r="E206" t="n">
         <v>332.15</v>
@@ -26153,7 +26153,7 @@
         <v>348.21</v>
       </c>
       <c r="D209" t="n">
-        <v>345.16</v>
+        <v>345.12</v>
       </c>
       <c r="E209" t="n">
         <v>332.74</v>
@@ -26289,7 +26289,7 @@
         <v>342.78</v>
       </c>
       <c r="D210" t="n">
-        <v>330.48</v>
+        <v>330.68</v>
       </c>
       <c r="E210" t="n">
         <v>317.66</v>
@@ -26427,7 +26427,7 @@
         <v>344.76</v>
       </c>
       <c r="D211" t="n">
-        <v>333.51</v>
+        <v>333.18</v>
       </c>
       <c r="E211" t="n">
         <v>325.82</v>
@@ -26565,7 +26565,7 @@
         <v>340.01</v>
       </c>
       <c r="D212" t="n">
-        <v>334.81</v>
+        <v>333.94</v>
       </c>
       <c r="E212" t="n">
         <v>329.52</v>
@@ -26699,7 +26699,7 @@
         <v>347.31</v>
       </c>
       <c r="D213" t="n">
-        <v>336.78</v>
+        <v>336.71</v>
       </c>
       <c r="E213" t="n">
         <v>339.77</v>
@@ -29330,7 +29330,7 @@
         <v>0.0868</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06564231920664086</v>
+        <v>0.0587949587281956</v>
       </c>
       <c r="J4" t="n">
         <v>212</v>
@@ -29339,19 +29339,19 @@
         <v>179</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001297803071782067</v>
+        <v>0.001049776463030838</v>
       </c>
       <c r="M4" t="n">
-        <v>11.26176951000617</v>
+        <v>11.15324958973648</v>
       </c>
       <c r="N4" t="n">
-        <v>211.5907148992929</v>
+        <v>209.9078894086878</v>
       </c>
       <c r="O4" t="n">
-        <v>14.54615808037617</v>
+        <v>14.48819828027929</v>
       </c>
       <c r="P4" t="n">
-        <v>351.5014443650751</v>
+        <v>351.3779168358828</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32703,7 +32703,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-34.46717193847383,172.66583842869008</t>
+          <t>-34.46717151061689,172.66583786827158</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -32901,7 +32901,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-34.467144372257096,172.66580232173862</t>
+          <t>-34.467138504502266,172.66579463600476</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -33063,7 +33063,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-34.46713948246143,172.66579591696035</t>
+          <t>-34.467139910318565,172.6657964773784</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -33285,7 +33285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-34.46710635408703,172.66575252460726</t>
+          <t>-34.467111182762494,172.66575884932078</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -33717,7 +33717,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-34.46710586510722,172.66575188412997</t>
+          <t>-34.467105437249884,172.66575132371233</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -33939,7 +33939,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-34.467146939399676,172.6658056842475</t>
+          <t>-34.467150545623625,172.66581040777226</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -34157,7 +34157,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-34.467139237971644,172.66579559672144</t>
+          <t>-34.467138198890005,172.66579423570616</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -34379,7 +34379,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-34.46713453154298,172.6657894321231</t>
+          <t>-34.46713214776731,172.66578630979433</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -34597,7 +34597,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-34.46714681715479,172.66580552412805</t>
+          <t>-34.46714253858376,172.66579991994666</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -34819,7 +34819,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-34.46708441111471,172.66572378319668</t>
+          <t>-34.46708985101655,172.66573090850318</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -35041,7 +35041,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-34.46709883602206,172.6657426772699</t>
+          <t>-34.467096146632784,172.6657391546456</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -35263,7 +35263,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-34.46712890827718,172.66578206662987</t>
+          <t>-34.4671256687869,172.66577782346576</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -35477,7 +35477,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-34.46717542245169,172.66584299209805</t>
+          <t>-34.4671748112275,172.66584219150016</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -35691,7 +35691,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-34.46717994551041,172.665848916523</t>
+          <t>-34.46718593550664,172.66585676238407</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -35913,7 +35913,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-34.46715048450119,172.66581032771248</t>
+          <t>-34.46715066786849,172.66581056789173</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -36135,7 +36135,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-34.46716912684246,172.66583474594006</t>
+          <t>-34.46716735429218,172.66583242420649</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -36301,7 +36301,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-34.467174688982674,172.66584203138058</t>
+          <t>-34.46717444449301,172.6658417111414</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -36507,7 +36507,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-34.467138810114506,172.66579503630336</t>
+          <t>-34.46714327205309,172.66580088066343</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -36693,7 +36693,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-34.46710757653654,172.66575412580048</t>
+          <t>-34.46710555949485,172.66575148383166</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -36915,7 +36915,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-34.467144922359076,172.6658030422762</t>
+          <t>-34.46714027705325,172.66579695773675</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -37069,7 +37069,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-34.46711870082616,172.66576869666102</t>
+          <t>-34.46711668378475,172.66576605469152</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-34.46707793212996,172.66571529687778</t>
+          <t>-34.46708379988976,172.66572298260053</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -37631,7 +37631,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-34.46707701529243,172.66571409598373</t>
+          <t>-34.46708379988976,172.66572298260053</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -37817,7 +37817,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-34.46706032884762,172.66569223971607</t>
+          <t>-34.46706424068852,172.66569736352895</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -37947,7 +37947,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-34.46714907868508,172.6658084863384</t>
+          <t>-34.46714406664487,172.66580192143994</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -38069,7 +38069,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-34.46718954172861,172.6658614859132</t>
+          <t>-34.467194553765644,172.6658680508188</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -38279,7 +38279,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-34.46717829520522,172.66584675490842</t>
+          <t>-34.46718208479483,172.66585171861612</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -38489,7 +38489,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-34.467155252051214,172.66581657237293</t>
+          <t>-34.467154212969824,172.66581521135714</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -38707,7 +38707,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-34.46714101052262,172.66579791845348</t>
+          <t>-34.46713917684919,172.66579551666172</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -39003,7 +39003,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-34.466989610062015,172.6655996108689</t>
+          <t>-34.46698740964924,172.66559672872924</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -39161,7 +39161,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-34.46696730031821,172.66557038918208</t>
+          <t>-34.46697365706784,172.66557871535974</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -39367,7 +39367,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-34.46701143081837,172.66562819209548</t>
+          <t>-34.46701894889255,172.6656380394123</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -39683,7 +39683,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-34.46689004131591,172.66546919420045</t>
+          <t>-34.466888024268044,172.66546655224536</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -39893,7 +39893,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-34.46713569286957,172.6657909532577</t>
+          <t>-34.467138993481846,172.66579527648256</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -40099,7 +40099,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-34.46707377579979,172.66570985282485</t>
+          <t>-34.467071514267104,172.66570689061982</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -40237,7 +40237,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-34.46702732268156,172.66564900756399</t>
+          <t>-34.46702286073572,172.6656431632201</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -40451,7 +40451,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-34.46702029358868,172.66563980072115</t>
+          <t>-34.46702145491711,172.6656413218516</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -40747,7 +40747,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-34.46698967118458,172.66559969092836</t>
+          <t>-34.466989915674894,172.66560001116608</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -40941,7 +40941,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-34.46706246813564,172.6656950418012</t>
+          <t>-34.467060023235035,172.6656918394182</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -41079,7 +41079,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-34.466992116087596,172.66560289330593</t>
+          <t>-34.46699798385446,172.66561057901293</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -41221,7 +41221,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-34.467104826025114,172.66575052311578</t>
+          <t>-34.46710195326862,172.665746760312</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -41573,7 +41573,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-34.46708349427728,172.6657225823024</t>
+          <t>-34.467087039381944,172.6657272257604</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -41787,7 +41787,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-34.46713966582878,172.6657961571395</t>
+          <t>-34.46713660970632,172.66579215415345</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -41957,7 +41957,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-34.467142049604185,172.6657992794688</t>
+          <t>-34.467139849196116,172.66579639731867</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -42143,7 +42143,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-34.46709492418307,172.66573755345277</t>
+          <t>-34.46709791918484,172.66574147637522</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -42463,7 +42463,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-34.467013508985296,172.66563091411786</t>
+          <t>-34.4670186432798,172.66563763911483</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -42645,7 +42645,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-34.46701045285745,172.66562691114385</t>
+          <t>-34.467011247450706,172.66562795191706</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -42827,7 +42827,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-34.46698948781686,172.66559945075005</t>
+          <t>-34.466995966809655,172.66560793705102</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -42961,7 +42961,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-34.46710861561862,172.66575548681476</t>
+          <t>-34.46710500939254,172.66575076329474</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -43151,7 +43151,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-34.46707016957196,172.66570512930875</t>
+          <t>-34.46706913048933,172.66570376829574</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -43373,7 +43373,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-34.46709443520317,172.6657369129757</t>
+          <t>-34.467098041429786,172.66574163649452</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -43547,7 +43547,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-34.46704419250169,172.66567110399302</t>
+          <t>-34.46705109934717,172.66568015072198</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -43923,7 +43923,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-34.467142477461316,172.66579983988694</t>
+          <t>-34.467138198890005,172.66579423570616</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -44097,7 +44097,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-34.467074203657326,172.66571041324204</t>
+          <t>-34.46707194212463,172.66570745103695</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -44283,7 +44283,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-34.46701790980919,172.66563667840092</t>
+          <t>-34.467024388799395,172.66564516470768</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -44619,7 +44619,7 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-34.4669739626808,172.66557911565678</t>
+          <t>-34.46697879136521,172.66558544035033</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -44805,7 +44805,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-34.46693215481725,172.66552435504943</t>
+          <t>-34.46693582217469,172.66552915860927</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -45209,7 +45209,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-34.467063323850816,172.66569616263527</t>
+          <t>-34.46705941200989,172.6656910388225</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -45577,7 +45577,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-34.466980930655666,172.66558824243</t>
+          <t>-34.466980686165336,172.66558792219232</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -45779,7 +45779,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-34.46709547428544,172.66573827398955</t>
+          <t>-34.46710024183916,172.6657445186418</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -45961,7 +45961,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-34.46697432941632,172.66557959601323</t>
+          <t>-34.46698105290083,172.66558840254885</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -46151,7 +46151,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-34.466913940272555,172.665500497375</t>
+          <t>-34.4669177298762,172.66550546105137</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -46361,7 +46361,7 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-34.46686485877492,172.66543620980056</t>
+          <t>-34.46686259723562,172.66543324761028</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -46527,7 +46527,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-34.46678252647332,172.6653283701655</t>
+          <t>-34.46677892023075,172.66532364668222</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -46883,7 +46883,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-34.467129030522095,172.6657822267493</t>
+          <t>-34.4671334924613,172.66578807110798</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -47057,7 +47057,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-34.46704437586927,172.66567134417164</t>
+          <t>-34.46705164944988,172.66568087125796</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -47429,7 +47429,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-34.467004951826986,172.66561970579136</t>
+          <t>-34.46700489070442,172.6656196257319</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -47623,7 +47623,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-34.46707762651745,172.66571489657977</t>
+          <t>-34.467072797839734,172.66570857187128</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -47797,7 +47797,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-34.46701509817174,172.66563299566442</t>
+          <t>-34.46702041583377,172.66563996084017</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -48331,7 +48331,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-34.46692225295125,172.66551138543988</t>
+          <t>-34.46692689827127,172.66551746994767</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -48521,7 +48521,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-34.46698386453962,172.66559208528233</t>
+          <t>-34.46698533148155,172.66559400670857</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -48703,7 +48703,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-34.46693331614713,172.66552587617667</t>
+          <t>-34.466934416354356,172.66552731724462</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -48893,7 +48893,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-34.46710213663605,172.66574700049094</t>
+          <t>-34.4671051316375,172.66575092341407</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -49047,7 +49047,7 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-34.46701136969582,172.665628112036</t>
+          <t>-34.467010391734895,172.66562683108435</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -49229,7 +49229,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-34.46691381802726,172.66550033725642</t>
+          <t>-34.46690850035729,172.6654933720984</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -49407,7 +49407,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-34.466978241261934,172.6655847198156</t>
+          <t>-34.46697536850034,172.66558095702317</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -49767,7 +49767,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-34.46706748018159,172.66570160668687</t>
+          <t>-34.467063018238264,172.66569576233738</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -50107,7 +50107,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-34.46698893771367,172.66559873021512</t>
+          <t>-34.46699339966164,172.66560457455424</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -50483,7 +50483,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-34.46698820424275,172.6655977695019</t>
+          <t>-34.4669939497648,172.66560529508928</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -50705,7 +50705,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-34.46700128447312,172.66561490222358</t>
+          <t>-34.4670023846793,172.66561634329386</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -50997,7 +50997,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-34.46697536850034,172.66558095702317</t>
+          <t>-34.46697084542865,172.66557503262715</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -51207,7 +51207,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-34.467024816657215,172.6656457251242</t>
+          <t>-34.46703154013696,172.6656545316704</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -51385,7 +51385,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-34.46703111227918,172.6656539712538</t>
+          <t>-34.46702970646074,172.66565212988493</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -51603,7 +51603,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-34.46702304410336,172.6656434033986</t>
+          <t>-34.46702683370121,172.6656483670879</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -51821,7 +51821,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-34.466988570978216,172.6655982498585</t>
+          <t>-34.4669937052745,172.66560497485148</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -52035,7 +52035,7 @@
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-34.46698850985564,172.66559816979907</t>
+          <t>-34.4669970670159,172.66560937812116</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -52257,7 +52257,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-34.46696198265223,172.66556342401518</t>
+          <t>-34.46696381633019,172.66556582579676</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -52669,7 +52669,7 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-34.46673631765662,172.66526784556336</t>
+          <t>-34.46673301702571,172.66526352238006</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -52875,7 +52875,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-34.46706252925815,172.66569512186075</t>
+          <t>-34.467065952118844,172.66569960519723</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -53085,7 +53085,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-34.4670054408075,172.6656203462671</t>
+          <t>-34.46700947489651,172.6656256301922</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -53303,7 +53303,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-34.46706699120151,172.66570096621015</t>
+          <t>-34.46707108640956,172.66570633020262</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -53437,7 +53437,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-34.46699780048676,172.66561033883457</t>
+          <t>-34.466998900693,172.66561177990476</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -53563,7 +53563,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-34.466959048767364,172.66555958116484</t>
+          <t>-34.4669633273494,172.66556518532164</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -53951,7 +53951,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-34.467038874841414,172.66566413881336</t>
+          <t>-34.467042725560944,172.66566918256407</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -54157,7 +54157,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-34.46706497415866,172.66569832424392</t>
+          <t>-34.46706637997641,172.6657001656143</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -54299,7 +54299,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-34.46700128447312,172.66561490222358</t>
+          <t>-34.467005929788,172.66562098674285</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -54517,7 +54517,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-34.4668719490058,172.6654454966684</t>
+          <t>-34.46687726667851,172.66545246182037</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -54739,7 +54739,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-34.466866264596625,172.66543805116217</t>
+          <t>-34.466874210544816,172.66544845885937</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -54961,7 +54961,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-34.46689059141987,172.66546991473368</t>
+          <t>-34.466898720733305,172.6654805626147</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -55183,7 +55183,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-34.46682922424179,172.6653895353074</t>
+          <t>-34.46682635147419,172.66538577252837</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -55345,7 +55345,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-34.466906177696714,172.66549032984577</t>
+          <t>-34.466906299942,172.6654904899643</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -55563,7 +55563,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-34.46690018767699,172.66548248403708</t>
+          <t>-34.46690342717751,172.66548672717838</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -55785,7 +55785,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-34.46701130857327,172.66562803197652</t>
+          <t>-34.46700580754286,172.6656208266239</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -55971,7 +55971,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-34.46684047082021,172.66540426618946</t>
+          <t>-34.466835764371844,172.66539810163508</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -56387,7 +56387,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-34.466853489954964,172.66542131879157</t>
+          <t>-34.46685648496685,172.6654252416914</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -56589,7 +56589,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-34.466782648718834,172.66532853028357</t>
+          <t>-34.46677934809005,172.6653242070955</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -56743,7 +56743,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-34.46695458681725,172.6655537368305</t>
+          <t>-34.4669549535529,172.66555421718672</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -56953,7 +56953,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-34.46710158653373,172.6657462799541</t>
+          <t>-34.4671079432714,172.66575460615846</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -57163,7 +57163,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-34.46705965649995,172.6656913590608</t>
+          <t>-34.46706167354296,172.6656940010267</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -57491,7 +57491,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-34.46710959357819,172.6657567677694</t>
+          <t>-34.467110204802935,172.66575756836608</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -57673,7 +57673,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-34.46695281426165,172.6655514151088</t>
+          <t>-34.46695012486687,172.66554789249676</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -57895,7 +57895,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-34.466945846284034,172.66554228834173</t>
+          <t>-34.46695079721557,172.66554877314974</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -58117,7 +58117,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-34.46696711695043,172.66557014900388</t>
+          <t>-34.46697365706784,172.66557871535974</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -58541,7 +58541,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-34.46698374229447,172.66559192516348</t>
+          <t>-34.466982091984754,172.665589763559</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -58743,7 +58743,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-34.46709364061084,172.6657358722004</t>
+          <t>-34.46708954540411,172.66573050820503</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -58965,7 +58965,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-34.467049265671434,172.66567774893537</t>
+          <t>-34.46704517046215,172.6656723849457</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -59187,7 +59187,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-34.467176583777594,172.66584451323413</t>
+          <t>-34.46717743949143,172.66584563407127</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -59369,7 +59369,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-34.46705134383727,172.66568047096018</t>
+          <t>-34.467054033228244,172.66568399358073</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -59571,7 +59571,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-34.46701809317683,172.6656369185794</t>
+          <t>-34.46701485368152,172.66563267542648</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -59967,7 +59967,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-34.467049082303866,172.66567750875672</t>
+          <t>-34.46704761536325,172.66567558732754</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -60189,7 +60189,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-34.467008435813,172.66562426918117</t>
+          <t>-34.4670133867402,172.66563075399887</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -60411,7 +60411,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-34.46703196799475,172.66565509208704</t>
+          <t>-34.467038874841414,172.66566413881336</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -60565,7 +60565,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-34.46704150311034,172.6656675813733</t>
+          <t>-34.467047493118194,172.66567542720844</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -60687,7 +60687,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-34.46717108275995,172.66583730785308</t>
+          <t>-34.46717395551365,172.66584107066308</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -60881,7 +60881,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-34.46710641520951,172.6657526046669</t>
+          <t>-34.467112344089436,172.66576037045454</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -61075,7 +61075,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-34.46706344609585,172.66569632275443</t>
+          <t>-34.467072186614665,172.66570777127535</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -61293,7 +61293,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-34.46704896005881,172.66567734863762</t>
+          <t>-34.467048715568716,172.66567702839944</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -61419,7 +61419,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-34.4670054408075,172.6656203462671</t>
+          <t>-34.46701259214696,172.66562971322563</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -61585,7 +61585,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-34.46705617251645,172.6656867956654</t>
+          <t>-34.46706497415866,172.66569832424392</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -61807,7 +61807,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-34.46703685779778,172.66566149684886</t>
+          <t>-34.46704235882577,172.66566870220683</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -62029,7 +62029,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-34.46703985280195,172.66566541976584</t>
+          <t>-34.46704309229614,172.6656696629213</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -62603,7 +62603,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-34.46706008435757,172.66569191947778</t>
+          <t>-34.467062590380664,172.66569520192033</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -62825,7 +62825,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-34.46700898591603,172.66562498971643</t>
+          <t>-34.46701448694619,172.66563219506958</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -63047,7 +63047,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-34.46704309229614,172.6656696629213</t>
+          <t>-34.4670517105724,172.66568095131754</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -63269,7 +63269,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-34.467051038224646,172.66568007066243</t>
+          <t>-34.467048165465975,172.66567630786346</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -63491,7 +63491,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-34.46708214958235,172.66572082099088</t>
+          <t>-34.467088689689234,172.66572938737028</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -63709,7 +63709,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-34.467038202493555,172.6656632581585</t>
+          <t>-34.46704309229614,172.6656696629213</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -63931,7 +63931,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>-34.467025305637584,172.66564636560025</t>
+          <t>-34.46702163828475,172.66564156203012</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -64153,7 +64153,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-34.46714657266502,172.66580520388908</t>
+          <t>-34.467152012562124,172.66581232920615</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -64319,7 +64319,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-34.467190825299106,172.66586316716945</t>
+          <t>-34.467184774180865,172.66585524124767</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -64533,7 +64533,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-34.46710641520951,172.6657526046669</t>
+          <t>-34.46710861561862,172.66575548681476</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -64735,7 +64735,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-34.46716698755764,172.66583194384782</t>
+          <t>-34.46716234225324,172.66582585930516</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -64957,7 +64957,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-34.46711240521192,172.6657604505142</t>
+          <t>-34.46710806551634,172.6657547662778</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -65179,7 +65179,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-34.467093029385985,172.66573507160405</t>
+          <t>-34.46710079194148,172.66574523917865</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -65401,7 +65401,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-34.46709211254866,172.66573387070954</t>
+          <t>-34.46708758948437,172.66572794629698</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -65623,7 +65623,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-34.467068397019226,172.66570280758066</t>
+          <t>-34.46707194212463,172.66570745103695</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -65845,7 +65845,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-34.46707450926983,172.66571081354002</t>
+          <t>-34.467071636512124,172.66570705073897</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -66027,7 +66027,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-34.46706136793039,172.66569360072884</t>
+          <t>-34.46706509640368,172.6656984843631</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -66249,7 +66249,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-34.46704804322093,172.66567614774436</t>
+          <t>-34.46704743199567,172.6656753471489</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -66471,7 +66471,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-34.46715494643905,172.66581617207416</t>
+          <t>-34.46715048450119,172.66581032771248</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -66657,7 +66657,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-34.467097491327436,172.6657409159577</t>
+          <t>-34.46710048632909,172.66574483888039</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -66879,7 +66879,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-34.46725567614006,172.6659481107061</t>
+          <t>-34.46725683746469,172.66594963184508</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -67183,7 +67183,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-34.46720347763557,172.66587973955507</t>
+          <t>-34.467199443557526,172.66587445560546</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -67373,7 +67373,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-34.46707353130978,172.66570953258645</t>
+          <t>-34.46707285896224,172.66570865193088</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -67595,7 +67595,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-34.46713636521653,172.6657918339146</t>
+          <t>-34.4671386878696,172.66579487618395</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -67817,7 +67817,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-34.467119250928334,172.6657694171982</t>
+          <t>-34.46712334613338,172.66577478119737</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -68039,7 +68039,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-34.46711142725238,172.66575916955946</t>
+          <t>-34.46711839521382,172.66576829636261</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -68435,7 +68435,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-34.46705354424807,172.66568335310427</t>
+          <t>-34.4670573338443,172.66568831679717</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -68633,7 +68633,7 @@
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-34.467113505416386,172.66576189158832</t>
+          <t>-34.467111732864744,172.6657595698578</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -68795,7 +68795,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-34.467079337947446,172.66571713824877</t>
+          <t>-34.46708850632175,172.6657291471914</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -68997,7 +68997,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-34.46699352190679,172.66560473467314</t>
+          <t>-34.466991627107,172.6656022528304</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -69163,7 +69163,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-34.46713031409368,172.66578390800308</t>
+          <t>-34.46713171991014,172.66578574937637</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -69385,7 +69385,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-34.46702524451504,172.6656462855407</t>
+          <t>-34.4670287896226,172.66565092899225</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -69607,7 +69607,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-34.467068702631785,172.66570320787858</t>
+          <t>-34.467071392022106,172.6657067305006</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -69829,7 +69829,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-34.46707053630699,172.6657056096663</t>
+          <t>-34.46706913048933,172.66570376829574</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -70051,7 +70051,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-34.467140399298145,172.66579711785621</t>
+          <t>-34.46713691531859,172.66579255445205</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -70229,7 +70229,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-34.467068519264245,172.66570296769984</t>
+          <t>-34.46706790803916,172.66570216710394</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -70439,7 +70439,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-34.467057394966815,172.66568839685672</t>
+          <t>-34.467065585383786,172.66569912483973</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -70653,7 +70653,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-34.46718385734474,172.66585404035052</t>
+          <t>-34.46717896755178,172.66584763556622</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -71017,7 +71017,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-34.46708404437975,172.66572330283898</t>
+          <t>-34.46708001029494,172.66571801890447</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -71231,7 +71231,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>-34.46704156423286,172.66566766143285</t>
+          <t>-34.467044436991806,172.6656714242312</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -71611,7 +71611,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>-34.46705354424807,172.66568335310427</t>
+          <t>-34.46705146608232,172.66568063107928</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -71785,7 +71785,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-34.46714681715479,172.66580552412805</t>
+          <t>-34.46714394439999,172.66580176132047</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -71971,7 +71971,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-34.467127074603454,172.66577966483882</t>
+          <t>-34.467132208889765,172.66578638985405</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -72489,7 +72489,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-34.46709822479723,172.66574187667345</t>
+          <t>-34.46709846928717,172.66574219691205</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -72707,7 +72707,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-34.46718795254608,172.66585940435795</t>
+          <t>-34.46718673009794,172.66585780316163</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -72929,7 +72929,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-34.46716943245457,172.66583514623898</t>
+          <t>-34.467171449494465,172.6658377882118</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -73151,7 +73151,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-34.46716148653925,172.66582473846844</t>
+          <t>-34.46716680419036,172.6658317036685</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -73365,7 +73365,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-34.46714944541972,172.66580896669686</t>
+          <t>-34.4671498732768,172.66580952711504</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
